--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -36,7 +36,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -45,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 20231121 - Indentation from MAS form looks weird.</t>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="263">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -814,6 +814,39 @@
   </si>
   <si>
     <t>CI(FY22) and MG(FY22)</t>
+  </si>
+  <si>
+    <t>total_shareholder_fund</t>
+  </si>
+  <si>
+    <t>total_trade_cred</t>
+  </si>
+  <si>
+    <t>total_current_liab</t>
+  </si>
+  <si>
+    <t>total_noncurrent_liab</t>
+  </si>
+  <si>
+    <t>total_liab</t>
+  </si>
+  <si>
+    <t>total_shareholder_fund_and_liab</t>
+  </si>
+  <si>
+    <t>total_trade_debt</t>
+  </si>
+  <si>
+    <t>net_trade_debt</t>
+  </si>
+  <si>
+    <t>total_current_asset</t>
+  </si>
+  <si>
+    <t>total_noncurrent_asset</t>
+  </si>
+  <si>
+    <t>total_asset</t>
   </si>
 </sst>
 </file>
@@ -821,7 +854,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -897,14 +930,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -933,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1083,15 +1116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1139,15 +1163,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1159,12 +1174,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,7 +1224,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1218,16 +1233,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,13 +1248,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,8 +1605,7 @@
     <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.7265625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
@@ -1611,10 +1619,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
@@ -1622,10 +1630,10 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
@@ -1633,10 +1641,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
@@ -1644,10 +1652,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1726,7 +1734,7 @@
       </c>
       <c r="D14" s="18"/>
       <c r="G14" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>156</v>
@@ -1738,7 +1746,7 @@
       </c>
       <c r="D15" s="18"/>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>157</v>
@@ -1774,7 +1782,7 @@
       </c>
       <c r="D18" s="18"/>
       <c r="G18" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>160</v>
@@ -1783,20 +1791,25 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1825,7 +1838,7 @@
       </c>
       <c r="E25" s="7"/>
       <c r="G25" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>161</v>
@@ -1843,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="6" t="s">
@@ -1855,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="6" t="s">
@@ -1869,7 +1882,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="19"/>
       <c r="G29" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>164</v>
@@ -1883,7 +1896,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="19"/>
       <c r="G30" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>165</v>
@@ -1904,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="6" t="s">
@@ -1917,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="6" t="s">
@@ -1939,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="6" t="s">
@@ -1952,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="6" t="s">
@@ -1981,7 +1994,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="6" t="s">
@@ -1993,7 +2006,7 @@
         <v>26</v>
       </c>
       <c r="F40" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="6" t="s">
@@ -2005,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="6" t="s">
@@ -2019,7 +2032,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="19"/>
       <c r="G42" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>173</v>
@@ -2032,7 +2045,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="19"/>
       <c r="G43" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>174</v>
@@ -2067,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="6" t="s">
@@ -2079,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="6" t="s">
@@ -2093,7 +2106,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="19"/>
       <c r="G49" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>177</v>
@@ -2106,7 +2119,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="19"/>
       <c r="G50" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>178</v>
@@ -2141,7 +2154,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="6" t="s">
@@ -2153,7 +2166,7 @@
         <v>26</v>
       </c>
       <c r="F55" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="6" t="s">
@@ -2165,7 +2178,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="6" t="s">
@@ -2179,7 +2192,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="19"/>
       <c r="G57" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>182</v>
@@ -2192,7 +2205,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="19"/>
       <c r="G58" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>183</v>
@@ -2213,7 +2226,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="19"/>
       <c r="G60" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>184</v>
@@ -2248,7 +2261,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="6" t="s">
@@ -2260,7 +2273,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="6" t="s">
@@ -2274,7 +2287,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="19"/>
       <c r="G66" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>187</v>
@@ -2286,16 +2299,21 @@
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -2315,7 +2333,7 @@
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>188</v>
@@ -2327,7 +2345,7 @@
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="6" t="s">
@@ -2354,7 +2372,7 @@
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>190</v>
@@ -2366,7 +2384,7 @@
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="6" t="s">
@@ -2386,7 +2404,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="G78" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>192</v>
@@ -2404,7 +2422,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="G80" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>193</v>
@@ -2422,7 +2440,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="G82" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>194</v>
@@ -2469,15 +2487,19 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C88" s="23" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="G88" s="22"/>
-    </row>
-    <row r="89" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="G88" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>127</v>
@@ -2497,7 +2519,7 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>246</v>
@@ -2509,7 +2531,7 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="6" t="s">
@@ -2536,7 +2558,7 @@
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>197</v>
@@ -2548,7 +2570,7 @@
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="6" t="s">
@@ -2585,7 +2607,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="G101" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>200</v>
@@ -2604,7 +2626,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="G103" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>201</v>
@@ -2623,7 +2645,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="G105" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>202</v>
@@ -2670,26 +2692,36 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C111" s="23" t="s">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="G111" s="22"/>
-    </row>
-    <row r="112" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="G111" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="G113" s="3"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="G113" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" s="20" t="s">
@@ -2697,7 +2729,12 @@
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
-      <c r="G115" s="3"/>
+      <c r="G115" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
@@ -2725,7 +2762,7 @@
       </c>
       <c r="E120" s="7"/>
       <c r="G120" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>205</v>
@@ -2742,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>206</v>
@@ -2753,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="6" t="s">
@@ -2766,7 +2803,7 @@
       </c>
       <c r="E124" s="7"/>
       <c r="G124" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>208</v>
@@ -2778,7 +2815,7 @@
       </c>
       <c r="E125" s="7"/>
       <c r="G125" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>209</v>
@@ -2790,7 +2827,7 @@
       </c>
       <c r="E126" s="7"/>
       <c r="G126" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>210</v>
@@ -2802,7 +2839,7 @@
       </c>
       <c r="E127" s="7"/>
       <c r="G127" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>211</v>
@@ -2813,14 +2850,14 @@
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
-      <c r="G128" s="25"/>
+      <c r="G128" s="23"/>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>212</v>
@@ -2831,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="6" t="s">
@@ -2861,7 +2898,7 @@
         <v>70</v>
       </c>
       <c r="F134" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>214</v>
@@ -2872,7 +2909,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="6" t="s">
@@ -2885,7 +2922,7 @@
       </c>
       <c r="E136" s="7"/>
       <c r="G136" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>216</v>
@@ -2897,7 +2934,7 @@
       </c>
       <c r="E137" s="7"/>
       <c r="G137" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>217</v>
@@ -2922,7 +2959,7 @@
       </c>
       <c r="E140" s="7"/>
       <c r="G140" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>218</v>
@@ -2934,7 +2971,7 @@
       </c>
       <c r="E141" s="7"/>
       <c r="G141" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>219</v>
@@ -2946,7 +2983,7 @@
       </c>
       <c r="E142" s="7"/>
       <c r="G142" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>220</v>
@@ -2975,7 +3012,7 @@
         <v>70</v>
       </c>
       <c r="F146" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>221</v>
@@ -2986,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="6" t="s">
@@ -2999,7 +3036,7 @@
       </c>
       <c r="E148" s="7"/>
       <c r="G148" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>223</v>
@@ -3011,7 +3048,7 @@
       </c>
       <c r="E149" s="7"/>
       <c r="G149" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>224</v>
@@ -3028,8 +3065,8 @@
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
-      <c r="G151" s="16">
-        <v>0</v>
+      <c r="G151" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>225</v>
@@ -3058,15 +3095,20 @@
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
-      <c r="G155" s="22"/>
-    </row>
-    <row r="156" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G155" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -3075,7 +3117,7 @@
       </c>
       <c r="E156" s="7"/>
       <c r="G156" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>227</v>
@@ -3093,15 +3135,20 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
-      <c r="G158" s="22"/>
-    </row>
-    <row r="159" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G158" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -3119,7 +3166,7 @@
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>231</v>
@@ -3143,7 +3190,7 @@
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="6" t="s">
@@ -3162,7 +3209,7 @@
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="G165" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>232</v>
@@ -3186,7 +3233,7 @@
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>233</v>
@@ -3210,7 +3257,7 @@
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="6" t="s">
@@ -3235,7 +3282,7 @@
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>236</v>
@@ -3247,7 +3294,7 @@
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="6" t="s">
@@ -3266,7 +3313,7 @@
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="G176" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>238</v>
@@ -3284,7 +3331,7 @@
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="G178" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>239</v>
@@ -3344,15 +3391,19 @@
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C185" s="23" t="s">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23"/>
-      <c r="G185" s="22"/>
-    </row>
-    <row r="186" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="G185" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
         <v>129</v>
@@ -3392,7 +3443,7 @@
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>244</v>
@@ -3404,7 +3455,7 @@
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="16">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="6" t="s">
@@ -3470,30 +3521,39 @@
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C200" s="23" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="G200" s="22"/>
-    </row>
-    <row r="201" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="23"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-    </row>
-    <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B202" s="24" t="s">
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="G200" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="G202" s="22"/>
-    </row>
-    <row r="203" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="G202" s="16">
+        <v>999999999</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="20" t="s">
         <v>96</v>
@@ -3520,7 +3580,7 @@
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
-      <c r="G208" s="26"/>
+      <c r="G208" s="24"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
@@ -3529,49 +3589,49 @@
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
-      <c r="G209" s="26"/>
+      <c r="G209" s="24"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
-      <c r="G210" s="26"/>
+      <c r="G210" s="24"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B211" s="26"/>
+      <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
-      <c r="G211" s="26"/>
+      <c r="G211" s="24"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B212" s="26"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
-      <c r="G212" s="26"/>
+      <c r="G212" s="24"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B213" s="26"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
-      <c r="G213" s="26"/>
+      <c r="G213" s="24"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B214" s="26"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
-      <c r="G214" s="26"/>
+      <c r="G214" s="24"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B215" s="26"/>
+      <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
-      <c r="G215" s="26"/>
+      <c r="G215" s="24"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
@@ -3635,42 +3695,42 @@
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
-      <c r="G224" s="26"/>
+      <c r="G224" s="24"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B225" s="26"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
-      <c r="G225" s="26"/>
+      <c r="G225" s="24"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B226" s="26"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
-      <c r="G226" s="26"/>
+      <c r="G226" s="24"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B227" s="26"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
-      <c r="G227" s="26"/>
+      <c r="G227" s="24"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B228" s="26"/>
+      <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
-      <c r="G228" s="26"/>
+      <c r="G228" s="24"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B229" s="26"/>
+      <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
-      <c r="G229" s="26"/>
+      <c r="G229" s="24"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6140" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId2"/>
-    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId3"/>
-    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId4"/>
-    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId5"/>
+    <sheet name="Form 1 - TB mapping" sheetId="20" r:id="rId2"/>
+    <sheet name="Form 3 - TB mapping" sheetId="18" r:id="rId3"/>
+    <sheet name="Form 2 - TB mapping" sheetId="21" r:id="rId4"/>
+    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -45,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 20231121 - Indentation from MAS form looks weird.</t>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="508">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -814,6 +816,778 @@
   </si>
   <si>
     <t>CI(FY22) and MG(FY22)</t>
+  </si>
+  <si>
+    <t>Previous year
+&lt;&lt;&lt;previous_fy&gt;&gt;&gt;
+$</t>
+  </si>
+  <si>
+    <t>Current year
+&lt;&lt;&lt;current_fy&gt;&gt;&gt;
+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var_name </t>
+  </si>
+  <si>
+    <t>(1) Revenue -</t>
+  </si>
+  <si>
+    <t>(a) Brokerage and commission from:</t>
+  </si>
+  <si>
+    <t>(i) Exchange traded business</t>
+  </si>
+  <si>
+    <t>- Securities and units in a collective investment scheme</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_etb_secs</t>
+  </si>
+  <si>
+    <t>- Futures and other derivatives contracts</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_deriv</t>
+  </si>
+  <si>
+    <t>(ii) Non-exchange traded business</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_non_etb_secs</t>
+  </si>
+  <si>
+    <t>- Over-the-counter derivatives contracts (excluding over-the-counter derivatives contracts where the underlying thing is a currency or currency index)</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_non_etb_otcderiv</t>
+  </si>
+  <si>
+    <t>- Spot foreign exchange contracts for the purposes of leveraged foreign exchange trading and over-the-cunter derivatives contracts where the underlying thing is a currency or currency index</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_spotforex</t>
+  </si>
+  <si>
+    <t>(b) Profit or loss from proprietary trading:</t>
+  </si>
+  <si>
+    <t>(i) Equity and equity derivatives</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_eqderiv</t>
+  </si>
+  <si>
+    <t>(ii) Debt and debt derivatives</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_debtderiv</t>
+  </si>
+  <si>
+    <t>(iii) Commodity and commodity derivatives</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_commderiv</t>
+  </si>
+  <si>
+    <t>(iv) Foreign exchange</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_forex</t>
+  </si>
+  <si>
+    <t>(v) Others</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(c) Underwriting commission</t>
+  </si>
+  <si>
+    <t>rev_underwrite_comm</t>
+  </si>
+  <si>
+    <t>(d) Portfolio management fees</t>
+  </si>
+  <si>
+    <t>(i) Management fees</t>
+  </si>
+  <si>
+    <t>rev_pfl_mgtfees_mgmt_fees</t>
+  </si>
+  <si>
+    <t>(ii) Advisory fees</t>
+  </si>
+  <si>
+    <t>rev_pfl_mgtfees_adv_fees</t>
+  </si>
+  <si>
+    <t>(e) Corporate finance fees from:</t>
+  </si>
+  <si>
+    <t>(i) Managing initial public offerings ("IPOs")</t>
+  </si>
+  <si>
+    <t>rev_corp_finfees_ipo</t>
+  </si>
+  <si>
+    <t>(ii) Others</t>
+  </si>
+  <si>
+    <t>rev_corp_finfees_others</t>
+  </si>
+  <si>
+    <t>(f) Trustee and custodian fees</t>
+  </si>
+  <si>
+    <t>rev_trust_custdn</t>
+  </si>
+  <si>
+    <t>(g) Commission rebates</t>
+  </si>
+  <si>
+    <t>rev_comm_rebates</t>
+  </si>
+  <si>
+    <t>(h) REIT management fees</t>
+  </si>
+  <si>
+    <t>(i) Base and performance fees</t>
+  </si>
+  <si>
+    <t>rev_reit_mgtfees_baseperf</t>
+  </si>
+  <si>
+    <t>(ii) Transaction fees (acquisitions &amp; disposals)</t>
+  </si>
+  <si>
+    <t>rev_reit_mgtfees_trans</t>
+  </si>
+  <si>
+    <t>(i) Fees for providing credit rating services</t>
+  </si>
+  <si>
+    <t>rev_crdrate_fees</t>
+  </si>
+  <si>
+    <t>(j) Interest:</t>
+  </si>
+  <si>
+    <t>(i) Product financing</t>
+  </si>
+  <si>
+    <t>rev_int_prodfin</t>
+  </si>
+  <si>
+    <t>rev_int_others</t>
+  </si>
+  <si>
+    <t>(k) Dividend</t>
+  </si>
+  <si>
+    <t>rev_dividend</t>
+  </si>
+  <si>
+    <t>(l) Other revenue (to specify if significant)</t>
+  </si>
+  <si>
+    <t>rev_other_revenue</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>rev_total_revenue</t>
+  </si>
+  <si>
+    <t>(2) Less: Expenses -</t>
+  </si>
+  <si>
+    <t>(a) Bad debts written off</t>
+  </si>
+  <si>
+    <t>exp_bad_debts</t>
+  </si>
+  <si>
+    <t>(b) Provision for doubtful debts</t>
+  </si>
+  <si>
+    <t>exp_prov_dtf_debts</t>
+  </si>
+  <si>
+    <t>(c) Diminution in the value of specified products</t>
+  </si>
+  <si>
+    <t>exp_dimin</t>
+  </si>
+  <si>
+    <t>(d) Brokerage and commission from business in:</t>
+  </si>
+  <si>
+    <t>(i) Securities and units in a collective investment scheme</t>
+  </si>
+  <si>
+    <t>exp_broker_comm_secs</t>
+  </si>
+  <si>
+    <t>(ii) Futures and other derivatives contracts</t>
+  </si>
+  <si>
+    <t>exp_broker_comm_deriv</t>
+  </si>
+  <si>
+    <t>(iii) Others</t>
+  </si>
+  <si>
+    <t>exp_broker_comm_others</t>
+  </si>
+  <si>
+    <t>(e) Commission expense</t>
+  </si>
+  <si>
+    <t>(i) Other brokers/banks</t>
+  </si>
+  <si>
+    <t>exp_comm_expense_otherbroker</t>
+  </si>
+  <si>
+    <t>(ii) Agents (including remisiers)</t>
+  </si>
+  <si>
+    <t>exp_comm_expense_agents</t>
+  </si>
+  <si>
+    <t>(f) Interest expense</t>
+  </si>
+  <si>
+    <t>exp_int_expense</t>
+  </si>
+  <si>
+    <t>(g) Fee expense</t>
+  </si>
+  <si>
+    <t>exp_fee_expense</t>
+  </si>
+  <si>
+    <t>(h) Directors' remuneration</t>
+  </si>
+  <si>
+    <t>exp_dir_renum</t>
+  </si>
+  <si>
+    <t>(i) Salaries and other employment costs (excluding directors' remuneration)</t>
+  </si>
+  <si>
+    <t>exp_slry</t>
+  </si>
+  <si>
+    <t>(j) Other expenses (to specify if significant)</t>
+  </si>
+  <si>
+    <t>exp_other_expense</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>exp_total_expense</t>
+  </si>
+  <si>
+    <t>Net profit before tax and extraordinary items</t>
+  </si>
+  <si>
+    <t>Less: Taxation</t>
+  </si>
+  <si>
+    <t>npbt</t>
+  </si>
+  <si>
+    <t>Net profit after tax but before extraordinary items</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Extraordinary items (net of tax)</t>
+  </si>
+  <si>
+    <t>extraord_items</t>
+  </si>
+  <si>
+    <t>Net profit after tax and extraordinary items for the year</t>
+  </si>
+  <si>
+    <t>npat</t>
+  </si>
+  <si>
+    <t>npat_bef_extraord</t>
+  </si>
+  <si>
+    <t>7410.100, 7410.200,7410.400</t>
+  </si>
+  <si>
+    <t>total_shareholder_fund</t>
+  </si>
+  <si>
+    <t>total_trade_cred</t>
+  </si>
+  <si>
+    <t>total_current_liab</t>
+  </si>
+  <si>
+    <t>total_noncurrent_liab</t>
+  </si>
+  <si>
+    <t>total_liab</t>
+  </si>
+  <si>
+    <t>total_shareholder_fund_and_liab</t>
+  </si>
+  <si>
+    <t>total_trade_debt</t>
+  </si>
+  <si>
+    <t>net_trade_debt</t>
+  </si>
+  <si>
+    <t>total_current_asset</t>
+  </si>
+  <si>
+    <t>total_noncurrent_asset</t>
+  </si>
+  <si>
+    <t>total_asset</t>
+  </si>
+  <si>
+    <t>Form 2 - Statement of Financial Resources, Total Risk Requirement and Aggregate Indebtedness</t>
+  </si>
+  <si>
+    <t>Crossinvest (FY22) and Myer Gold (FY22)</t>
+  </si>
+  <si>
+    <t>(I) BASE CAPITAL/NET HEAD OFFICE FUNDS</t>
+  </si>
+  <si>
+    <t>(1) Paid-up capital</t>
+  </si>
+  <si>
+    <t>(2) Reserve fund</t>
+  </si>
+  <si>
+    <t>(3) Unappropriated profit or loss</t>
+  </si>
+  <si>
+    <t>Base Capital</t>
+  </si>
+  <si>
+    <t>(4) Net head office funds</t>
+  </si>
+  <si>
+    <t>Total Base Capital or Net Head Office Funds</t>
+  </si>
+  <si>
+    <t>(II) FINANCIAL RESOURCES/ ADJUSTED NET HEAD OFFICE FUNDS</t>
+  </si>
+  <si>
+    <t>(1) Base Capital or Net Head Office Funds</t>
+  </si>
+  <si>
+    <t>Add:</t>
+  </si>
+  <si>
+    <t>(2) Deductions from Financial Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Deductions from Financial Resources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Resources or Adjusted Net Head Office Funds ("FR") </t>
+  </si>
+  <si>
+    <t>(III) TOTAL RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t>(A) OPERATIONAL RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t>Total Operational Risk Requirement</t>
+  </si>
+  <si>
+    <t>(B) COUNTERPARTY RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t>Total Counterparty Risk Requirement</t>
+  </si>
+  <si>
+    <t>(C) POSITION RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t>Total Position Risk Requirement</t>
+  </si>
+  <si>
+    <t>(D) LARGE EXPOSURE RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t>Total Large Exposure Risk Requirement</t>
+  </si>
+  <si>
+    <t>(E) UNDERWRITING RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Underwriting Risk Requirement </t>
+  </si>
+  <si>
+    <t>(F) FIRM-SPECIFIC CAPITAL REQUIREMENT</t>
+  </si>
+  <si>
+    <t>Firm-specific capital requirement</t>
+  </si>
+  <si>
+    <t>Total Risk Requirement ("TRR")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR/TRR Ratio: FR/TRR x 100% </t>
+  </si>
+  <si>
+    <t>(IV) AGGREGATE INDEBTEDNESS</t>
+  </si>
+  <si>
+    <t>(1) Total Liabilities</t>
+  </si>
+  <si>
+    <t>Aggregate Indebtedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) Financial Resources or Adjusted Net Head Office Funds </t>
+  </si>
+  <si>
+    <t>Aggregate Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Aggregate Indebtedness to Aggregate Resources </t>
+  </si>
+  <si>
+    <t>(IV) ADJUSTED ASSETS</t>
+  </si>
+  <si>
+    <t>(1) Adjusted Assets</t>
+  </si>
+  <si>
+    <t>Adjusted Assets</t>
+  </si>
+  <si>
+    <t>Average Adjusted Assets</t>
+  </si>
+  <si>
+    <t>(2) Adjusted Assets Threshold</t>
+  </si>
+  <si>
+    <t>(a) Dividend declared</t>
+  </si>
+  <si>
+    <t>(a) ordinary shares</t>
+  </si>
+  <si>
+    <t>(b) irredeemable and non-cumulative preference shares</t>
+  </si>
+  <si>
+    <t>(a) paid-up irredeemable and cumulative preference share capital</t>
+  </si>
+  <si>
+    <t>(b) paid-up redeemable preference share capital</t>
+  </si>
+  <si>
+    <t>(c) qualifying subordinated loans used on a temporary basis</t>
+  </si>
+  <si>
+    <t>(d) revaluation reserves</t>
+  </si>
+  <si>
+    <t>(e) other reserves</t>
+  </si>
+  <si>
+    <t>(f) interim unappropriated profit</t>
+  </si>
+  <si>
+    <t>(g) collective impairment allowance</t>
+  </si>
+  <si>
+    <t>(a) intangible assets</t>
+  </si>
+  <si>
+    <t>(b) future income tax benefits</t>
+  </si>
+  <si>
+    <t>(c) pre-paid expenses</t>
+  </si>
+  <si>
+    <t>(d) charged assets</t>
+  </si>
+  <si>
+    <t>(e) unsecured amounts due from directors and connected persons</t>
+  </si>
+  <si>
+    <t>(f) unsecured amounts due from related corporations</t>
+  </si>
+  <si>
+    <t>(g) other unsecured loans and advances</t>
+  </si>
+  <si>
+    <t>(h) capital investments in subsidiary or associate</t>
+  </si>
+  <si>
+    <t>(i) other non-current assets</t>
+  </si>
+  <si>
+    <t>(j) other assets not convertible to cash within 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (i) contracts unsettled at end of or after due date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (ii) open contracts traded on an exchange other than an approved exchange or a recognised exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (iii) contract which is offset by contra contract or forced-sale or buying-in transaction</t>
+  </si>
+  <si>
+    <t>(a) amount payable on open contracts</t>
+  </si>
+  <si>
+    <t>(b) deferred income taxes payable</t>
+  </si>
+  <si>
+    <t>(c) trust creditors</t>
+  </si>
+  <si>
+    <t>(d) amount payable to customers arising from dealing in capital markets products that are futures contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(e) amount payable to customers in connection with assets or moneys received on account of the customers arising from dealing in markets products other than futures contracts and maintained in trust accounts </t>
+  </si>
+  <si>
+    <t>(f) any liabilities fully secured by assets excluded from financial resources and adjusted net head office funds</t>
+  </si>
+  <si>
+    <t>(g) qualifying subordinated loans</t>
+  </si>
+  <si>
+    <t>(h) paid-up redeemable preference share capital</t>
+  </si>
+  <si>
+    <t>Qualifying letters of credit (restricted to 50% of total risk requirements)</t>
+  </si>
+  <si>
+    <t>Total risk requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (i) Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (ii) Deposit with bank licensed under the Banking Act or merchant bank, of credit quality grade 1 </t>
+  </si>
+  <si>
+    <t>(b) Interim loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Operational</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Other operational risk requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Delivery-versus-payment transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Free deliveries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Product financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (d) Repurchase, reverse repurchase, specified products borrowing and lending agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (e) Transactions in marginable products traded on an exchange or novated to a clearing facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (f) Over-the-counter derivatives transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (g) Deposits with exchange, clearing house or clearing facility or member of an exchange, clearing house or clearing facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (h) Interest charged on amounts owed by counterparty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (i) Amount owed by counterparty in relation to subscription to specified products </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (j) Off-balance sheet commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (k) Other counterparty risk requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Equity derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (d) Debt derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (e) Commodity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (f) Commodity derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (g) Foreign exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (h) Other position risk requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Counterparty large exposure requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Issuer large exposure requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Other large exposure requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Underwriting/ placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Other underwriting risk requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) On-balance sheet assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Off-balance sheet items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Deductions from Financial Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (d) Corporation's own balances  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (e) Receivables owed by a related corporation which are due for settlement within 3 months and not past due</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (f) Fee receivables owed by collective investment schemes, closed-end funds or customers' accounts which are managed by the CMSL and due for settlement within 3 months and not past due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>upl_div_declared</t>
+  </si>
+  <si>
+    <t>upl_interim_loss</t>
+  </si>
+  <si>
+    <t>bc_qual_subord_loans_temp</t>
+  </si>
+  <si>
+    <t>bc_interim_unappr_profit</t>
+  </si>
+  <si>
+    <t>bc_cltv_impairment_allowance</t>
+  </si>
+  <si>
+    <t>dfr_future_incometax_benefits</t>
+  </si>
+  <si>
+    <t>dfr_charged_assets</t>
+  </si>
+  <si>
+    <t>dfr_unsecured_directors_cnntpersons</t>
+  </si>
+  <si>
+    <t>dfr_unsecured_rlt_corporations</t>
+  </si>
+  <si>
+    <t>dfr_other_unsecured_loans</t>
+  </si>
+  <si>
+    <t>dfr_capinvst_subsidiary_associate</t>
+  </si>
+  <si>
+    <t>dfr_other_assets_nonconvertible_cash</t>
+  </si>
+  <si>
+    <t>bc_total_base_capital_nhof</t>
+  </si>
+  <si>
+    <t>fr_financial_resources_anhof</t>
+  </si>
+  <si>
+    <t>fr_total_deductions</t>
+  </si>
+  <si>
+    <t>orr_operational</t>
+  </si>
+  <si>
+    <t>trr_total_operational_risk_req</t>
+  </si>
+  <si>
+    <t>ttr_total_risk_req</t>
+  </si>
+  <si>
+    <t>ttr_fr_trr_ratio</t>
+  </si>
+  <si>
+    <t>aa_off_bs_items</t>
+  </si>
+  <si>
+    <t>aa_corp_own_cash_cashequiv</t>
+  </si>
+  <si>
+    <t>aa_corp_own_deposit_bank_credit_quality_1</t>
+  </si>
+  <si>
+    <t>aa_receivables_rlt_corporation_within3mths</t>
+  </si>
+  <si>
+    <t>aa_fee_receivables_cis_cef_ca_within3mths</t>
+  </si>
+  <si>
+    <t>aa_adjusted_assets</t>
+  </si>
+  <si>
+    <t>aa_avg_adjusted_assets</t>
+  </si>
+  <si>
+    <t>aa_adjusted_assets_threshold</t>
+  </si>
+  <si>
+    <t>aa_fr_total_deductions</t>
+  </si>
+  <si>
+    <t>other_orr_operational</t>
+  </si>
+  <si>
+    <t>current_liab_redeemable_pref_share, noncurrent_liab_redeemable_pref_share</t>
+  </si>
+  <si>
+    <t>fr_base_capital_nhof</t>
+  </si>
+  <si>
+    <t>base_capital</t>
   </si>
 </sst>
 </file>
@@ -821,9 +1595,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,14 +1671,34 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -933,7 +1727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1083,15 +1877,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1156,15 +1941,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,9 +2011,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1209,7 +2033,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1218,16 +2042,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,13 +2057,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,6 +2129,65 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1586,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,59 +2523,58 @@
     <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.7265625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="10" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
@@ -1664,30 +2590,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>6900.1</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1701,7 +2627,7 @@
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>6900.1</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1712,7 +2638,7 @@
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>6900.1</v>
       </c>
       <c r="G13" s="3"/>
@@ -1721,34 +2647,34 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="G14" s="16">
-        <v>0</v>
+      <c r="D14" s="17"/>
+      <c r="G14" s="15">
+        <v>999999999</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="G15" s="16">
-        <v>0</v>
+      <c r="D15" s="17"/>
+      <c r="G15" s="15">
+        <v>999999999</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
       <c r="G16" s="3" t="s">
         <v>133</v>
       </c>
@@ -1757,11 +2683,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="G17" s="16">
+      <c r="D17" s="17"/>
+      <c r="G17" s="15">
         <v>6900.2</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1769,47 +2695,52 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="G18" s="16">
-        <v>0</v>
+      <c r="D18" s="17"/>
+      <c r="G18" s="15">
+        <v>999999999</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G21" s="19"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="19"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="19"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
@@ -1817,15 +2748,15 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="G24" s="19"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="G25" s="16">
-        <v>0</v>
+      <c r="G25" s="15">
+        <v>999999999</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>161</v>
@@ -1836,16 +2767,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19"/>
+      <c r="F27" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G27" s="18"/>
       <c r="H27" s="6" t="s">
         <v>162</v>
       </c>
@@ -1854,10 +2785,10 @@
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="F28" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="6" t="s">
         <v>163</v>
       </c>
@@ -1867,94 +2798,94 @@
         <v>13</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="16">
-        <v>0</v>
+      <c r="F29" s="18"/>
+      <c r="G29" s="15">
+        <v>999999999</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="16">
-        <v>0</v>
+      <c r="F30" s="18"/>
+      <c r="G30" s="15">
+        <v>999999999</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19"/>
+      <c r="F32" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G32" s="18"/>
       <c r="H32" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
-      <c r="G33" s="16"/>
+      <c r="F33" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19"/>
+      <c r="F35" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G35" s="18"/>
       <c r="H35" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16"/>
+      <c r="F36" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="6" t="s">
         <v>169</v>
       </c>
@@ -1965,25 +2896,25 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="16">
-        <v>0</v>
-      </c>
-      <c r="G39" s="19"/>
+      <c r="F39" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G39" s="18"/>
       <c r="H39" s="6" t="s">
         <v>170</v>
       </c>
@@ -1992,10 +2923,10 @@
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="16">
-        <v>0</v>
-      </c>
-      <c r="G40" s="19"/>
+      <c r="F40" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G40" s="18"/>
       <c r="H40" s="6" t="s">
         <v>171</v>
       </c>
@@ -2004,10 +2935,10 @@
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="16">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16"/>
+      <c r="F41" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G41" s="15"/>
       <c r="H41" s="6" t="s">
         <v>172</v>
       </c>
@@ -2017,9 +2948,9 @@
         <v>28</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="16">
-        <v>0</v>
+      <c r="F42" s="18"/>
+      <c r="G42" s="15">
+        <v>999999999</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>173</v>
@@ -2030,9 +2961,9 @@
         <v>29</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="16">
-        <v>0</v>
+      <c r="F43" s="18"/>
+      <c r="G43" s="15">
+        <v>999999999</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>174</v>
@@ -2042,8 +2973,8 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="7" t="s">
@@ -2051,25 +2982,25 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="16">
-        <v>0</v>
-      </c>
-      <c r="G47" s="19"/>
+      <c r="F47" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G47" s="18"/>
       <c r="H47" s="6" t="s">
         <v>175</v>
       </c>
@@ -2078,10 +3009,10 @@
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="16">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16"/>
+      <c r="F48" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G48" s="15"/>
       <c r="H48" s="6" t="s">
         <v>176</v>
       </c>
@@ -2091,9 +3022,9 @@
         <v>31</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="16">
-        <v>0</v>
+      <c r="F49" s="18"/>
+      <c r="G49" s="15">
+        <v>999999999</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>177</v>
@@ -2104,9 +3035,9 @@
         <v>29</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="16">
-        <v>0</v>
+      <c r="F50" s="18"/>
+      <c r="G50" s="15">
+        <v>999999999</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>178</v>
@@ -2116,8 +3047,8 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C52" s="7" t="s">
@@ -2125,25 +3056,25 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="16">
-        <v>0</v>
-      </c>
-      <c r="G54" s="19"/>
+      <c r="F54" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G54" s="18"/>
       <c r="H54" s="6" t="s">
         <v>179</v>
       </c>
@@ -2152,10 +3083,10 @@
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="16">
-        <v>0</v>
-      </c>
-      <c r="G55" s="19"/>
+      <c r="F55" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G55" s="18"/>
       <c r="H55" s="6" t="s">
         <v>180</v>
       </c>
@@ -2164,10 +3095,10 @@
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="16">
-        <v>0</v>
-      </c>
-      <c r="G56" s="16"/>
+      <c r="F56" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G56" s="15"/>
       <c r="H56" s="6" t="s">
         <v>181</v>
       </c>
@@ -2177,9 +3108,9 @@
         <v>31</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="16">
-        <v>0</v>
+      <c r="F57" s="18"/>
+      <c r="G57" s="15">
+        <v>999999999</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>182</v>
@@ -2190,9 +3121,9 @@
         <v>29</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="16">
-        <v>0</v>
+      <c r="F58" s="18"/>
+      <c r="G58" s="15">
+        <v>999999999</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>183</v>
@@ -2202,8 +3133,8 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
@@ -2211,9 +3142,9 @@
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="16">
-        <v>0</v>
+      <c r="F60" s="18"/>
+      <c r="G60" s="15">
+        <v>999999999</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>184</v>
@@ -2223,8 +3154,8 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="7" t="s">
@@ -2232,25 +3163,25 @@
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="16">
-        <v>0</v>
-      </c>
-      <c r="G64" s="19"/>
+      <c r="F64" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G64" s="18"/>
       <c r="H64" s="6" t="s">
         <v>185</v>
       </c>
@@ -2259,10 +3190,10 @@
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="16">
-        <v>0</v>
-      </c>
-      <c r="G65" s="16"/>
+      <c r="F65" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="G65" s="15"/>
       <c r="H65" s="6" t="s">
         <v>186</v>
       </c>
@@ -2272,9 +3203,9 @@
         <v>35</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="16">
-        <v>0</v>
+      <c r="F66" s="18"/>
+      <c r="G66" s="15">
+        <v>999999999</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>187</v>
@@ -2284,22 +3215,27 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="F68" s="18"/>
+      <c r="G68" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="19"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C70" s="7" t="s">
@@ -2307,15 +3243,15 @@
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="19"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="16">
-        <v>0</v>
+      <c r="F71" s="15">
+        <v>999999999</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>188</v>
@@ -2326,8 +3262,8 @@
         <v>38</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="16">
-        <v>0</v>
+      <c r="F72" s="15">
+        <v>999999999</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="6" t="s">
@@ -2338,7 +3274,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="19"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C74" s="7" t="s">
@@ -2346,15 +3282,15 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="19"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="16">
-        <v>0</v>
+      <c r="F75" s="15">
+        <v>999999999</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>190</v>
@@ -2365,8 +3301,8 @@
         <v>41</v>
       </c>
       <c r="E76" s="7"/>
-      <c r="F76" s="16">
-        <v>0</v>
+      <c r="F76" s="15">
+        <v>999999999</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="6" t="s">
@@ -2377,7 +3313,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="19"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C78" s="7" t="s">
@@ -2385,8 +3321,8 @@
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="G78" s="16">
-        <v>0</v>
+      <c r="G78" s="15">
+        <v>999999999</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>192</v>
@@ -2403,8 +3339,8 @@
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
-      <c r="G80" s="16">
-        <v>0</v>
+      <c r="G80" s="15">
+        <v>999999999</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>193</v>
@@ -2421,8 +3357,8 @@
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-      <c r="G82" s="16">
-        <v>0</v>
+      <c r="G82" s="15">
+        <v>999999999</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>194</v>
@@ -2439,7 +3375,7 @@
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="G84" s="16">
+      <c r="G84" s="15">
         <v>6900.1</v>
       </c>
       <c r="H84" s="6" t="s">
@@ -2469,20 +3405,24 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C88" s="23" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C88" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="G88" s="22"/>
-    </row>
-    <row r="89" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="G88" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="15"/>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C91" s="7" t="s">
@@ -2496,8 +3436,8 @@
         <v>49</v>
       </c>
       <c r="E92" s="7"/>
-      <c r="F92" s="16">
-        <v>0</v>
+      <c r="F92" s="15">
+        <v>999999999</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>246</v>
@@ -2508,8 +3448,8 @@
         <v>50</v>
       </c>
       <c r="E93" s="7"/>
-      <c r="F93" s="16">
-        <v>0</v>
+      <c r="F93" s="15">
+        <v>999999999</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="6" t="s">
@@ -2520,7 +3460,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="19"/>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C95" s="7" t="s">
@@ -2528,15 +3468,15 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="19"/>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E96" s="7"/>
-      <c r="F96" s="16">
-        <v>0</v>
+      <c r="F96" s="15">
+        <v>999999999</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>197</v>
@@ -2547,8 +3487,8 @@
         <v>41</v>
       </c>
       <c r="E97" s="7"/>
-      <c r="F97" s="16">
-        <v>0</v>
+      <c r="F97" s="15">
+        <v>999999999</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="6" t="s">
@@ -2566,7 +3506,7 @@
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
-      <c r="G99" s="16">
+      <c r="G99" s="15">
         <v>6850</v>
       </c>
       <c r="H99" s="6" t="s">
@@ -2584,8 +3524,8 @@
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
-      <c r="G101" s="16">
-        <v>0</v>
+      <c r="G101" s="15">
+        <v>999999999</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>200</v>
@@ -2595,7 +3535,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
-      <c r="G102" s="19"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C103" s="7" t="s">
@@ -2603,8 +3543,8 @@
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="G103" s="16">
-        <v>0</v>
+      <c r="G103" s="15">
+        <v>999999999</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>201</v>
@@ -2614,7 +3554,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="G104" s="19"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C105" s="7" t="s">
@@ -2622,8 +3562,8 @@
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
-      <c r="G105" s="16">
-        <v>0</v>
+      <c r="G105" s="15">
+        <v>999999999</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>202</v>
@@ -2640,7 +3580,7 @@
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="G107" s="16">
+      <c r="G107" s="15">
         <v>6900.1</v>
       </c>
       <c r="H107" s="6" t="s">
@@ -2670,47 +3610,62 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C111" s="23" t="s">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C111" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="G111" s="22"/>
-    </row>
-    <row r="112" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="G111" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="G113" s="3"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="G113" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="G115" s="3"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="G115" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C119" s="7" t="s">
@@ -2724,8 +3679,8 @@
         <v>9</v>
       </c>
       <c r="E120" s="7"/>
-      <c r="G120" s="16">
-        <v>0</v>
+      <c r="G120" s="15">
+        <v>999999999</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>205</v>
@@ -2741,8 +3696,8 @@
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="16">
-        <v>0</v>
+      <c r="F122" s="15">
+        <v>999999999</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>206</v>
@@ -2752,8 +3707,8 @@
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="16">
-        <v>0</v>
+      <c r="F123" s="15">
+        <v>999999999</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="6" t="s">
@@ -2765,8 +3720,8 @@
         <v>63</v>
       </c>
       <c r="E124" s="7"/>
-      <c r="G124" s="16">
-        <v>0</v>
+      <c r="G124" s="15">
+        <v>999999999</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>208</v>
@@ -2777,8 +3732,8 @@
         <v>64</v>
       </c>
       <c r="E125" s="7"/>
-      <c r="G125" s="16">
-        <v>0</v>
+      <c r="G125" s="15">
+        <v>999999999</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>209</v>
@@ -2789,8 +3744,8 @@
         <v>65</v>
       </c>
       <c r="E126" s="7"/>
-      <c r="G126" s="16">
-        <v>0</v>
+      <c r="G126" s="15">
+        <v>999999999</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>210</v>
@@ -2801,8 +3756,8 @@
         <v>66</v>
       </c>
       <c r="E127" s="7"/>
-      <c r="G127" s="16">
-        <v>0</v>
+      <c r="G127" s="15">
+        <v>999999999</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>211</v>
@@ -2813,14 +3768,14 @@
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
-      <c r="G128" s="25"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F129" s="16">
-        <v>0</v>
+      <c r="F129" s="15">
+        <v>999999999</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>212</v>
@@ -2830,8 +3785,8 @@
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="16">
-        <v>0</v>
+      <c r="F130" s="15">
+        <v>999999999</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="6" t="s">
@@ -2860,8 +3815,8 @@
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="16">
-        <v>0</v>
+      <c r="F134" s="15">
+        <v>999999999</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>214</v>
@@ -2871,8 +3826,8 @@
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="16">
-        <v>0</v>
+      <c r="F135" s="15">
+        <v>999999999</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="6" t="s">
@@ -2884,8 +3839,8 @@
         <v>71</v>
       </c>
       <c r="E136" s="7"/>
-      <c r="G136" s="16">
-        <v>0</v>
+      <c r="G136" s="15">
+        <v>999999999</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>216</v>
@@ -2896,8 +3851,8 @@
         <v>29</v>
       </c>
       <c r="E137" s="7"/>
-      <c r="G137" s="16">
-        <v>0</v>
+      <c r="G137" s="15">
+        <v>999999999</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>217</v>
@@ -2907,7 +3862,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
-      <c r="G138" s="19"/>
+      <c r="G138" s="18"/>
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C139" s="7" t="s">
@@ -2921,8 +3876,8 @@
         <v>69</v>
       </c>
       <c r="E140" s="7"/>
-      <c r="G140" s="16">
-        <v>0</v>
+      <c r="G140" s="15">
+        <v>999999999</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>218</v>
@@ -2933,8 +3888,8 @@
         <v>73</v>
       </c>
       <c r="E141" s="7"/>
-      <c r="G141" s="16">
-        <v>0</v>
+      <c r="G141" s="15">
+        <v>999999999</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>219</v>
@@ -2945,8 +3900,8 @@
         <v>29</v>
       </c>
       <c r="E142" s="7"/>
-      <c r="G142" s="16">
-        <v>0</v>
+      <c r="G142" s="15">
+        <v>999999999</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>220</v>
@@ -2974,8 +3929,8 @@
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F146" s="16">
-        <v>0</v>
+      <c r="F146" s="15">
+        <v>999999999</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>221</v>
@@ -2985,8 +3940,8 @@
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F147" s="16">
-        <v>0</v>
+      <c r="F147" s="15">
+        <v>999999999</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="6" t="s">
@@ -2998,8 +3953,8 @@
         <v>71</v>
       </c>
       <c r="E148" s="7"/>
-      <c r="G148" s="16">
-        <v>0</v>
+      <c r="G148" s="15">
+        <v>999999999</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>223</v>
@@ -3010,8 +3965,8 @@
         <v>29</v>
       </c>
       <c r="E149" s="7"/>
-      <c r="G149" s="16">
-        <v>0</v>
+      <c r="G149" s="15">
+        <v>999999999</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>224</v>
@@ -3028,8 +3983,8 @@
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
-      <c r="G151" s="16">
-        <v>0</v>
+      <c r="G151" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>225</v>
@@ -3058,15 +4013,20 @@
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
-      <c r="G155" s="22"/>
-    </row>
-    <row r="156" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G155" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -3074,8 +4034,8 @@
         <v>141</v>
       </c>
       <c r="E156" s="7"/>
-      <c r="G156" s="16">
-        <v>0</v>
+      <c r="G156" s="15">
+        <v>999999999</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>227</v>
@@ -3086,22 +4046,27 @@
         <v>137</v>
       </c>
       <c r="E157" s="7"/>
-      <c r="G157" s="16">
+      <c r="G157" s="15">
         <v>5200.3</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
-      <c r="G158" s="22"/>
-    </row>
-    <row r="159" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G158" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -3118,8 +4083,8 @@
         <v>79</v>
       </c>
       <c r="E161" s="7"/>
-      <c r="F161" s="16">
-        <v>0</v>
+      <c r="F161" s="15">
+        <v>999999999</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>231</v>
@@ -3130,7 +4095,7 @@
         <v>80</v>
       </c>
       <c r="E162" s="7"/>
-      <c r="F162" s="16">
+      <c r="F162" s="15">
         <v>5100.1000000000004</v>
       </c>
       <c r="H162" s="6" t="s">
@@ -3142,8 +4107,8 @@
         <v>81</v>
       </c>
       <c r="E163" s="7"/>
-      <c r="F163" s="16">
-        <v>0</v>
+      <c r="F163" s="15">
+        <v>999999999</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="6" t="s">
@@ -3161,8 +4126,8 @@
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
-      <c r="G165" s="16">
-        <v>0</v>
+      <c r="G165" s="15">
+        <v>999999999</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>232</v>
@@ -3185,8 +4150,8 @@
         <v>79</v>
       </c>
       <c r="E168" s="7"/>
-      <c r="F168" s="16">
-        <v>0</v>
+      <c r="F168" s="15">
+        <v>999999999</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>233</v>
@@ -3197,7 +4162,7 @@
         <v>83</v>
       </c>
       <c r="E169" s="7"/>
-      <c r="F169" s="16">
+      <c r="F169" s="15">
         <v>5000</v>
       </c>
       <c r="H169" s="6" t="s">
@@ -3209,8 +4174,8 @@
         <v>81</v>
       </c>
       <c r="E170" s="7"/>
-      <c r="F170" s="16">
-        <v>0</v>
+      <c r="F170" s="15">
+        <v>999999999</v>
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="6" t="s">
@@ -3234,8 +4199,8 @@
         <v>40</v>
       </c>
       <c r="E173" s="7"/>
-      <c r="F173" s="16">
-        <v>0</v>
+      <c r="F173" s="15">
+        <v>999999999</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>236</v>
@@ -3246,8 +4211,8 @@
         <v>41</v>
       </c>
       <c r="E174" s="7"/>
-      <c r="F174" s="16">
-        <v>0</v>
+      <c r="F174" s="15">
+        <v>999999999</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="6" t="s">
@@ -3265,8 +4230,8 @@
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
-      <c r="G176" s="16">
-        <v>0</v>
+      <c r="G176" s="15">
+        <v>999999999</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>238</v>
@@ -3283,8 +4248,8 @@
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
-      <c r="G178" s="16">
-        <v>0</v>
+      <c r="G178" s="15">
+        <v>999999999</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>239</v>
@@ -3331,7 +4296,7 @@
         <v>81</v>
       </c>
       <c r="E183" s="7"/>
-      <c r="F183" s="16">
+      <c r="F183" s="15">
         <v>5200.2</v>
       </c>
       <c r="G183" s="3"/>
@@ -3344,22 +4309,26 @@
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C185" s="23" t="s">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C185" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23"/>
-      <c r="G185" s="22"/>
-    </row>
-    <row r="186" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="G185" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C188" s="7" t="s">
@@ -3391,8 +4360,8 @@
         <v>49</v>
       </c>
       <c r="E191" s="7"/>
-      <c r="F191" s="16">
-        <v>0</v>
+      <c r="F191" s="15">
+        <v>999999999</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>244</v>
@@ -3403,8 +4372,8 @@
         <v>50</v>
       </c>
       <c r="E192" s="7"/>
-      <c r="F192" s="16">
-        <v>0</v>
+      <c r="F192" s="15">
+        <v>999999999</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="6" t="s">
@@ -3470,37 +4439,46 @@
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C200" s="23" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C200" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="G200" s="22"/>
-    </row>
-    <row r="201" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="23"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-    </row>
-    <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B202" s="24" t="s">
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="G200" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B202" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="G202" s="22"/>
-    </row>
-    <row r="203" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="G202" s="15">
+        <v>999999999</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="20" t="s">
+      <c r="A204" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="17" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3520,7 +4498,7 @@
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
-      <c r="G208" s="26"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
@@ -3529,52 +4507,52 @@
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
-      <c r="G209" s="26"/>
+      <c r="G209" s="4"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B210" s="3"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="G210" s="26"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="G210" s="4"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B211" s="26"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="G211" s="26"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
+      <c r="G211" s="4"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B212" s="26"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="G212" s="26"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="G212" s="4"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B213" s="26"/>
-      <c r="C213" s="17"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="17"/>
-      <c r="G213" s="26"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16"/>
+      <c r="G213" s="4"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B214" s="26"/>
-      <c r="C214" s="17"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="G214" s="26"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="G214" s="4"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B215" s="26"/>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="G215" s="26"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="G215" s="4"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="18" t="s">
+      <c r="A217" s="17" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3632,48 +4610,48 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B224" s="3"/>
-      <c r="C224" s="17"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="17"/>
-      <c r="G224" s="26"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="16"/>
+      <c r="G224" s="4"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B225" s="26"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
-      <c r="G225" s="26"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="G225" s="4"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B226" s="26"/>
-      <c r="C226" s="17"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
-      <c r="G226" s="26"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="16"/>
+      <c r="G226" s="4"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B227" s="26"/>
-      <c r="C227" s="17"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="17"/>
-      <c r="G227" s="26"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="G227" s="4"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B228" s="26"/>
-      <c r="C228" s="17"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
-      <c r="G228" s="26"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="16"/>
+      <c r="G228" s="4"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B229" s="26"/>
-      <c r="C229" s="17"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
-      <c r="G229" s="26"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="16"/>
+      <c r="G229" s="4"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="17" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3705,7 +4683,7 @@
       <c r="G234" s="3"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="18" t="s">
+      <c r="A236" s="17" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3746,6 +4724,2064 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="23"/>
+    <col min="2" max="2" width="4.81640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="86.54296875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D13" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D14" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="33">
+        <v>7000.1</v>
+      </c>
+      <c r="F26" s="33">
+        <v>7000.1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34">
+        <v>7000.2</v>
+      </c>
+      <c r="F27" s="34">
+        <v>7000.2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="35">
+        <v>7000.4</v>
+      </c>
+      <c r="F30" s="35">
+        <v>7000.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="34">
+        <v>7000.5</v>
+      </c>
+      <c r="F31" s="34">
+        <v>7000.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="35">
+        <v>7000.6</v>
+      </c>
+      <c r="F33" s="35">
+        <v>7000.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="35">
+        <v>7000.7</v>
+      </c>
+      <c r="F35" s="35">
+        <v>7000.7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="44">
+        <v>7000.8</v>
+      </c>
+      <c r="F38" s="35">
+        <v>7000.8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="34">
+        <v>7000.9</v>
+      </c>
+      <c r="F39" s="34">
+        <v>7000.9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="34">
+        <v>7400.2</v>
+      </c>
+      <c r="F45" s="34">
+        <v>7400.2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="35">
+        <v>7400.1</v>
+      </c>
+      <c r="F47" s="35">
+        <v>7400.1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="37"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="38"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C52" s="38"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C53" s="38"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C54" s="38"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C55" s="38"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="25"/>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="25"/>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C67" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C68" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C69" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C72" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C73" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="35">
+        <v>7420</v>
+      </c>
+      <c r="F75" s="35">
+        <v>7420</v>
+      </c>
+      <c r="G75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="25"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="25"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="25"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C84" s="37"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C85" s="37"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C86" s="37"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C87" s="37"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C88" s="37"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C89" s="37"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C90" s="37"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="34">
+        <v>7500</v>
+      </c>
+      <c r="F95" s="34">
+        <v>7500</v>
+      </c>
+      <c r="G95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="6.6328125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="C9" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="C13" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="69">
+        <v>999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23"/>
+      <c r="C16" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23"/>
+      <c r="B18" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="70"/>
+      <c r="G18" t="s">
+        <v>488</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="68"/>
+      <c r="G21" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>478</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>480</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="C30" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G32" s="74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G33" t="s">
+        <v>481</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G35" t="s">
+        <v>482</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G36" t="s">
+        <v>483</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G37" t="s">
+        <v>484</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>485</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="23"/>
+      <c r="C42" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="23"/>
+      <c r="B43" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="23" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="61">
+        <v>999999999</v>
+      </c>
+      <c r="G47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C48" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E48" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="F49" s="42"/>
+      <c r="G49" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D52" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E53" s="53">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="23"/>
+      <c r="D54" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E54" s="53">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="23"/>
+      <c r="C55" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" s="53">
+        <v>999999999</v>
+      </c>
+      <c r="F55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C56" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F56" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C57" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F57" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C58" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F58" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C59" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F59" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C60" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F60" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C61" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F61" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C62" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F62" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C63" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F63" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C64" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F64" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="F69" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="F70" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="F71" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="F72" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="55" t="s">
+        <v>460</v>
+      </c>
+      <c r="F73" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="F74" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="F75" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="F76" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="42"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="23"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" s="55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C80" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="F80" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C81" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="F81" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F82" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="F83" s="42"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="55"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C86" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="F86" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F87" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="F88" s="42"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="55"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="62" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="F91" s="40">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="F92" s="63"/>
+      <c r="G92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="F93" s="64"/>
+      <c r="G93" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="B95" s="52"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="F96" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C97" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D98" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="F98" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D99" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="F99" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D100" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="F100" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D101" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="F101" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D102" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="F102" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D103" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="F103" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D104" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="F104" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D105" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="F105" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="F106" s="42"/>
+    </row>
+    <row r="107" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C108" s="66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D109" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="F109" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C110" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D111" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111" s="27">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="F112" s="27"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="27"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="B115" s="52"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C117" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="F117" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="G117" s="75" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C118" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="F118" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="G118" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C119" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C120" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="F120" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C121" s="65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D122" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="E122" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="G122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D123" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="E123" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="F123" s="27"/>
+      <c r="G123" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C124" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="F124" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="G124" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C125" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="F125" s="27">
+        <v>999999999</v>
+      </c>
+      <c r="G125" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="F126" s="40"/>
+      <c r="G126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="F127" s="40"/>
+      <c r="G127" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="F128" s="40"/>
+      <c r="G128" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="129" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3780,7 +6816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3819,7 +6855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId2"/>
-    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId3"/>
-    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId4"/>
-    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId5"/>
+    <sheet name="Form 1 - Qns for user inputs" sheetId="18" r:id="rId3"/>
+    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="284">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -847,6 +848,69 @@
   </si>
   <si>
     <t>total_asset</t>
+  </si>
+  <si>
+    <t># This is a table used for collecting manual inputs from the user</t>
+  </si>
+  <si>
+    <t># This table should not be modified</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of client names related to fund management (trade debtors): </t>
+  </si>
+  <si>
+    <t>Total trade creditors amount: $</t>
+  </si>
+  <si>
+    <t>Trade creditors for fund managment amount: $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the client account numbers for amounts due to director or connected persons: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the client account numbers for loans from related company or associated persons: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the client account numbers for amounts due from director and connected persons (secured): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the client account numbers for amounts due from director and connected persons (unsecured): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the client account numbers for loans to related company or associated person: </t>
+  </si>
+  <si>
+    <t>trade_debt_fund_mgmt</t>
+  </si>
+  <si>
+    <t>amount_due_from_director_unsecured</t>
+  </si>
+  <si>
+    <t>loans_to_related_co</t>
+  </si>
+  <si>
+    <t>amount_due_from_director_secured</t>
+  </si>
+  <si>
+    <t>loans_from_related_co</t>
+  </si>
+  <si>
+    <t>amount_due_to_director</t>
+  </si>
+  <si>
+    <t>trade_cred_fund_mgmt</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A151" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H176" activeCellId="1" sqref="H173:H174 H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3806,6 +3870,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3840,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3879,7 +4075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6140" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6140" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Form 1 - TB mapping" sheetId="20" r:id="rId2"/>
     <sheet name="Form 3 - TB mapping" sheetId="18" r:id="rId3"/>
     <sheet name="Form 2 - TB mapping" sheetId="21" r:id="rId4"/>
-    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId5"/>
-    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="Form 2 - AGI" sheetId="22" r:id="rId5"/>
+    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId6"/>
+    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,8 +59,31 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>To get the value from last year Form 3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="518">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -1588,16 +1612,114 @@
   </si>
   <si>
     <t>base_capital</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- total revenue as per reported in respective year's Form 3 ** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(previously Form 6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- less: fee expenses as per reported in respective year's Form 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(previously Form 6) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[see Note 1 below]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- less: commission expenses as per reported in respective year's Form 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (previously Form 6)</t>
+    </r>
+  </si>
+  <si>
+    <t>exp_comm_expense_otherbroker, exp_comm_expense_agents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- less: interest expenses as per reported in respective year's Form 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(previously Form 6)</t>
+    </r>
+  </si>
+  <si>
+    <t>rev_int_others, rev_dividend, rev_other_revenue</t>
+  </si>
+  <si>
+    <t>Annual gross income =</t>
+  </si>
+  <si>
+    <t>- less: realised profit or loss arising from the sale of HTM or AFS securities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- less: income or expenses not derived from ordinary activities and not expected to recur frequently or regularly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(See Note 2 below)</t>
+    </r>
+  </si>
+  <si>
+    <t>- less: any income derived from insurance recoveries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,8 +1822,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,8 +1886,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1983,15 +2155,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,6 +2365,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2187,11 +2416,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Table Snip" xfId="2"/>
     <cellStyle name="Text Snip" xfId="1"/>
@@ -2537,10 +2767,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="10" t="s">
         <v>251</v>
       </c>
@@ -2548,10 +2778,10 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="11" t="s">
         <v>112</v>
       </c>
@@ -2559,10 +2789,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="11" t="s">
         <v>111</v>
       </c>
@@ -2570,10 +2800,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="12"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2724,10 +2954,10 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="82"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -4726,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A3" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5578,8 +5808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5775,7 +6005,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="70"/>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="76" t="s">
         <v>507</v>
       </c>
       <c r="H16" s="23"/>
@@ -6781,6 +7011,116 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="107.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="85" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="78"/>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="85" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="85" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="85" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="85" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="85" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="85" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="93"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
+  </customProperties>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -6816,7 +7156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -6855,7 +7195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId2"/>
     <sheet name="Form 1 - Qns for user inputs" sheetId="18" r:id="rId3"/>
-    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId4"/>
-    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId5"/>
-    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="Form 3 - TB mapping" sheetId="19" r:id="rId4"/>
+    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="387">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -911,6 +912,319 @@
   </si>
   <si>
     <t>trade_cred_fund_mgmt</t>
+  </si>
+  <si>
+    <t>Previous year
+&lt;&lt;&lt;previous_fy&gt;&gt;&gt;
+$</t>
+  </si>
+  <si>
+    <t>Current year
+&lt;&lt;&lt;current_fy&gt;&gt;&gt;
+$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var_name </t>
+  </si>
+  <si>
+    <t>(1) Revenue -</t>
+  </si>
+  <si>
+    <t>(a) Brokerage and commission from:</t>
+  </si>
+  <si>
+    <t>(i) Exchange traded business</t>
+  </si>
+  <si>
+    <t>- Securities and units in a collective investment scheme</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_etb_secs</t>
+  </si>
+  <si>
+    <t>- Futures and other derivatives contracts</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_deriv</t>
+  </si>
+  <si>
+    <t>(ii) Non-exchange traded business</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_non_etb_secs</t>
+  </si>
+  <si>
+    <t>- Over-the-counter derivatives contracts (excluding over-the-counter derivatives contracts where the underlying thing is a currency or currency index)</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_non_etb_otcderiv</t>
+  </si>
+  <si>
+    <t>- Spot foreign exchange contracts for the purposes of leveraged foreign exchange trading and over-the-cunter derivatives contracts where the underlying thing is a currency or currency index</t>
+  </si>
+  <si>
+    <t>rev_broker_comm_spotforex</t>
+  </si>
+  <si>
+    <t>(b) Profit or loss from proprietary trading:</t>
+  </si>
+  <si>
+    <t>(i) Equity and equity derivatives</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_eqderiv</t>
+  </si>
+  <si>
+    <t>(ii) Debt and debt derivatives</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_debtderiv</t>
+  </si>
+  <si>
+    <t>(iii) Commodity and commodity derivatives</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_commderiv</t>
+  </si>
+  <si>
+    <t>(iv) Foreign exchange</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_forex</t>
+  </si>
+  <si>
+    <t>(v) Others</t>
+  </si>
+  <si>
+    <t>rev_pnl_proprtrade_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(c) Underwriting commission</t>
+  </si>
+  <si>
+    <t>rev_underwrite_comm</t>
+  </si>
+  <si>
+    <t>(d) Portfolio management fees</t>
+  </si>
+  <si>
+    <t>(i) Management fees</t>
+  </si>
+  <si>
+    <t>rev_pfl_mgtfees_mgmt_fees</t>
+  </si>
+  <si>
+    <t>(ii) Advisory fees</t>
+  </si>
+  <si>
+    <t>rev_pfl_mgtfees_adv_fees</t>
+  </si>
+  <si>
+    <t>(e) Corporate finance fees from:</t>
+  </si>
+  <si>
+    <t>(i) Managing initial public offerings ("IPOs")</t>
+  </si>
+  <si>
+    <t>rev_corp_finfees_ipo</t>
+  </si>
+  <si>
+    <t>(ii) Others</t>
+  </si>
+  <si>
+    <t>rev_corp_finfees_others</t>
+  </si>
+  <si>
+    <t>(f) Trustee and custodian fees</t>
+  </si>
+  <si>
+    <t>rev_trust_custdn</t>
+  </si>
+  <si>
+    <t>(g) Commission rebates</t>
+  </si>
+  <si>
+    <t>rev_comm_rebates</t>
+  </si>
+  <si>
+    <t>(h) REIT management fees</t>
+  </si>
+  <si>
+    <t>(i) Base and performance fees</t>
+  </si>
+  <si>
+    <t>rev_reit_mgtfees_baseperf</t>
+  </si>
+  <si>
+    <t>(ii) Transaction fees (acquisitions &amp; disposals)</t>
+  </si>
+  <si>
+    <t>rev_reit_mgtfees_trans</t>
+  </si>
+  <si>
+    <t>(i) Fees for providing credit rating services</t>
+  </si>
+  <si>
+    <t>rev_crdrate_fees</t>
+  </si>
+  <si>
+    <t>(j) Interest:</t>
+  </si>
+  <si>
+    <t>(i) Product financing</t>
+  </si>
+  <si>
+    <t>rev_int_prodfin</t>
+  </si>
+  <si>
+    <t>rev_int_others</t>
+  </si>
+  <si>
+    <t>(k) Dividend</t>
+  </si>
+  <si>
+    <t>rev_dividend</t>
+  </si>
+  <si>
+    <t>(l) Other revenue (to specify if significant)</t>
+  </si>
+  <si>
+    <t>7410.100, 7410.200,7410.400</t>
+  </si>
+  <si>
+    <t>rev_other_revenue</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>rev_total_revenue</t>
+  </si>
+  <si>
+    <t>(2) Less: Expenses -</t>
+  </si>
+  <si>
+    <t>(a) Bad debts written off</t>
+  </si>
+  <si>
+    <t>exp_bad_debts</t>
+  </si>
+  <si>
+    <t>(b) Provision for doubtful debts</t>
+  </si>
+  <si>
+    <t>exp_prov_dtf_debts</t>
+  </si>
+  <si>
+    <t>(c) Diminution in the value of specified products</t>
+  </si>
+  <si>
+    <t>exp_dimin</t>
+  </si>
+  <si>
+    <t>(d) Brokerage and commission from business in:</t>
+  </si>
+  <si>
+    <t>(i) Securities and units in a collective investment scheme</t>
+  </si>
+  <si>
+    <t>exp_broker_comm_secs</t>
+  </si>
+  <si>
+    <t>(ii) Futures and other derivatives contracts</t>
+  </si>
+  <si>
+    <t>exp_broker_comm_deriv</t>
+  </si>
+  <si>
+    <t>(iii) Others</t>
+  </si>
+  <si>
+    <t>exp_broker_comm_others</t>
+  </si>
+  <si>
+    <t>(e) Commission expense</t>
+  </si>
+  <si>
+    <t>(i) Other brokers/banks</t>
+  </si>
+  <si>
+    <t>exp_comm_expense_otherbroker</t>
+  </si>
+  <si>
+    <t>(ii) Agents (including remisiers)</t>
+  </si>
+  <si>
+    <t>exp_comm_expense_agents</t>
+  </si>
+  <si>
+    <t>(f) Interest expense</t>
+  </si>
+  <si>
+    <t>exp_int_expense</t>
+  </si>
+  <si>
+    <t>(g) Fee expense</t>
+  </si>
+  <si>
+    <t>exp_fee_expense</t>
+  </si>
+  <si>
+    <t>(h) Directors' remuneration</t>
+  </si>
+  <si>
+    <t>exp_dir_renum</t>
+  </si>
+  <si>
+    <t>(i) Salaries and other employment costs (excluding directors' remuneration)</t>
+  </si>
+  <si>
+    <t>exp_slry</t>
+  </si>
+  <si>
+    <t>(j) Other expenses (to specify if significant)</t>
+  </si>
+  <si>
+    <t>exp_other_expense</t>
+  </si>
+  <si>
+    <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>exp_total_expense</t>
+  </si>
+  <si>
+    <t>Net profit before tax and extraordinary items</t>
+  </si>
+  <si>
+    <t>npbt</t>
+  </si>
+  <si>
+    <t>Less: Taxation</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Net profit after tax but before extraordinary items</t>
+  </si>
+  <si>
+    <t>npat_bef_extraord</t>
+  </si>
+  <si>
+    <t>Extraordinary items (net of tax)</t>
+  </si>
+  <si>
+    <t>extraord_items</t>
+  </si>
+  <si>
+    <t>Net profit after tax and extraordinary items for the year</t>
+  </si>
+  <si>
+    <t>npat</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1235,6 +1549,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1243,7 +1577,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1670,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,19 +2014,19 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1663,17 +2047,17 @@
       <selection activeCell="H176" activeCellId="1" sqref="H173:H174 H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.140625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +2066,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>101</v>
       </c>
@@ -1693,7 +2077,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>102</v>
       </c>
@@ -1704,7 +2088,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>103</v>
       </c>
@@ -1715,7 +2099,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>104</v>
       </c>
@@ -1724,7 +2108,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -1735,7 +2119,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>125</v>
       </c>
@@ -1744,14 +2128,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1763,13 +2147,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +2164,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1792,7 +2176,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +2188,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +2200,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
@@ -1828,7 +2212,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +2224,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -1852,10 +2236,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -1866,10 +2250,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
@@ -1879,7 +2263,7 @@
       <c r="E22" s="8"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +2272,7 @@
       <c r="E23" s="15"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +2280,7 @@
       <c r="E24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1908,14 +2292,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +2311,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +2323,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +2336,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -1966,7 +2350,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -1975,7 +2359,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -1988,7 +2372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -2001,7 +2385,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -2010,7 +2394,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -2023,7 +2407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -2036,7 +2420,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
@@ -2045,7 +2429,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
@@ -2053,7 +2437,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -2065,7 +2449,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
@@ -2089,7 +2473,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -2102,7 +2486,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
@@ -2115,14 +2499,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
@@ -2131,7 +2515,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
@@ -2139,7 +2523,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2151,7 +2535,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2547,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
@@ -2176,7 +2560,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
@@ -2189,14 +2573,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -2205,7 +2589,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2597,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
@@ -2225,7 +2609,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
@@ -2237,7 +2621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
@@ -2249,7 +2633,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
@@ -2262,7 +2646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
@@ -2275,14 +2659,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
@@ -2296,14 +2680,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2696,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
@@ -2320,7 +2704,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
@@ -2332,7 +2716,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
@@ -2344,7 +2728,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
@@ -2357,13 +2741,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
@@ -2377,13 +2761,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
         <v>138</v>
       </c>
@@ -2391,7 +2775,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2787,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D72" s="7" t="s">
         <v>38</v>
       </c>
@@ -2416,13 +2800,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
@@ -2430,7 +2814,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
@@ -2442,7 +2826,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D76" s="7" t="s">
         <v>41</v>
       </c>
@@ -2455,13 +2839,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="7" t="s">
         <v>42</v>
       </c>
@@ -2474,12 +2858,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="7" t="s">
         <v>43</v>
       </c>
@@ -2492,12 +2876,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
         <v>44</v>
       </c>
@@ -2510,12 +2894,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C84" s="7" t="s">
         <v>45</v>
       </c>
@@ -2528,12 +2912,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C86" s="7" t="s">
         <v>46</v>
       </c>
@@ -2546,12 +2930,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
@@ -2564,20 +2948,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C91" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
@@ -2589,7 +2973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" s="7" t="s">
         <v>50</v>
       </c>
@@ -2602,13 +2986,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C95" s="7" t="s">
         <v>51</v>
       </c>
@@ -2616,7 +3000,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
@@ -2628,7 +3012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
@@ -2641,12 +3025,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
@@ -2659,12 +3043,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -2677,13 +3061,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="G102" s="19"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="7" t="s">
         <v>54</v>
       </c>
@@ -2696,13 +3080,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="G104" s="19"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
@@ -2715,12 +3099,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="7" t="s">
         <v>56</v>
       </c>
@@ -2733,12 +3117,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="7" t="s">
         <v>57</v>
       </c>
@@ -2751,12 +3135,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
@@ -2769,12 +3153,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
@@ -2787,7 +3171,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
         <v>128</v>
       </c>
@@ -2800,12 +3184,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
@@ -2813,14 +3197,14 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
@@ -2832,13 +3216,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +3233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
@@ -2861,7 +3245,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D124" s="7" t="s">
         <v>63</v>
       </c>
@@ -2873,7 +3257,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D125" s="7" t="s">
         <v>64</v>
       </c>
@@ -2885,7 +3269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
@@ -2897,7 +3281,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D127" s="7" t="s">
         <v>66</v>
       </c>
@@ -2909,14 +3293,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D128" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +3311,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
@@ -2939,25 +3323,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
@@ -2968,7 +3352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
@@ -2980,7 +3364,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="s">
         <v>71</v>
       </c>
@@ -2992,7 +3376,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="s">
         <v>29</v>
       </c>
@@ -3004,20 +3388,20 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="s">
         <v>69</v>
       </c>
@@ -3029,7 +3413,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="s">
         <v>73</v>
       </c>
@@ -3041,7 +3425,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="s">
         <v>29</v>
       </c>
@@ -3053,25 +3437,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
@@ -3082,7 +3466,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
@@ -3094,7 +3478,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="s">
         <v>71</v>
       </c>
@@ -3106,7 +3490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D149" s="7" t="s">
         <v>29</v>
       </c>
@@ -3118,12 +3502,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="7" t="s">
         <v>75</v>
       </c>
@@ -3136,12 +3520,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="7" t="s">
         <v>76</v>
       </c>
@@ -3154,12 +3538,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
@@ -3172,7 +3556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -3187,7 +3571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D157" s="7" t="s">
         <v>137</v>
       </c>
@@ -3199,7 +3583,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
@@ -3212,19 +3596,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D161" s="7" t="s">
         <v>79</v>
       </c>
@@ -3236,7 +3620,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D162" s="7" t="s">
         <v>80</v>
       </c>
@@ -3248,7 +3632,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D163" s="7" t="s">
         <v>81</v>
       </c>
@@ -3261,12 +3645,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="7" t="s">
         <v>139</v>
       </c>
@@ -3279,19 +3663,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="s">
         <v>79</v>
       </c>
@@ -3303,7 +3687,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="s">
         <v>83</v>
       </c>
@@ -3315,7 +3699,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="s">
         <v>81</v>
       </c>
@@ -3328,19 +3712,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D173" s="7" t="s">
         <v>40</v>
       </c>
@@ -3352,7 +3736,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
@@ -3365,12 +3749,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="7" t="s">
         <v>85</v>
       </c>
@@ -3383,12 +3767,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C178" s="7" t="s">
         <v>86</v>
       </c>
@@ -3401,19 +3785,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C180" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D181" s="7" t="s">
         <v>88</v>
       </c>
@@ -3425,7 +3809,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D182" s="7" t="s">
         <v>89</v>
       </c>
@@ -3437,7 +3821,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D183" s="7" t="s">
         <v>81</v>
       </c>
@@ -3450,12 +3834,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
@@ -3468,7 +3852,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="15" t="s">
         <v>129</v>
       </c>
@@ -3476,7 +3860,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C188" s="7" t="s">
         <v>140</v>
       </c>
@@ -3489,19 +3873,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D191" s="7" t="s">
         <v>49</v>
       </c>
@@ -3513,7 +3897,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D192" s="7" t="s">
         <v>50</v>
       </c>
@@ -3526,12 +3910,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C194" s="7" t="s">
         <v>92</v>
       </c>
@@ -3544,12 +3928,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C196" s="7" t="s">
         <v>93</v>
       </c>
@@ -3562,12 +3946,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
@@ -3580,12 +3964,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
@@ -3598,13 +3982,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
@@ -3618,17 +4002,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
         <v>142</v>
       </c>
@@ -3637,7 +4021,7 @@
       <c r="E207" s="7"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
         <v>143</v>
       </c>
@@ -3646,7 +4030,7 @@
       <c r="E208" s="7"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
         <v>144</v>
       </c>
@@ -3655,54 +4039,54 @@
       <c r="E209" s="7"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
         <v>145</v>
       </c>
@@ -3711,7 +4095,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>97</v>
       </c>
@@ -3721,13 +4105,13 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
         <v>146</v>
       </c>
@@ -3736,7 +4120,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
         <v>97</v>
       </c>
@@ -3746,7 +4130,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
         <v>144</v>
       </c>
@@ -3754,54 +4138,54 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
       <c r="G224" s="24"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="G225" s="24"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="G226" s="24"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
       <c r="G227" s="24"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
       <c r="G228" s="24"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
       <c r="G229" s="24"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B232" s="7" t="s">
         <v>147</v>
       </c>
@@ -3810,7 +4194,7 @@
       <c r="E232" s="7"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B233" s="7" t="s">
         <v>148</v>
       </c>
@@ -3819,7 +4203,7 @@
       <c r="E233" s="7"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B234" s="7" t="s">
         <v>149</v>
       </c>
@@ -3828,12 +4212,12 @@
       <c r="E234" s="7"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
         <v>150</v>
       </c>
@@ -3842,7 +4226,7 @@
       <c r="E237" s="7"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B238" s="7" t="s">
         <v>151</v>
       </c>
@@ -3872,27 +4256,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -3903,7 +4287,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -3914,7 +4298,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>253</v>
       </c>
@@ -3925,7 +4309,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>283</v>
       </c>
@@ -3936,7 +4320,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
@@ -3947,7 +4331,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>281</v>
       </c>
@@ -3958,7 +4342,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
@@ -3969,7 +4353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>278</v>
       </c>
@@ -3980,7 +4364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -4002,69 +4386,882 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="4.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="43">
+        <v>7000.1</v>
+      </c>
+      <c r="F26" s="43">
+        <v>7000.1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="44">
+        <v>7000.2</v>
+      </c>
+      <c r="F27" s="44">
+        <v>7000.2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="45">
+        <v>7000.4</v>
+      </c>
+      <c r="F30" s="45">
+        <v>7000.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="44">
+        <v>7000.5</v>
+      </c>
+      <c r="F31" s="44">
+        <v>7000.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="45">
+        <v>7000.6</v>
+      </c>
+      <c r="F33" s="45">
+        <v>7000.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="45">
+        <v>7000.7</v>
+      </c>
+      <c r="F35" s="45">
+        <v>7000.7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="46">
+        <v>7000.8</v>
+      </c>
+      <c r="F38" s="45">
+        <v>7000.8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="44">
+        <v>7000.9</v>
+      </c>
+      <c r="F39" s="44">
+        <v>7000.9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="44">
+        <v>7400.2</v>
+      </c>
+      <c r="F45" s="44">
+        <v>7400.2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="45">
+        <v>7400.1</v>
+      </c>
+      <c r="F47" s="45">
+        <v>7400.1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="48"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="49"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="49"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="49"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="49"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="49"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="34"/>
+      <c r="D61" s="34"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="34"/>
+      <c r="D63" s="34"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="34"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="34"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="45">
+        <v>7420</v>
+      </c>
+      <c r="F75" s="45">
+        <v>7420</v>
+      </c>
+      <c r="G75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="34"/>
+      <c r="D78" s="34"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="34"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="34"/>
+      <c r="D80" s="34"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="34"/>
+      <c r="D82" s="34"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="48"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="48"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="48"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="48"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="48"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="48"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="48"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="52"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="34"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="E95" s="44">
+        <v>7500</v>
+      </c>
+      <c r="F95" s="44">
+        <v>7500</v>
+      </c>
+      <c r="G95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D97" s="34"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D98" s="34"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <customProperties>
-    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4077,11 +5274,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId2"/>
-    <sheet name="Form 1 - Qns for user inputs" sheetId="18" r:id="rId3"/>
-    <sheet name="Form 3 - TB mapping" sheetId="19" r:id="rId4"/>
+    <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
+    <sheet name="Form 1 - Qns for user inputs" sheetId="18" r:id="rId2"/>
+    <sheet name="Form 3 - TB mapping" sheetId="19" r:id="rId3"/>
+    <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId6"/>
     <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId7"/>
@@ -1649,27 +1649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1720,6 +1699,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2007,43 +2007,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="OrphanNamesChecked" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H176" activeCellId="1" sqref="H173:H174 H176"/>
     </sheetView>
   </sheetViews>
@@ -2067,10 +2034,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
@@ -2078,10 +2045,10 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
@@ -2089,10 +2056,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
@@ -2100,10 +2067,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2254,10 +2221,10 @@
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -4252,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -4384,29 +4351,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="32"/>
-    <col min="2" max="2" width="4.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="86.5703125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="4.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="26" t="s">
         <v>285</v>
       </c>
       <c r="G4" t="s">
@@ -4414,192 +4381,192 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="27" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="G14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="G23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="43">
+      <c r="D26" s="31"/>
+      <c r="E26" s="36">
         <v>7000.1</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="36">
         <v>7000.1</v>
       </c>
       <c r="G26" t="s">
@@ -4607,14 +4574,14 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="44">
+      <c r="D27" s="31"/>
+      <c r="E27" s="37">
         <v>7000.2</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="37">
         <v>7000.2</v>
       </c>
       <c r="G27" t="s">
@@ -4622,28 +4589,28 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="45">
+      <c r="D30" s="31"/>
+      <c r="E30" s="38">
         <v>7000.4</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="38">
         <v>7000.4</v>
       </c>
       <c r="G30" t="s">
@@ -4651,14 +4618,14 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="44">
+      <c r="D31" s="31"/>
+      <c r="E31" s="37">
         <v>7000.5</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="37">
         <v>7000.5</v>
       </c>
       <c r="G31" t="s">
@@ -4666,20 +4633,20 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="45">
+      <c r="D33" s="31"/>
+      <c r="E33" s="38">
         <v>7000.6</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="38">
         <v>7000.6</v>
       </c>
       <c r="G33" t="s">
@@ -4687,20 +4654,20 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="45">
+      <c r="D35" s="31"/>
+      <c r="E35" s="38">
         <v>7000.7</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="38">
         <v>7000.7</v>
       </c>
       <c r="G35" t="s">
@@ -4708,28 +4675,28 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="46">
+      <c r="D38" s="31"/>
+      <c r="E38" s="39">
         <v>7000.8</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="38">
         <v>7000.8</v>
       </c>
       <c r="G38" t="s">
@@ -4737,14 +4704,14 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="44">
+      <c r="D39" s="31"/>
+      <c r="E39" s="37">
         <v>7000.9</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="37">
         <v>7000.9</v>
       </c>
       <c r="G39" t="s">
@@ -4752,56 +4719,56 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
       <c r="G41" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="44">
+      <c r="D45" s="31"/>
+      <c r="E45" s="37">
         <v>7400.2</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="37">
         <v>7400.2</v>
       </c>
       <c r="G45" t="s">
@@ -4809,20 +4776,20 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="45">
+      <c r="D47" s="31"/>
+      <c r="E47" s="38">
         <v>7400.1</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="38">
         <v>7400.1</v>
       </c>
       <c r="G47" t="s">
@@ -4830,20 +4797,20 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="47" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="40" t="s">
         <v>342</v>
       </c>
       <c r="G49" t="s">
@@ -4851,193 +4818,193 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="48"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="49"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="49"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="49"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="49"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="49"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
       <c r="G57" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
       <c r="G60" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
-      <c r="D61" s="34"/>
+      <c r="B61" s="27"/>
+      <c r="D61" s="27"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
       <c r="G62" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="B63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
       <c r="G64" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="D66" s="34"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
       <c r="G67" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
       <c r="G68" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
       <c r="G69" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="D71" s="34"/>
+      <c r="D71" s="27"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
       <c r="G72" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
       <c r="G73" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="45">
+      <c r="D75" s="27"/>
+      <c r="E75" s="38">
         <v>7420</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="38">
         <v>7420</v>
       </c>
       <c r="G75" t="s">
@@ -5045,148 +5012,148 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
       <c r="G77" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="B78" s="27"/>
+      <c r="D78" s="27"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
       <c r="G79" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="27"/>
+      <c r="D80" s="27"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
       <c r="G81" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="B82" s="27"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
       <c r="G83" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="48"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="48"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="48"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="48"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="48"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="48"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="48"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
       <c r="G92" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
       <c r="G94" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="44">
+      <c r="D95" s="27"/>
+      <c r="E95" s="37">
         <v>7500</v>
       </c>
-      <c r="F95" s="44">
+      <c r="F95" s="37">
         <v>7500</v>
       </c>
       <c r="G95" t="s">
@@ -5194,34 +5161,34 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
       <c r="G96" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
       <c r="G97" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
       <c r="G98" t="s">
         <v>386</v>
       </c>
@@ -5232,6 +5199,39 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <customProperties>
     <customPr name="OrphanNamesChecked" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId1"/>
   </customProperties>
 </worksheet>
 </file>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4356,7 +4356,7 @@
   <dimension ref="A4:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
     <sheet name="Form 1 - Qns for user inputs" sheetId="18" r:id="rId2"/>
     <sheet name="Form 3 - TB mapping" sheetId="19" r:id="rId3"/>
-    <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId5"/>
-    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId7"/>
+    <sheet name="Form 2 - TB mapping" sheetId="20" r:id="rId4"/>
+    <sheet name="Form 2 - AGI" sheetId="21" r:id="rId5"/>
+    <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="539">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -1225,16 +1227,540 @@
   </si>
   <si>
     <t>npat</t>
+  </si>
+  <si>
+    <t>Form 2 - Statement of Financial Resources, Total Risk Requirement and Aggregate Indebtedness</t>
+  </si>
+  <si>
+    <t>Crossinvest (FY22) and Myer Gold (FY22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>(I) BASE CAPITAL/NET HEAD OFFICE FUNDS</t>
+  </si>
+  <si>
+    <t>(1) Paid-up capital</t>
+  </si>
+  <si>
+    <t>(a) ordinary shares</t>
+  </si>
+  <si>
+    <t>(b) irredeemable and non-cumulative preference shares</t>
+  </si>
+  <si>
+    <t>(2) Reserve fund</t>
+  </si>
+  <si>
+    <t>(3) Unappropriated profit or loss</t>
+  </si>
+  <si>
+    <t>(a) Dividend declared</t>
+  </si>
+  <si>
+    <t>upl_div_declared</t>
+  </si>
+  <si>
+    <t>(b) Interim loss</t>
+  </si>
+  <si>
+    <t>upl_interim_loss</t>
+  </si>
+  <si>
+    <t>Base Capital</t>
+  </si>
+  <si>
+    <t>base_capital</t>
+  </si>
+  <si>
+    <t>(4) Net head office funds</t>
+  </si>
+  <si>
+    <t>Total Base Capital or Net Head Office Funds</t>
+  </si>
+  <si>
+    <t>bc_total_base_capital_nhof</t>
+  </si>
+  <si>
+    <t>(II) FINANCIAL RESOURCES/ ADJUSTED NET HEAD OFFICE FUNDS</t>
+  </si>
+  <si>
+    <t>(1) Base Capital or Net Head Office Funds</t>
+  </si>
+  <si>
+    <t>fr_base_capital_nhof</t>
+  </si>
+  <si>
+    <t>Add:</t>
+  </si>
+  <si>
+    <t>(a) paid-up irredeemable and cumulative preference share capital</t>
+  </si>
+  <si>
+    <t>(b) paid-up redeemable preference share capital</t>
+  </si>
+  <si>
+    <t>current_liab_redeemable_pref_share, noncurrent_liab_redeemable_pref_share</t>
+  </si>
+  <si>
+    <t>(c) qualifying subordinated loans used on a temporary basis</t>
+  </si>
+  <si>
+    <t>bc_qual_subord_loans_temp</t>
+  </si>
+  <si>
+    <t>(d) revaluation reserves</t>
+  </si>
+  <si>
+    <t>(e) other reserves</t>
+  </si>
+  <si>
+    <t>(f) interim unappropriated profit</t>
+  </si>
+  <si>
+    <t>bc_interim_unappr_profit</t>
+  </si>
+  <si>
+    <t>(g) collective impairment allowance</t>
+  </si>
+  <si>
+    <t>bc_cltv_impairment_allowance</t>
+  </si>
+  <si>
+    <t>(2) Deductions from Financial Resources</t>
+  </si>
+  <si>
+    <t>(a) intangible assets</t>
+  </si>
+  <si>
+    <t>(b) future income tax benefits</t>
+  </si>
+  <si>
+    <t>dfr_future_incometax_benefits</t>
+  </si>
+  <si>
+    <t>(c) pre-paid expenses</t>
+  </si>
+  <si>
+    <t>(d) charged assets</t>
+  </si>
+  <si>
+    <t>dfr_charged_assets</t>
+  </si>
+  <si>
+    <t>(e) unsecured amounts due from directors and connected persons</t>
+  </si>
+  <si>
+    <t>dfr_unsecured_directors_cnntpersons</t>
+  </si>
+  <si>
+    <t>(f) unsecured amounts due from related corporations</t>
+  </si>
+  <si>
+    <t>dfr_unsecured_rlt_corporations</t>
+  </si>
+  <si>
+    <t>(g) other unsecured loans and advances</t>
+  </si>
+  <si>
+    <t>dfr_other_unsecured_loans</t>
+  </si>
+  <si>
+    <t>(h) capital investments in subsidiary or associate</t>
+  </si>
+  <si>
+    <t>dfr_capinvst_subsidiary_associate</t>
+  </si>
+  <si>
+    <t>(i) other non-current assets</t>
+  </si>
+  <si>
+    <t>(j) other assets not convertible to cash within 30 days</t>
+  </si>
+  <si>
+    <t>dfr_other_assets_nonconvertible_cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Deductions from Financial Resources </t>
+  </si>
+  <si>
+    <t>fr_total_deductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Resources or Adjusted Net Head Office Funds ("FR") </t>
+  </si>
+  <si>
+    <t>fr_financial_resources_anhof</t>
+  </si>
+  <si>
+    <t>(III) TOTAL RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t>(A) OPERATIONAL RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Operational</t>
+  </si>
+  <si>
+    <t>orr_operational</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Other operational risk requirement</t>
+  </si>
+  <si>
+    <t>other_orr_operational</t>
+  </si>
+  <si>
+    <t>Total Operational Risk Requirement</t>
+  </si>
+  <si>
+    <t>trr_total_operational_risk_req</t>
+  </si>
+  <si>
+    <t>(B) COUNTERPARTY RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Delivery-versus-payment transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (i) contracts unsettled at end of or after due date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (ii) open contracts traded on an exchange other than an approved exchange or a recognised exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (iii) contract which is offset by contra contract or forced-sale or buying-in transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Free deliveries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Product financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (d) Repurchase, reverse repurchase, specified products borrowing and lending agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (e) Transactions in marginable products traded on an exchange or novated to a clearing facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (f) Over-the-counter derivatives transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (g) Deposits with exchange, clearing house or clearing facility or member of an exchange, clearing house or clearing facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (h) Interest charged on amounts owed by counterparty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (i) Amount owed by counterparty in relation to subscription to specified products </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (j) Off-balance sheet commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (k) Other counterparty risk requirement </t>
+  </si>
+  <si>
+    <t>Total Counterparty Risk Requirement</t>
+  </si>
+  <si>
+    <t>(C) POSITION RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Equity derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (d) Debt derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (e) Commodity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (f) Commodity derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (g) Foreign exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (h) Other position risk requirement</t>
+  </si>
+  <si>
+    <t>Total Position Risk Requirement</t>
+  </si>
+  <si>
+    <t>(D) LARGE EXPOSURE RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Counterparty large exposure requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Issuer large exposure requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Other large exposure requirement</t>
+  </si>
+  <si>
+    <t>Total Large Exposure Risk Requirement</t>
+  </si>
+  <si>
+    <t>(E) UNDERWRITING RISK REQUIREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) Underwriting/ placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Other underwriting risk requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Underwriting Risk Requirement </t>
+  </si>
+  <si>
+    <t>(F) FIRM-SPECIFIC CAPITAL REQUIREMENT</t>
+  </si>
+  <si>
+    <t>Firm-specific capital requirement</t>
+  </si>
+  <si>
+    <t>Total Risk Requirement ("TRR")</t>
+  </si>
+  <si>
+    <t>ttr_total_risk_req</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR/TRR Ratio: FR/TRR x 100% </t>
+  </si>
+  <si>
+    <t>ttr_fr_trr_ratio</t>
+  </si>
+  <si>
+    <t>(IV) AGGREGATE INDEBTEDNESS</t>
+  </si>
+  <si>
+    <t>(1) Total Liabilities</t>
+  </si>
+  <si>
+    <t>(a) amount payable on open contracts</t>
+  </si>
+  <si>
+    <t>(b) deferred income taxes payable</t>
+  </si>
+  <si>
+    <t>(c) trust creditors</t>
+  </si>
+  <si>
+    <t>(d) amount payable to customers arising from dealing in capital markets products that are futures contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(e) amount payable to customers in connection with assets or moneys received on account of the customers arising from dealing in markets products other than futures contracts and maintained in trust accounts </t>
+  </si>
+  <si>
+    <t>(f) any liabilities fully secured by assets excluded from financial resources and adjusted net head office funds</t>
+  </si>
+  <si>
+    <t>(g) qualifying subordinated loans</t>
+  </si>
+  <si>
+    <t>(h) paid-up redeemable preference share capital</t>
+  </si>
+  <si>
+    <t>Aggregate Indebtedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) Financial Resources or Adjusted Net Head Office Funds </t>
+  </si>
+  <si>
+    <t>Qualifying letters of credit (restricted to 50% of total risk requirements)</t>
+  </si>
+  <si>
+    <t>Total risk requirements</t>
+  </si>
+  <si>
+    <t>Aggregate Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Aggregate Indebtedness to Aggregate Resources </t>
+  </si>
+  <si>
+    <t>(IV) ADJUSTED ASSETS</t>
+  </si>
+  <si>
+    <t>(1) Adjusted Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (a) On-balance sheet assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) Off-balance sheet items</t>
+  </si>
+  <si>
+    <t>aa_off_bs_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (c) Deductions from Financial Resources</t>
+  </si>
+  <si>
+    <t>aa_fr_total_deductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (d) Corporation's own balances  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (i) Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>aa_corp_own_cash_cashequiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (ii) Deposit with bank licensed under the Banking Act or merchant bank, of credit quality grade 1 </t>
+  </si>
+  <si>
+    <t>aa_corp_own_deposit_bank_credit_quality_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (e) Receivables owed by a related corporation which are due for settlement within 3 months and not past due</t>
+  </si>
+  <si>
+    <t>aa_receivables_rlt_corporation_within3mths</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (f) Fee receivables owed by collective investment schemes, closed-end funds or customers' accounts which are managed by the CMSL and due for settlement within 3 months and not past due</t>
+  </si>
+  <si>
+    <t>aa_fee_receivables_cis_cef_ca_within3mths</t>
+  </si>
+  <si>
+    <t>Adjusted Assets</t>
+  </si>
+  <si>
+    <t>aa_adjusted_assets</t>
+  </si>
+  <si>
+    <t>Average Adjusted Assets</t>
+  </si>
+  <si>
+    <t>aa_avg_adjusted_assets</t>
+  </si>
+  <si>
+    <t>(2) Adjusted Assets Threshold</t>
+  </si>
+  <si>
+    <t>aa_adjusted_assets_threshold</t>
+  </si>
+  <si>
+    <t>Annual gross income =</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- total revenue as per reported in respective year's Form 3 ** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(previously Form 6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- less: fee expenses as per reported in respective year's Form 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(previously Form 6) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[see Note 1 below]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- less: commission expenses as per reported in respective year's Form 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (previously Form 6)</t>
+    </r>
+  </si>
+  <si>
+    <t>exp_comm_expense_otherbroker, exp_comm_expense_agents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- less: interest expenses as per reported in respective year's Form 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(previously Form 6)</t>
+    </r>
+  </si>
+  <si>
+    <t>- less: realised profit or loss arising from the sale of HTM or AFS securities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- less: income or expenses not derived from ordinary activities and not expected to recur frequently or regularly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(See Note 2 below)</t>
+    </r>
+  </si>
+  <si>
+    <t>rev_int_others, rev_dividend, rev_other_revenue</t>
+  </si>
+  <si>
+    <t>- less: any income derived from insurance recoveries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,8 +1843,66 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,8 +1927,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1569,15 +2165,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,8 +2374,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="41" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Table Snip" xfId="2"/>
     <cellStyle name="Text Snip" xfId="1"/>
@@ -2010,21 +2796,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H176" activeCellId="1" sqref="H173:H174 H176"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="7.26953125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2819,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>101</v>
       </c>
@@ -2044,7 +2830,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>102</v>
       </c>
@@ -2055,7 +2841,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="49" t="s">
         <v>103</v>
       </c>
@@ -2066,7 +2852,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51" t="s">
         <v>104</v>
       </c>
@@ -2075,7 +2861,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2086,7 +2872,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>125</v>
       </c>
@@ -2095,14 +2881,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2114,13 +2900,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2917,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2143,7 +2929,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2941,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -2191,7 +2977,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -2203,10 +2989,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2217,10 +3003,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="53" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +3016,7 @@
       <c r="E22" s="8"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +3025,7 @@
       <c r="E23" s="15"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
@@ -2247,7 +3033,7 @@
       <c r="E24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
@@ -2259,14 +3045,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +3064,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +3076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +3089,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -2317,7 +3103,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -2326,7 +3112,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -2339,7 +3125,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -2352,7 +3138,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -2361,7 +3147,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -2374,7 +3160,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -2387,7 +3173,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
@@ -2396,7 +3182,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
@@ -2404,7 +3190,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +3202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -2428,7 +3214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +3226,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +3239,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
@@ -2466,14 +3252,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
@@ -2482,7 +3268,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
@@ -2490,7 +3276,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +3288,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +3300,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
@@ -2527,7 +3313,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
@@ -2540,14 +3326,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -2556,7 +3342,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
@@ -2564,7 +3350,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +3362,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
@@ -2588,7 +3374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
@@ -2600,7 +3386,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
@@ -2613,7 +3399,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
@@ -2626,14 +3412,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
@@ -2647,14 +3433,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="7" t="s">
         <v>34</v>
       </c>
@@ -2663,7 +3449,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
@@ -2671,7 +3457,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +3469,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
@@ -2695,7 +3481,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
@@ -2708,13 +3494,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
@@ -2728,13 +3514,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C70" s="7" t="s">
         <v>138</v>
       </c>
@@ -2742,7 +3528,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
@@ -2754,7 +3540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D72" s="7" t="s">
         <v>38</v>
       </c>
@@ -2767,13 +3553,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
@@ -2781,7 +3567,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
@@ -2793,7 +3579,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D76" s="7" t="s">
         <v>41</v>
       </c>
@@ -2806,13 +3592,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C78" s="7" t="s">
         <v>42</v>
       </c>
@@ -2825,12 +3611,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C80" s="7" t="s">
         <v>43</v>
       </c>
@@ -2843,12 +3629,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="7" t="s">
         <v>44</v>
       </c>
@@ -2861,12 +3647,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C84" s="7" t="s">
         <v>45</v>
       </c>
@@ -2879,12 +3665,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C86" s="7" t="s">
         <v>46</v>
       </c>
@@ -2897,12 +3683,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
@@ -2915,20 +3701,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C91" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +3726,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D93" s="7" t="s">
         <v>50</v>
       </c>
@@ -2953,13 +3739,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C95" s="7" t="s">
         <v>51</v>
       </c>
@@ -2967,7 +3753,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
@@ -2979,7 +3765,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
@@ -2992,12 +3778,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
@@ -3010,12 +3796,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -3028,13 +3814,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="G102" s="19"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C103" s="7" t="s">
         <v>54</v>
       </c>
@@ -3047,13 +3833,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="G104" s="19"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
@@ -3066,12 +3852,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C107" s="7" t="s">
         <v>56</v>
       </c>
@@ -3084,12 +3870,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C109" s="7" t="s">
         <v>57</v>
       </c>
@@ -3102,12 +3888,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
@@ -3120,12 +3906,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
@@ -3138,7 +3924,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" s="20" t="s">
         <v>128</v>
       </c>
@@ -3151,12 +3937,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
@@ -3164,14 +3950,14 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
@@ -3183,13 +3969,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3998,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D124" s="7" t="s">
         <v>63</v>
       </c>
@@ -3224,7 +4010,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D125" s="7" t="s">
         <v>64</v>
       </c>
@@ -3236,7 +4022,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
@@ -3248,7 +4034,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D127" s="7" t="s">
         <v>66</v>
       </c>
@@ -3260,14 +4046,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D128" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
@@ -3278,7 +4064,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
@@ -3290,25 +4076,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C132" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D133" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
@@ -3319,7 +4105,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +4117,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D136" s="7" t="s">
         <v>71</v>
       </c>
@@ -3343,7 +4129,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D137" s="7" t="s">
         <v>29</v>
       </c>
@@ -3355,20 +4141,20 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C139" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D140" s="7" t="s">
         <v>69</v>
       </c>
@@ -3380,7 +4166,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D141" s="7" t="s">
         <v>73</v>
       </c>
@@ -3392,7 +4178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D142" s="7" t="s">
         <v>29</v>
       </c>
@@ -3404,25 +4190,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D145" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
@@ -3433,7 +4219,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
@@ -3445,7 +4231,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D148" s="7" t="s">
         <v>71</v>
       </c>
@@ -3457,7 +4243,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D149" s="7" t="s">
         <v>29</v>
       </c>
@@ -3469,12 +4255,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C151" s="7" t="s">
         <v>75</v>
       </c>
@@ -3487,12 +4273,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C153" s="7" t="s">
         <v>76</v>
       </c>
@@ -3505,12 +4291,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
@@ -3523,7 +4309,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -3538,7 +4324,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D157" s="7" t="s">
         <v>137</v>
       </c>
@@ -3550,7 +4336,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
@@ -3563,19 +4349,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C160" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D161" s="7" t="s">
         <v>79</v>
       </c>
@@ -3587,7 +4373,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D162" s="7" t="s">
         <v>80</v>
       </c>
@@ -3599,7 +4385,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D163" s="7" t="s">
         <v>81</v>
       </c>
@@ -3612,12 +4398,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C165" s="7" t="s">
         <v>139</v>
       </c>
@@ -3630,19 +4416,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C167" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D168" s="7" t="s">
         <v>79</v>
       </c>
@@ -3654,7 +4440,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D169" s="7" t="s">
         <v>83</v>
       </c>
@@ -3666,7 +4452,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D170" s="7" t="s">
         <v>81</v>
       </c>
@@ -3679,19 +4465,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C172" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D173" s="7" t="s">
         <v>40</v>
       </c>
@@ -3703,7 +4489,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
@@ -3716,12 +4502,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C176" s="7" t="s">
         <v>85</v>
       </c>
@@ -3734,12 +4520,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C178" s="7" t="s">
         <v>86</v>
       </c>
@@ -3752,19 +4538,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C180" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D181" s="7" t="s">
         <v>88</v>
       </c>
@@ -3776,7 +4562,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D182" s="7" t="s">
         <v>89</v>
       </c>
@@ -3788,7 +4574,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D183" s="7" t="s">
         <v>81</v>
       </c>
@@ -3801,12 +4587,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
@@ -3819,7 +4605,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
         <v>129</v>
       </c>
@@ -3827,7 +4613,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C188" s="7" t="s">
         <v>140</v>
       </c>
@@ -3840,19 +4626,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D191" s="7" t="s">
         <v>49</v>
       </c>
@@ -3864,7 +4650,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D192" s="7" t="s">
         <v>50</v>
       </c>
@@ -3877,12 +4663,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C194" s="7" t="s">
         <v>92</v>
       </c>
@@ -3895,12 +4681,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C196" s="7" t="s">
         <v>93</v>
       </c>
@@ -3913,12 +4699,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
@@ -3931,12 +4717,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
@@ -3949,13 +4735,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
@@ -3969,17 +4755,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B207" s="7" t="s">
         <v>142</v>
       </c>
@@ -3988,7 +4774,7 @@
       <c r="E207" s="7"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B208" s="7" t="s">
         <v>143</v>
       </c>
@@ -3997,7 +4783,7 @@
       <c r="E208" s="7"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
         <v>144</v>
       </c>
@@ -4006,54 +4792,54 @@
       <c r="E209" s="7"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B218" s="7" t="s">
         <v>145</v>
       </c>
@@ -4062,7 +4848,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B219" s="7" t="s">
         <v>97</v>
       </c>
@@ -4072,13 +4858,13 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B221" s="7" t="s">
         <v>146</v>
       </c>
@@ -4087,7 +4873,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B222" s="7" t="s">
         <v>97</v>
       </c>
@@ -4097,7 +4883,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B223" s="7" t="s">
         <v>144</v>
       </c>
@@ -4105,54 +4891,54 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B224" s="3"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
       <c r="G224" s="24"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="G225" s="24"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="G226" s="24"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
       <c r="G227" s="24"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
       <c r="G228" s="24"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
       <c r="G229" s="24"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B232" s="7" t="s">
         <v>147</v>
       </c>
@@ -4161,7 +4947,7 @@
       <c r="E232" s="7"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B233" s="7" t="s">
         <v>148</v>
       </c>
@@ -4170,7 +4956,7 @@
       <c r="E233" s="7"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B234" s="7" t="s">
         <v>149</v>
       </c>
@@ -4179,12 +4965,12 @@
       <c r="E234" s="7"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B237" s="7" t="s">
         <v>150</v>
       </c>
@@ -4193,7 +4979,7 @@
       <c r="E237" s="7"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B238" s="7" t="s">
         <v>151</v>
       </c>
@@ -4227,23 +5013,23 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -4254,7 +5040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -4265,7 +5051,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>253</v>
       </c>
@@ -4276,7 +5062,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>283</v>
       </c>
@@ -4287,7 +5073,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
@@ -4298,7 +5084,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>281</v>
       </c>
@@ -4309,7 +5095,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
@@ -4320,7 +5106,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>278</v>
       </c>
@@ -4331,7 +5117,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -4355,21 +5141,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="4.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="86.5703125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="25"/>
+    <col min="2" max="2" width="4.81640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="86.54296875" style="25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E4" s="26" t="s">
         <v>284</v>
       </c>
@@ -4380,23 +5166,23 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="28" t="s">
         <v>290</v>
       </c>
@@ -4406,7 +5192,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" s="28" t="s">
         <v>292</v>
       </c>
@@ -4416,19 +5202,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="31" t="s">
         <v>294</v>
       </c>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="32" t="s">
         <v>290</v>
       </c>
@@ -4438,7 +5224,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D13" s="32" t="s">
         <v>296</v>
       </c>
@@ -4448,7 +5234,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D14" s="32" t="s">
         <v>298</v>
       </c>
@@ -4458,19 +5244,19 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="34" t="s">
         <v>300</v>
       </c>
       <c r="D16" s="34"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C17" s="33" t="s">
         <v>301</v>
       </c>
@@ -4481,7 +5267,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C18" s="33" t="s">
         <v>303</v>
       </c>
@@ -4492,7 +5278,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19" s="33" t="s">
         <v>305</v>
       </c>
@@ -4503,7 +5289,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="33" t="s">
         <v>307</v>
       </c>
@@ -4514,7 +5300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="31" t="s">
         <v>309</v>
       </c>
@@ -4525,7 +5311,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="31"/>
       <c r="D22" s="31" t="s">
         <v>311</v>
@@ -4533,7 +5319,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
         <v>312</v>
       </c>
@@ -4544,13 +5330,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="31" t="s">
         <v>314</v>
       </c>
@@ -4558,7 +5344,7 @@
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C26" s="31" t="s">
         <v>315</v>
       </c>
@@ -4573,7 +5359,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C27" s="31" t="s">
         <v>317</v>
       </c>
@@ -4588,13 +5374,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="31" t="s">
         <v>319</v>
       </c>
@@ -4602,7 +5388,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="31" t="s">
         <v>320</v>
       </c>
@@ -4617,7 +5403,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C31" s="31" t="s">
         <v>322</v>
       </c>
@@ -4632,13 +5418,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="31" t="s">
         <v>324</v>
       </c>
@@ -4653,13 +5439,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="31" t="s">
         <v>326</v>
       </c>
@@ -4674,13 +5460,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="31" t="s">
         <v>328</v>
       </c>
@@ -4688,7 +5474,7 @@
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C38" s="31" t="s">
         <v>329</v>
       </c>
@@ -4703,7 +5489,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C39" s="31" t="s">
         <v>331</v>
       </c>
@@ -4718,13 +5504,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="31" t="s">
         <v>333</v>
       </c>
@@ -4735,13 +5521,13 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="31" t="s">
         <v>335</v>
       </c>
@@ -4749,7 +5535,7 @@
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C44" s="31" t="s">
         <v>336</v>
       </c>
@@ -4760,7 +5546,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C45" s="31" t="s">
         <v>322</v>
       </c>
@@ -4775,13 +5561,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="31" t="s">
         <v>339</v>
       </c>
@@ -4796,13 +5582,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="31" t="s">
         <v>341</v>
       </c>
@@ -4817,49 +5603,49 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C50" s="41"/>
       <c r="D50" s="31"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C51" s="42"/>
       <c r="D51" s="31"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C52" s="42"/>
       <c r="D52" s="31"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C53" s="42"/>
       <c r="D53" s="31"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C54" s="42"/>
       <c r="D54" s="31"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C55" s="42"/>
       <c r="D55" s="31"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="43" t="s">
         <v>344</v>
       </c>
@@ -4870,13 +5656,13 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>347</v>
       </c>
@@ -4887,11 +5673,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="27"/>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>349</v>
       </c>
@@ -4902,11 +5688,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="27"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>351</v>
       </c>
@@ -4917,17 +5703,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>353</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C67" s="27" t="s">
         <v>354</v>
       </c>
@@ -4938,7 +5724,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C68" s="27" t="s">
         <v>356</v>
       </c>
@@ -4949,7 +5735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C69" s="27" t="s">
         <v>358</v>
       </c>
@@ -4960,17 +5746,17 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>360</v>
       </c>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C72" s="27" t="s">
         <v>361</v>
       </c>
@@ -4981,7 +5767,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C73" s="27" t="s">
         <v>363</v>
       </c>
@@ -4992,11 +5778,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>365</v>
       </c>
@@ -5011,11 +5797,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>367</v>
       </c>
@@ -5026,11 +5812,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="27"/>
       <c r="D78" s="27"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>369</v>
       </c>
@@ -5041,11 +5827,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="27"/>
       <c r="D80" s="27"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>371</v>
       </c>
@@ -5056,11 +5842,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B82" s="27"/>
       <c r="D82" s="27"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>373</v>
       </c>
@@ -5071,55 +5857,55 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C84" s="41"/>
       <c r="D84" s="31"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C85" s="41"/>
       <c r="D85" s="31"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C86" s="41"/>
       <c r="D86" s="31"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C87" s="41"/>
       <c r="D87" s="31"/>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C88" s="41"/>
       <c r="D88" s="31"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C89" s="41"/>
       <c r="D89" s="31"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C90" s="41"/>
       <c r="D90" s="31"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="45" t="s">
         <v>375</v>
       </c>
@@ -5130,11 +5916,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
         <v>377</v>
       </c>
@@ -5145,7 +5931,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>379</v>
       </c>
@@ -5160,7 +5946,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>381</v>
       </c>
@@ -5171,7 +5957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
         <v>383</v>
       </c>
@@ -5182,7 +5968,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="27" t="s">
         <v>385</v>
       </c>
@@ -5193,7 +5979,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5205,29 +5991,1629 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="66"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="66"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="79" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="66"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="66"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="66"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="66"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="66"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="66"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="94">
+        <v>999999999</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="66"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="101" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="66"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="66"/>
+      <c r="B18" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="66"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="97" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="66"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="66"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="66"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="66"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="66"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="H25" s="66"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="66"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="66"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" s="66"/>
+      <c r="F27" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="66"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="66"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="66"/>
+      <c r="F29" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="66"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="66"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="66"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G32" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="66"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="E33" s="66"/>
+      <c r="F33" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="H33" s="66"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="66"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G34" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="54"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="66"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="66"/>
+      <c r="F35" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="H35" s="66"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="66"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="E36" s="66"/>
+      <c r="F36" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="H36" s="66"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="66"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="E37" s="66"/>
+      <c r="F37" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="66"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H38" s="66"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="66"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="E39" s="66"/>
+      <c r="F39" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" s="54"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="66"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G40" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" s="54"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="66"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="93">
+        <v>999999999</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="H41" s="54"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="66"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="H42" s="54"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="66"/>
+      <c r="B43" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="H43" s="54"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="66"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="54"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="71" t="s">
+        <v>442</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="54"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="54"/>
+      <c r="B46" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="86">
+        <v>999999999</v>
+      </c>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="H47" s="54"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="F48" s="68"/>
+      <c r="G48" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="H48" s="54"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="54"/>
+      <c r="B49" s="85" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="66"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="54"/>
+      <c r="B51" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="82"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="E53" s="78">
+        <v>999999999</v>
+      </c>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="82"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="E54" s="78">
+        <v>999999999</v>
+      </c>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="82"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="78">
+        <v>999999999</v>
+      </c>
+      <c r="F55" s="78"/>
+      <c r="G55" s="82"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G56" s="54"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G57" s="54"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G58" s="54"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G59" s="54"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G60" s="54"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G61" s="54"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G62" s="54"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G63" s="54"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G64" s="54"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="54"/>
+      <c r="B66" s="87" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="70"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="66"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="54"/>
+      <c r="B68" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="80" t="s">
+        <v>474</v>
+      </c>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="54"/>
+      <c r="B77" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="70"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="66"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="54"/>
+      <c r="B79" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="80" t="s">
+        <v>478</v>
+      </c>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G81" s="54"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G82" s="54"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="54"/>
+      <c r="B83" s="87" t="s">
+        <v>480</v>
+      </c>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="54"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="80"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="54"/>
+      <c r="B85" s="87" t="s">
+        <v>481</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>482</v>
+      </c>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G86" s="54"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G87" s="54"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="54"/>
+      <c r="B88" s="87" t="s">
+        <v>484</v>
+      </c>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="54"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="80"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="54"/>
+      <c r="B90" s="87" t="s">
+        <v>485</v>
+      </c>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="69">
+        <v>999999999</v>
+      </c>
+      <c r="G91" s="54"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="54"/>
+      <c r="B92" s="81" t="s">
+        <v>487</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="54"/>
+      <c r="B93" s="81" t="s">
+        <v>489</v>
+      </c>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="71" t="s">
+        <v>491</v>
+      </c>
+      <c r="B95" s="71"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="54"/>
+      <c r="B96" s="66" t="s">
+        <v>492</v>
+      </c>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G96" s="54"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="54"/>
+      <c r="C97" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="90" t="s">
+        <v>493</v>
+      </c>
+      <c r="E98" s="54"/>
+      <c r="F98" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="90" t="s">
+        <v>494</v>
+      </c>
+      <c r="E99" s="54"/>
+      <c r="F99" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="90" t="s">
+        <v>495</v>
+      </c>
+      <c r="E100" s="54"/>
+      <c r="F100" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="90" t="s">
+        <v>496</v>
+      </c>
+      <c r="E101" s="54"/>
+      <c r="F101" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="90" t="s">
+        <v>497</v>
+      </c>
+      <c r="E102" s="54"/>
+      <c r="F102" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="90" t="s">
+        <v>498</v>
+      </c>
+      <c r="E103" s="54"/>
+      <c r="F103" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="90" t="s">
+        <v>499</v>
+      </c>
+      <c r="E104" s="54"/>
+      <c r="F104" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="90" t="s">
+        <v>500</v>
+      </c>
+      <c r="E105" s="54"/>
+      <c r="F105" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="70"/>
+    </row>
+    <row r="107" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="54"/>
+      <c r="C108" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="90" t="s">
+        <v>503</v>
+      </c>
+      <c r="E109" s="54"/>
+      <c r="F109" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="54"/>
+      <c r="C110" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="E111" s="54"/>
+      <c r="F111" s="68">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="68"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="54"/>
+      <c r="B113" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="54"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="B115" s="71"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="54"/>
+      <c r="B116" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="90" t="s">
+        <v>509</v>
+      </c>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G117" s="100" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="54"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="90" t="s">
+        <v>510</v>
+      </c>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G118" s="54" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="54"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="90" t="s">
+        <v>512</v>
+      </c>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G120" s="66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="54"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="90" t="s">
+        <v>515</v>
+      </c>
+      <c r="E122" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="90" t="s">
+        <v>517</v>
+      </c>
+      <c r="E123" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="F123" s="68"/>
+      <c r="G123" s="54" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="54"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="90" t="s">
+        <v>519</v>
+      </c>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G124" s="54" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="54"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="68">
+        <v>999999999</v>
+      </c>
+      <c r="G125" s="54" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="54"/>
+      <c r="B126" s="85" t="s">
+        <v>523</v>
+      </c>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="54" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="54"/>
+      <c r="B127" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="54" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="54"/>
+      <c r="B128" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="69"/>
+      <c r="G128" s="54" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -5238,31 +7624,108 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="107.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="110" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="111" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="102" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="111" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="111" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="102" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="111" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="102" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="111" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="102"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="111" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="102" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="111" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="102"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="112"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5274,33 +7737,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5313,11 +7770,86 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
     <sheet name="Form 1 - Qns for user inputs" sheetId="18" r:id="rId2"/>
-    <sheet name="Form 3 - TB mapping" sheetId="19" r:id="rId3"/>
-    <sheet name="Form 2 - TB mapping" sheetId="20" r:id="rId4"/>
-    <sheet name="Form 2 - AGI" sheetId="21" r:id="rId5"/>
+    <sheet name="Form 2 - TB mapping" sheetId="20" r:id="rId3"/>
+    <sheet name="Form 2 - AGI" sheetId="21" r:id="rId4"/>
+    <sheet name="Form 3 - TB mapping" sheetId="19" r:id="rId5"/>
     <sheet name="Agreed options" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="AR AP listing template" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId8"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="552">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -1751,6 +1751,42 @@
   </si>
   <si>
     <t>999999999</t>
+  </si>
+  <si>
+    <t>rev_other_revenue_1</t>
+  </si>
+  <si>
+    <t>rev_other_revenue_2</t>
+  </si>
+  <si>
+    <t>rev_other_revenue_3</t>
+  </si>
+  <si>
+    <t>rev_other_revenue_4</t>
+  </si>
+  <si>
+    <t>rev_other_revenue_5</t>
+  </si>
+  <si>
+    <t>rev_other_revenue_6</t>
+  </si>
+  <si>
+    <t>exp_other_expense_1</t>
+  </si>
+  <si>
+    <t>exp_other_expense_2</t>
+  </si>
+  <si>
+    <t>exp_other_expense_3</t>
+  </si>
+  <si>
+    <t>exp_other_expense_4</t>
+  </si>
+  <si>
+    <t>exp_other_expense_5</t>
+  </si>
+  <si>
+    <t>exp_other_expense_6</t>
   </si>
 </sst>
 </file>
@@ -2448,6 +2484,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2469,7 +2506,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2765,17 +2801,17 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.140625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2784,49 +2820,49 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102" t="s">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2837,7 +2873,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>125</v>
       </c>
@@ -2846,14 +2882,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2865,13 +2901,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2918,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2894,7 +2930,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
@@ -2906,7 +2942,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
@@ -2918,7 +2954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2966,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -2942,7 +2978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -2954,10 +2990,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2968,20 +3004,20 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="104" t="s">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -2990,7 +3026,7 @@
       <c r="E23" s="15"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
@@ -2998,7 +3034,7 @@
       <c r="E24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
@@ -3010,14 +3046,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3029,7 +3065,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3077,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
@@ -3054,7 +3090,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -3068,7 +3104,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -3077,7 +3113,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -3090,7 +3126,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -3103,7 +3139,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -3112,7 +3148,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -3125,7 +3161,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -3138,7 +3174,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3147,7 +3183,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3155,7 +3191,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -3167,7 +3203,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -3179,7 +3215,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
@@ -3191,7 +3227,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -3204,7 +3240,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
@@ -3217,14 +3253,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
@@ -3233,7 +3269,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3241,7 +3277,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3289,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
@@ -3265,7 +3301,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
@@ -3278,7 +3314,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
@@ -3291,14 +3327,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -3307,7 +3343,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
@@ -3315,7 +3351,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
@@ -3327,7 +3363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
@@ -3339,7 +3375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
@@ -3351,7 +3387,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
@@ -3364,7 +3400,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
@@ -3377,14 +3413,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
@@ -3398,14 +3434,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
         <v>34</v>
       </c>
@@ -3414,7 +3450,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
@@ -3422,7 +3458,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
@@ -3434,7 +3470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
@@ -3446,7 +3482,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
@@ -3459,13 +3495,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
@@ -3479,13 +3515,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
         <v>138</v>
       </c>
@@ -3493,7 +3529,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
@@ -3505,7 +3541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D72" s="7" t="s">
         <v>38</v>
       </c>
@@ -3518,13 +3554,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
@@ -3532,7 +3568,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3580,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D76" s="7" t="s">
         <v>41</v>
       </c>
@@ -3557,13 +3593,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="7" t="s">
         <v>42</v>
       </c>
@@ -3576,12 +3612,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="7" t="s">
         <v>43</v>
       </c>
@@ -3594,12 +3630,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
         <v>44</v>
       </c>
@@ -3612,12 +3648,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C84" s="7" t="s">
         <v>45</v>
       </c>
@@ -3630,12 +3666,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C86" s="7" t="s">
         <v>46</v>
       </c>
@@ -3648,12 +3684,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
@@ -3666,20 +3702,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C91" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
@@ -3691,7 +3727,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3704,13 +3740,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C95" s="7" t="s">
         <v>51</v>
       </c>
@@ -3718,7 +3754,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
@@ -3730,7 +3766,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
@@ -3743,12 +3779,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
@@ -3761,12 +3797,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -3779,13 +3815,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="G102" s="19"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="7" t="s">
         <v>54</v>
       </c>
@@ -3798,13 +3834,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="G104" s="19"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
@@ -3817,12 +3853,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="7" t="s">
         <v>56</v>
       </c>
@@ -3835,12 +3871,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="7" t="s">
         <v>57</v>
       </c>
@@ -3853,12 +3889,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
@@ -3871,12 +3907,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
@@ -3889,7 +3925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
         <v>128</v>
       </c>
@@ -3902,12 +3938,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
@@ -3915,14 +3951,14 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
@@ -3934,13 +3970,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
@@ -3951,7 +3987,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
@@ -3963,7 +3999,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D124" s="7" t="s">
         <v>63</v>
       </c>
@@ -3975,7 +4011,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D125" s="7" t="s">
         <v>64</v>
       </c>
@@ -3987,7 +4023,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
@@ -3999,7 +4035,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D127" s="7" t="s">
         <v>66</v>
       </c>
@@ -4011,14 +4047,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D128" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
@@ -4029,7 +4065,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
@@ -4041,25 +4077,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
@@ -4070,7 +4106,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
@@ -4082,7 +4118,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="s">
         <v>71</v>
       </c>
@@ -4094,7 +4130,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="s">
         <v>29</v>
       </c>
@@ -4106,20 +4142,20 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="s">
         <v>69</v>
       </c>
@@ -4131,7 +4167,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="s">
         <v>73</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="s">
         <v>29</v>
       </c>
@@ -4155,25 +4191,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
@@ -4184,7 +4220,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
@@ -4196,7 +4232,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="s">
         <v>71</v>
       </c>
@@ -4208,7 +4244,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D149" s="7" t="s">
         <v>29</v>
       </c>
@@ -4220,12 +4256,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="7" t="s">
         <v>75</v>
       </c>
@@ -4238,12 +4274,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="7" t="s">
         <v>76</v>
       </c>
@@ -4256,12 +4292,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
@@ -4274,7 +4310,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -4289,7 +4325,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D157" s="7" t="s">
         <v>137</v>
       </c>
@@ -4301,7 +4337,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
@@ -4314,19 +4350,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D161" s="7" t="s">
         <v>79</v>
       </c>
@@ -4338,7 +4374,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D162" s="7" t="s">
         <v>80</v>
       </c>
@@ -4350,7 +4386,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D163" s="7" t="s">
         <v>81</v>
       </c>
@@ -4363,12 +4399,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="7" t="s">
         <v>139</v>
       </c>
@@ -4381,19 +4417,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="s">
         <v>79</v>
       </c>
@@ -4405,7 +4441,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="s">
         <v>83</v>
       </c>
@@ -4417,7 +4453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="s">
         <v>81</v>
       </c>
@@ -4430,19 +4466,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D173" s="7" t="s">
         <v>40</v>
       </c>
@@ -4454,7 +4490,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
@@ -4467,12 +4503,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="7" t="s">
         <v>85</v>
       </c>
@@ -4485,12 +4521,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C178" s="7" t="s">
         <v>86</v>
       </c>
@@ -4503,19 +4539,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C180" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D181" s="7" t="s">
         <v>88</v>
       </c>
@@ -4527,7 +4563,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D182" s="7" t="s">
         <v>89</v>
       </c>
@@ -4539,7 +4575,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D183" s="7" t="s">
         <v>81</v>
       </c>
@@ -4552,12 +4588,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
@@ -4570,7 +4606,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="15" t="s">
         <v>129</v>
       </c>
@@ -4578,7 +4614,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C188" s="7" t="s">
         <v>140</v>
       </c>
@@ -4591,19 +4627,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D191" s="7" t="s">
         <v>49</v>
       </c>
@@ -4615,7 +4651,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D192" s="7" t="s">
         <v>50</v>
       </c>
@@ -4628,12 +4664,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C194" s="7" t="s">
         <v>92</v>
       </c>
@@ -4646,12 +4682,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C196" s="7" t="s">
         <v>93</v>
       </c>
@@ -4664,12 +4700,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
@@ -4682,12 +4718,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
@@ -4700,13 +4736,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
@@ -4720,17 +4756,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
         <v>142</v>
       </c>
@@ -4739,7 +4775,7 @@
       <c r="E207" s="7"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
         <v>143</v>
       </c>
@@ -4748,7 +4784,7 @@
       <c r="E208" s="7"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
         <v>144</v>
       </c>
@@ -4757,54 +4793,54 @@
       <c r="E209" s="7"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
         <v>145</v>
       </c>
@@ -4813,7 +4849,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>97</v>
       </c>
@@ -4823,13 +4859,13 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
         <v>146</v>
       </c>
@@ -4838,7 +4874,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
         <v>97</v>
       </c>
@@ -4848,7 +4884,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
         <v>144</v>
       </c>
@@ -4856,54 +4892,54 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
       <c r="G224" s="24"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="G225" s="24"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="G226" s="24"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
       <c r="G227" s="24"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
       <c r="G228" s="24"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
       <c r="G229" s="24"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B232" s="7" t="s">
         <v>147</v>
       </c>
@@ -4912,7 +4948,7 @@
       <c r="E232" s="7"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B233" s="7" t="s">
         <v>148</v>
       </c>
@@ -4921,7 +4957,7 @@
       <c r="E233" s="7"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B234" s="7" t="s">
         <v>149</v>
       </c>
@@ -4930,12 +4966,12 @@
       <c r="E234" s="7"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
         <v>150</v>
       </c>
@@ -4944,7 +4980,7 @@
       <c r="E237" s="7"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B238" s="7" t="s">
         <v>151</v>
       </c>
@@ -4978,23 +5014,23 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -5005,7 +5041,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -5016,7 +5052,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>253</v>
       </c>
@@ -5027,7 +5063,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>283</v>
       </c>
@@ -5038,7 +5074,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>281</v>
       </c>
@@ -5060,7 +5096,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
@@ -5071,7 +5107,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>278</v>
       </c>
@@ -5082,7 +5118,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -5104,867 +5140,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G99"/>
-  <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="2" max="2" width="4.81640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="86.54296875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D8" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D13" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D14" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="36">
-        <v>7000.1</v>
-      </c>
-      <c r="F26" s="36">
-        <v>7000.1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="37">
-        <v>7000.2</v>
-      </c>
-      <c r="F27" s="37">
-        <v>7000.2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="38">
-        <v>7000.4</v>
-      </c>
-      <c r="F30" s="38">
-        <v>7000.4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="37">
-        <v>7000.5</v>
-      </c>
-      <c r="F31" s="37">
-        <v>7000.5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="38">
-        <v>7000.6</v>
-      </c>
-      <c r="F33" s="38">
-        <v>7000.6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="38">
-        <v>7000.7</v>
-      </c>
-      <c r="F35" s="38">
-        <v>7000.7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="39">
-        <v>7000.8</v>
-      </c>
-      <c r="F38" s="38">
-        <v>7000.8</v>
-      </c>
-      <c r="G38" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="37">
-        <v>7000.9</v>
-      </c>
-      <c r="F39" s="37">
-        <v>7000.9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="37">
-        <v>7400.2</v>
-      </c>
-      <c r="F45" s="37">
-        <v>7400.2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="38">
-        <v>7400.1</v>
-      </c>
-      <c r="F47" s="38">
-        <v>7400.1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="G49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="41"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C51" s="42"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C52" s="42"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C53" s="42"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C54" s="42"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C55" s="42"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="27"/>
-      <c r="D61" s="27"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="27"/>
-      <c r="D63" s="27"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B66" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="27"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C67" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C68" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C69" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="D71" s="27"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C72" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C73" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="38">
-        <v>7420</v>
-      </c>
-      <c r="F75" s="38">
-        <v>7420</v>
-      </c>
-      <c r="G75" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B78" s="27"/>
-      <c r="D78" s="27"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B79" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B80" s="27"/>
-      <c r="D80" s="27"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="27"/>
-      <c r="D82" s="27"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C84" s="41"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C85" s="41"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C86" s="41"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C87" s="41"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C88" s="41"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C89" s="41"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C90" s="41"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="37">
-        <v>7500</v>
-      </c>
-      <c r="F95" s="37">
-        <v>7500</v>
-      </c>
-      <c r="G95" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <customProperties>
-    <customPr name="OrphanNamesChecked" r:id="rId2"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="54" t="s">
         <v>387</v>
       </c>
@@ -5976,7 +5160,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>101</v>
       </c>
@@ -5990,7 +5174,7 @@
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>102</v>
       </c>
@@ -6004,7 +5188,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>103</v>
       </c>
@@ -6018,7 +5202,7 @@
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
         <v>104</v>
       </c>
@@ -6030,7 +5214,7 @@
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -6040,7 +5224,7 @@
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="47"/>
       <c r="C7" s="59"/>
@@ -6056,7 +5240,7 @@
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>390</v>
       </c>
@@ -6068,7 +5252,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="59"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
       <c r="B9" s="47"/>
       <c r="C9" s="71" t="s">
@@ -6080,14 +5264,14 @@
       <c r="G9" s="47"/>
       <c r="H9" s="59"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="47"/>
       <c r="C10" s="59"/>
       <c r="D10" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F10" s="59"/>
@@ -6096,23 +5280,23 @@
       </c>
       <c r="H10" s="47"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="47"/>
       <c r="C11" s="59"/>
       <c r="D11" s="53" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="105" t="s">
-        <v>539</v>
-      </c>
-      <c r="F11" s="105"/>
+      <c r="E11" s="98" t="s">
+        <v>539</v>
+      </c>
+      <c r="F11" s="98"/>
       <c r="G11" s="84" t="s">
         <v>155</v>
       </c>
       <c r="H11" s="47"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="47"/>
       <c r="C12" s="59" t="s">
@@ -6120,7 +5304,7 @@
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G12" s="84" t="s">
@@ -6128,7 +5312,7 @@
       </c>
       <c r="H12" s="47"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="47"/>
       <c r="C13" s="72" t="s">
@@ -6136,7 +5320,7 @@
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G13" s="84" t="s">
@@ -6144,7 +5328,7 @@
       </c>
       <c r="H13" s="47"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="47"/>
       <c r="C14" s="59" t="s">
@@ -6154,7 +5338,7 @@
         <v>396</v>
       </c>
       <c r="E14" s="59"/>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G14" s="47" t="s">
@@ -6162,7 +5346,7 @@
       </c>
       <c r="H14" s="52"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="47"/>
       <c r="C15" s="59"/>
@@ -6170,7 +5354,7 @@
         <v>398</v>
       </c>
       <c r="E15" s="59"/>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G15" s="47" t="s">
@@ -6178,7 +5362,7 @@
       </c>
       <c r="H15" s="59"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="47"/>
       <c r="C16" s="72" t="s">
@@ -6186,7 +5370,7 @@
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G16" s="86" t="s">
@@ -6194,7 +5378,7 @@
       </c>
       <c r="H16" s="59"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="47"/>
       <c r="C17" s="59" t="s">
@@ -6202,7 +5386,7 @@
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G17" s="84" t="s">
@@ -6210,7 +5394,7 @@
       </c>
       <c r="H17" s="47"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="73" t="s">
         <v>403</v>
@@ -6218,7 +5402,7 @@
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G18" s="47" t="s">
@@ -6226,7 +5410,7 @@
       </c>
       <c r="H18" s="59"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="47"/>
       <c r="C19" s="59"/>
@@ -6236,7 +5420,7 @@
       <c r="G19" s="47"/>
       <c r="H19" s="59"/>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="82" t="s">
         <v>405</v>
       </c>
@@ -6248,7 +5432,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="59"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="47"/>
       <c r="C21" s="59" t="s">
@@ -6256,7 +5440,7 @@
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G21" s="47" t="s">
@@ -6264,7 +5448,7 @@
       </c>
       <c r="H21" s="59"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="47"/>
       <c r="C22" s="59" t="s">
@@ -6276,7 +5460,7 @@
       <c r="G22" s="47"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="47"/>
       <c r="C23" s="59"/>
@@ -6284,7 +5468,7 @@
         <v>409</v>
       </c>
       <c r="E23" s="59"/>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G23" s="84" t="s">
@@ -6292,7 +5476,7 @@
       </c>
       <c r="H23" s="47"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="47"/>
       <c r="C24" s="59"/>
@@ -6300,7 +5484,7 @@
         <v>410</v>
       </c>
       <c r="E24" s="59"/>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G24" s="85" t="s">
@@ -6308,7 +5492,7 @@
       </c>
       <c r="H24" s="47"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="47"/>
       <c r="C25" s="59"/>
@@ -6316,7 +5500,7 @@
         <v>412</v>
       </c>
       <c r="E25" s="59"/>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G25" s="47" t="s">
@@ -6324,7 +5508,7 @@
       </c>
       <c r="H25" s="59"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="47"/>
       <c r="C26" s="59"/>
@@ -6332,7 +5516,7 @@
         <v>414</v>
       </c>
       <c r="E26" s="59"/>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G26" s="84" t="s">
@@ -6340,7 +5524,7 @@
       </c>
       <c r="H26" s="47"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
       <c r="B27" s="47"/>
       <c r="C27" s="59"/>
@@ -6348,7 +5532,7 @@
         <v>415</v>
       </c>
       <c r="E27" s="59"/>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G27" s="84" t="s">
@@ -6356,7 +5540,7 @@
       </c>
       <c r="H27" s="47"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="47"/>
       <c r="C28" s="59"/>
@@ -6364,7 +5548,7 @@
         <v>416</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G28" s="47" t="s">
@@ -6372,7 +5556,7 @@
       </c>
       <c r="H28" s="59"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="47"/>
       <c r="C29" s="59"/>
@@ -6380,7 +5564,7 @@
         <v>418</v>
       </c>
       <c r="E29" s="59"/>
-      <c r="F29" s="105" t="s">
+      <c r="F29" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G29" s="47" t="s">
@@ -6388,7 +5572,7 @@
       </c>
       <c r="H29" s="59"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="47"/>
       <c r="C30" s="75" t="s">
@@ -6400,7 +5584,7 @@
       <c r="G30" s="47"/>
       <c r="H30" s="59"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="47"/>
       <c r="C31" s="59" t="s">
@@ -6412,7 +5596,7 @@
       <c r="G31" s="47"/>
       <c r="H31" s="59"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="47"/>
       <c r="C32" s="59"/>
@@ -6420,7 +5604,7 @@
         <v>421</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="105" t="s">
+      <c r="F32" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G32" s="84" t="s">
@@ -6428,7 +5612,7 @@
       </c>
       <c r="H32" s="47"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="47"/>
       <c r="C33" s="59"/>
@@ -6436,7 +5620,7 @@
         <v>422</v>
       </c>
       <c r="E33" s="59"/>
-      <c r="F33" s="105" t="s">
+      <c r="F33" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G33" s="47" t="s">
@@ -6444,7 +5628,7 @@
       </c>
       <c r="H33" s="59"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="47"/>
       <c r="C34" s="59"/>
@@ -6452,7 +5636,7 @@
         <v>424</v>
       </c>
       <c r="E34" s="59"/>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G34" s="84" t="s">
@@ -6460,7 +5644,7 @@
       </c>
       <c r="H34" s="47"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="47"/>
       <c r="C35" s="59"/>
@@ -6468,7 +5652,7 @@
         <v>425</v>
       </c>
       <c r="E35" s="59"/>
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G35" s="47" t="s">
@@ -6476,7 +5660,7 @@
       </c>
       <c r="H35" s="59"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="47"/>
       <c r="C36" s="59"/>
@@ -6484,7 +5668,7 @@
         <v>427</v>
       </c>
       <c r="E36" s="59"/>
-      <c r="F36" s="105" t="s">
+      <c r="F36" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G36" s="47" t="s">
@@ -6492,7 +5676,7 @@
       </c>
       <c r="H36" s="59"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="47"/>
       <c r="C37" s="59"/>
@@ -6500,7 +5684,7 @@
         <v>429</v>
       </c>
       <c r="E37" s="59"/>
-      <c r="F37" s="105" t="s">
+      <c r="F37" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G37" s="47" t="s">
@@ -6508,7 +5692,7 @@
       </c>
       <c r="H37" s="59"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="47"/>
       <c r="C38" s="59"/>
@@ -6516,7 +5700,7 @@
         <v>431</v>
       </c>
       <c r="E38" s="59"/>
-      <c r="F38" s="105" t="s">
+      <c r="F38" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G38" s="47" t="s">
@@ -6524,7 +5708,7 @@
       </c>
       <c r="H38" s="59"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="47"/>
       <c r="C39" s="59"/>
@@ -6532,7 +5716,7 @@
         <v>433</v>
       </c>
       <c r="E39" s="59"/>
-      <c r="F39" s="105" t="s">
+      <c r="F39" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G39" s="47" t="s">
@@ -6540,7 +5724,7 @@
       </c>
       <c r="H39" s="47"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
       <c r="B40" s="47"/>
       <c r="C40" s="59"/>
@@ -6548,7 +5732,7 @@
         <v>435</v>
       </c>
       <c r="E40" s="59"/>
-      <c r="F40" s="105" t="s">
+      <c r="F40" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G40" s="84" t="s">
@@ -6556,7 +5740,7 @@
       </c>
       <c r="H40" s="47"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="B41" s="47"/>
       <c r="C41" s="59"/>
@@ -6564,7 +5748,7 @@
         <v>436</v>
       </c>
       <c r="E41" s="59"/>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G41" s="59" t="s">
@@ -6572,7 +5756,7 @@
       </c>
       <c r="H41" s="47"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="59"/>
       <c r="B42" s="47"/>
       <c r="C42" s="76" t="s">
@@ -6580,7 +5764,7 @@
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
-      <c r="F42" s="105" t="s">
+      <c r="F42" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G42" s="59" t="s">
@@ -6588,7 +5772,7 @@
       </c>
       <c r="H42" s="47"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="77" t="s">
         <v>440</v>
@@ -6596,7 +5780,7 @@
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
-      <c r="F43" s="105" t="s">
+      <c r="F43" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G43" s="59" t="s">
@@ -6604,7 +5788,7 @@
       </c>
       <c r="H43" s="47"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="47"/>
       <c r="C44" s="59"/>
@@ -6614,7 +5798,7 @@
       <c r="G44" s="59"/>
       <c r="H44" s="47"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
         <v>442</v>
       </c>
@@ -6626,7 +5810,7 @@
       <c r="G45" s="59"/>
       <c r="H45" s="47"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
       <c r="B46" s="73" t="s">
         <v>443</v>
@@ -6638,14 +5822,14 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="53" t="s">
         <v>444</v>
       </c>
       <c r="D47" s="47"/>
-      <c r="E47" s="105" t="s">
+      <c r="E47" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F47" s="47"/>
@@ -6654,14 +5838,14 @@
       </c>
       <c r="H47" s="47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="47"/>
       <c r="C48" s="53" t="s">
         <v>446</v>
       </c>
       <c r="D48" s="47"/>
-      <c r="E48" s="105" t="s">
+      <c r="E48" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F48" s="61"/>
@@ -6670,7 +5854,7 @@
       </c>
       <c r="H48" s="47"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="77" t="s">
         <v>448</v>
@@ -6678,14 +5862,14 @@
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
-      <c r="F49" s="105" t="s">
+      <c r="F49" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G49" s="47" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="59"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -6694,7 +5878,7 @@
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="73" t="s">
         <v>450</v>
@@ -6707,7 +5891,7 @@
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -6718,46 +5902,46 @@
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="74"/>
       <c r="B53" s="59"/>
       <c r="C53" s="74"/>
       <c r="D53" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="E53" s="105" t="s">
+      <c r="E53" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F53" s="74"/>
       <c r="G53" s="74"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="74"/>
       <c r="B54" s="59"/>
       <c r="C54" s="74"/>
       <c r="D54" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F54" s="74"/>
       <c r="G54" s="74"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="74"/>
       <c r="B55" s="59"/>
       <c r="C55" s="53" t="s">
         <v>455</v>
       </c>
       <c r="D55" s="47"/>
-      <c r="E55" s="105" t="s">
+      <c r="E55" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F55" s="70"/>
       <c r="G55" s="74"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="53" t="s">
@@ -6765,12 +5949,12 @@
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="105" t="s">
+      <c r="F56" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G56" s="47"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" s="53" t="s">
@@ -6778,12 +5962,12 @@
       </c>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="105" t="s">
+      <c r="F57" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G57" s="47"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="53" t="s">
@@ -6791,12 +5975,12 @@
       </c>
       <c r="D58" s="47"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="105" t="s">
+      <c r="F58" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G58" s="47"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="53" t="s">
@@ -6804,12 +5988,12 @@
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="105" t="s">
+      <c r="F59" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G59" s="47"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="53" t="s">
@@ -6817,12 +6001,12 @@
       </c>
       <c r="D60" s="47"/>
       <c r="E60" s="47"/>
-      <c r="F60" s="105" t="s">
+      <c r="F60" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G60" s="47"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="53" t="s">
@@ -6830,12 +6014,12 @@
       </c>
       <c r="D61" s="47"/>
       <c r="E61" s="47"/>
-      <c r="F61" s="105" t="s">
+      <c r="F61" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G61" s="47"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="53" t="s">
@@ -6843,12 +6027,12 @@
       </c>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
-      <c r="F62" s="105" t="s">
+      <c r="F62" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G62" s="47"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="53" t="s">
@@ -6856,12 +6040,12 @@
       </c>
       <c r="D63" s="47"/>
       <c r="E63" s="47"/>
-      <c r="F63" s="105" t="s">
+      <c r="F63" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G63" s="47"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="47"/>
       <c r="C64" s="53" t="s">
@@ -6869,22 +6053,22 @@
       </c>
       <c r="D64" s="47"/>
       <c r="E64" s="47"/>
-      <c r="F64" s="105" t="s">
+      <c r="F64" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G64" s="47"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
       <c r="D65" s="47"/>
       <c r="E65" s="47"/>
-      <c r="F65" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="78" t="s">
         <v>465</v>
@@ -6892,11 +6076,11 @@
       <c r="C66" s="47"/>
       <c r="D66" s="47"/>
       <c r="E66" s="47"/>
-      <c r="F66" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F66" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="59"/>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
@@ -6904,7 +6088,7 @@
       <c r="E67" s="47"/>
       <c r="F67" s="47"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="73" t="s">
         <v>466</v>
@@ -6914,7 +6098,7 @@
       <c r="E68" s="47"/>
       <c r="F68" s="47"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="72" t="s">
@@ -6922,11 +6106,11 @@
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="47"/>
-      <c r="F69" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="47"/>
       <c r="C70" s="72" t="s">
@@ -6934,11 +6118,11 @@
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="47"/>
-      <c r="F70" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F70" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="72" t="s">
@@ -6946,11 +6130,11 @@
       </c>
       <c r="D71" s="47"/>
       <c r="E71" s="47"/>
-      <c r="F71" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F71" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="72" t="s">
@@ -6958,11 +6142,11 @@
       </c>
       <c r="D72" s="47"/>
       <c r="E72" s="47"/>
-      <c r="F72" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F72" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="47"/>
       <c r="C73" s="72" t="s">
@@ -6970,11 +6154,11 @@
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="47"/>
-      <c r="F73" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F73" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="72" t="s">
@@ -6982,11 +6166,11 @@
       </c>
       <c r="D74" s="47"/>
       <c r="E74" s="47"/>
-      <c r="F74" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F74" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="47"/>
       <c r="C75" s="72" t="s">
@@ -6994,11 +6178,11 @@
       </c>
       <c r="D75" s="47"/>
       <c r="E75" s="47"/>
-      <c r="F75" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F75" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="72" t="s">
@@ -7006,11 +6190,11 @@
       </c>
       <c r="D76" s="47"/>
       <c r="E76" s="47"/>
-      <c r="F76" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F76" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="78" t="s">
         <v>475</v>
@@ -7018,11 +6202,11 @@
       <c r="C77" s="47"/>
       <c r="D77" s="47"/>
       <c r="E77" s="47"/>
-      <c r="F77" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F77" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="59"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -7030,7 +6214,7 @@
       <c r="E78" s="47"/>
       <c r="F78" s="47"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="78" t="s">
         <v>476</v>
@@ -7040,11 +6224,11 @@
       </c>
       <c r="D79" s="47"/>
       <c r="E79" s="47"/>
-      <c r="F79" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F79" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="47"/>
       <c r="C80" s="72" t="s">
@@ -7052,11 +6236,11 @@
       </c>
       <c r="D80" s="47"/>
       <c r="E80" s="47"/>
-      <c r="F80" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F80" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="47"/>
       <c r="C81" s="72" t="s">
@@ -7064,23 +6248,23 @@
       </c>
       <c r="D81" s="47"/>
       <c r="E81" s="47"/>
-      <c r="F81" s="105" t="s">
+      <c r="F81" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G81" s="47"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="47"/>
       <c r="E82" s="47"/>
-      <c r="F82" s="105" t="s">
+      <c r="F82" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G82" s="47"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="78" t="s">
         <v>480</v>
@@ -7088,12 +6272,12 @@
       <c r="C83" s="47"/>
       <c r="D83" s="47"/>
       <c r="E83" s="47"/>
-      <c r="F83" s="105" t="s">
+      <c r="F83" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G83" s="47"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="72"/>
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
@@ -7102,7 +6286,7 @@
       <c r="F84" s="47"/>
       <c r="G84" s="47"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="78" t="s">
         <v>481</v>
@@ -7115,7 +6299,7 @@
       <c r="F85" s="47"/>
       <c r="G85" s="47"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="47"/>
       <c r="C86" s="72" t="s">
@@ -7123,23 +6307,23 @@
       </c>
       <c r="D86" s="47"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="105" t="s">
+      <c r="F86" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G86" s="47"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="47"/>
       <c r="E87" s="47"/>
-      <c r="F87" s="105" t="s">
+      <c r="F87" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G87" s="47"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
       <c r="B88" s="78" t="s">
         <v>484</v>
@@ -7147,12 +6331,12 @@
       <c r="C88" s="47"/>
       <c r="D88" s="47"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="105" t="s">
+      <c r="F88" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G88" s="47"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="72"/>
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
@@ -7161,7 +6345,7 @@
       <c r="F89" s="47"/>
       <c r="G89" s="47"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="78" t="s">
         <v>485</v>
@@ -7172,7 +6356,7 @@
       <c r="F90" s="47"/>
       <c r="G90" s="47"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="47"/>
       <c r="C91" s="72" t="s">
@@ -7180,12 +6364,12 @@
       </c>
       <c r="D91" s="47"/>
       <c r="E91" s="47"/>
-      <c r="F91" s="105" t="s">
+      <c r="F91" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G91" s="47"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="73" t="s">
         <v>487</v>
@@ -7193,14 +6377,14 @@
       <c r="C92" s="47"/>
       <c r="D92" s="47"/>
       <c r="E92" s="47"/>
-      <c r="F92" s="105" t="s">
+      <c r="F92" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G92" s="47" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="73" t="s">
         <v>489</v>
@@ -7208,14 +6392,14 @@
       <c r="C93" s="47"/>
       <c r="D93" s="47"/>
       <c r="E93" s="47"/>
-      <c r="F93" s="105" t="s">
+      <c r="F93" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G93" s="47" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="63" t="s">
         <v>491</v>
       </c>
@@ -7226,7 +6410,7 @@
       <c r="F95" s="47"/>
       <c r="G95" s="47"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="59" t="s">
         <v>492</v>
@@ -7234,12 +6418,12 @@
       <c r="C96" s="47"/>
       <c r="D96" s="47"/>
       <c r="E96" s="47"/>
-      <c r="F96" s="105" t="s">
+      <c r="F96" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G96" s="47"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
       <c r="C97" s="59" t="s">
         <v>115</v>
@@ -7248,95 +6432,95 @@
       <c r="E97" s="47"/>
       <c r="F97" s="47"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="79" t="s">
         <v>493</v>
       </c>
       <c r="E98" s="47"/>
-      <c r="F98" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F98" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="79" t="s">
         <v>494</v>
       </c>
       <c r="E99" s="47"/>
-      <c r="F99" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F99" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="79" t="s">
         <v>495</v>
       </c>
       <c r="E100" s="47"/>
-      <c r="F100" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F100" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="79" t="s">
         <v>496</v>
       </c>
       <c r="E101" s="47"/>
-      <c r="F101" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F101" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="79" t="s">
         <v>497</v>
       </c>
       <c r="E102" s="47"/>
-      <c r="F102" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F102" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="79" t="s">
         <v>498</v>
       </c>
       <c r="E103" s="47"/>
-      <c r="F103" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F103" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
       <c r="D104" s="79" t="s">
         <v>499</v>
       </c>
       <c r="E104" s="47"/>
-      <c r="F104" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F104" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
       <c r="D105" s="79" t="s">
         <v>500</v>
       </c>
       <c r="E105" s="47"/>
-      <c r="F105" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F105" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="77" t="s">
         <v>501</v>
       </c>
@@ -7345,18 +6529,18 @@
       <c r="E106" s="47"/>
       <c r="F106" s="62"/>
     </row>
-    <row r="107" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B107" s="59" t="s">
         <v>502</v>
       </c>
       <c r="C107" s="47"/>
       <c r="D107" s="47"/>
       <c r="E107" s="47"/>
-      <c r="F107" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F107" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="47"/>
       <c r="C108" s="80" t="s">
         <v>408</v>
@@ -7365,18 +6549,18 @@
       <c r="E108" s="47"/>
       <c r="F108" s="47"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
       <c r="D109" s="79" t="s">
         <v>503</v>
       </c>
       <c r="E109" s="47"/>
-      <c r="F109" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F109" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
       <c r="C110" s="80" t="s">
         <v>115</v>
@@ -7385,29 +6569,29 @@
       <c r="E110" s="47"/>
       <c r="F110" s="47"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
       <c r="D111" s="59" t="s">
         <v>504</v>
       </c>
       <c r="E111" s="47"/>
-      <c r="F111" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F111" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="77" t="s">
         <v>505</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
       <c r="E112" s="47"/>
-      <c r="F112" s="105" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F112" s="98" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="77" t="s">
         <v>506</v>
@@ -7415,12 +6599,12 @@
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
       <c r="E113" s="47"/>
-      <c r="F113" s="105" t="s">
+      <c r="F113" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G113" s="47"/>
     </row>
-    <row r="115" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
         <v>507</v>
       </c>
@@ -7431,7 +6615,7 @@
       <c r="F115" s="47"/>
       <c r="G115" s="47"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="59" t="s">
         <v>508</v>
@@ -7442,7 +6626,7 @@
       <c r="F116" s="47"/>
       <c r="G116" s="47"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
       <c r="B117" s="47"/>
       <c r="C117" s="79" t="s">
@@ -7450,14 +6634,14 @@
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47"/>
-      <c r="F117" s="105" t="s">
+      <c r="F117" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G117" s="85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="47"/>
       <c r="C118" s="79" t="s">
@@ -7465,14 +6649,14 @@
       </c>
       <c r="D118" s="47"/>
       <c r="E118" s="47"/>
-      <c r="F118" s="105" t="s">
+      <c r="F118" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G118" s="47" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="47"/>
       <c r="C119" s="59" t="s">
@@ -7483,7 +6667,7 @@
       <c r="F119" s="47"/>
       <c r="G119" s="47"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="47"/>
       <c r="C120" s="79" t="s">
@@ -7491,14 +6675,14 @@
       </c>
       <c r="D120" s="47"/>
       <c r="E120" s="47"/>
-      <c r="F120" s="105" t="s">
+      <c r="F120" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G120" s="59" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
       <c r="B121" s="47"/>
       <c r="C121" s="79" t="s">
@@ -7509,14 +6693,14 @@
       <c r="F121" s="47"/>
       <c r="G121" s="47"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
       <c r="D122" s="79" t="s">
         <v>515</v>
       </c>
-      <c r="E122" s="105" t="s">
+      <c r="E122" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F122" s="47"/>
@@ -7524,14 +6708,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
       <c r="D123" s="79" t="s">
         <v>517</v>
       </c>
-      <c r="E123" s="105" t="s">
+      <c r="E123" s="98" t="s">
         <v>539</v>
       </c>
       <c r="F123" s="61"/>
@@ -7539,7 +6723,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="47"/>
       <c r="C124" s="79" t="s">
@@ -7547,14 +6731,14 @@
       </c>
       <c r="D124" s="47"/>
       <c r="E124" s="47"/>
-      <c r="F124" s="105" t="s">
+      <c r="F124" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G124" s="47" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
       <c r="B125" s="47"/>
       <c r="C125" s="60" t="s">
@@ -7562,14 +6746,14 @@
       </c>
       <c r="D125" s="47"/>
       <c r="E125" s="47"/>
-      <c r="F125" s="105" t="s">
+      <c r="F125" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G125" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
       <c r="B126" s="77" t="s">
         <v>523</v>
@@ -7577,14 +6761,14 @@
       <c r="C126" s="47"/>
       <c r="D126" s="47"/>
       <c r="E126" s="47"/>
-      <c r="F126" s="105" t="s">
+      <c r="F126" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G126" s="47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
       <c r="B127" s="77" t="s">
         <v>525</v>
@@ -7592,14 +6776,14 @@
       <c r="C127" s="47"/>
       <c r="D127" s="47"/>
       <c r="E127" s="47"/>
-      <c r="F127" s="105" t="s">
+      <c r="F127" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G127" s="47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
       <c r="B128" s="79" t="s">
         <v>527</v>
@@ -7607,12 +6791,125 @@
       <c r="C128" s="47"/>
       <c r="D128" s="47"/>
       <c r="E128" s="47"/>
-      <c r="F128" s="105" t="s">
+      <c r="F128" s="98" t="s">
         <v>539</v>
       </c>
       <c r="G128" s="47" t="s">
         <v>528</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="87" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="87" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="96" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="87"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="87" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="87"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7624,113 +6921,889 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A4:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="4.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="s">
-        <v>529</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="96" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="87" t="s">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="36">
+        <v>7000.1</v>
+      </c>
+      <c r="F26" s="36">
+        <v>7000.1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="37">
+        <v>7000.2</v>
+      </c>
+      <c r="F27" s="37">
+        <v>7000.2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="38">
+        <v>7000.4</v>
+      </c>
+      <c r="F30" s="38">
+        <v>7000.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="37">
+        <v>7000.5</v>
+      </c>
+      <c r="F31" s="37">
+        <v>7000.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="38">
+        <v>7000.6</v>
+      </c>
+      <c r="F33" s="38">
+        <v>7000.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="38">
+        <v>7000.7</v>
+      </c>
+      <c r="F35" s="38">
+        <v>7000.7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="39">
+        <v>7000.8</v>
+      </c>
+      <c r="F38" s="38">
+        <v>7000.8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="37">
+        <v>7000.9</v>
+      </c>
+      <c r="F39" s="37">
+        <v>7000.9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="37">
+        <v>7400.2</v>
+      </c>
+      <c r="F45" s="37">
+        <v>7400.2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="38">
+        <v>7400.1</v>
+      </c>
+      <c r="F47" s="38">
+        <v>7400.1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="41"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="87" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="42"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="87" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="42"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="87" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="42"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="87" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="42"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="87" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="42"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="87"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96" t="s">
-        <v>531</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="87" t="s">
+    <row r="58" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="27"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="38">
+        <v>7420</v>
+      </c>
+      <c r="F75" s="38">
+        <v>7420</v>
+      </c>
+      <c r="G75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96" t="s">
-        <v>532</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="87" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="96" t="s">
-        <v>534</v>
-      </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96" t="s">
-        <v>535</v>
-      </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="87"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="96" t="s">
-        <v>536</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="87" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="96" t="s">
-        <v>538</v>
-      </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="97"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="27"/>
+      <c r="D78" s="27"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="27"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="27"/>
+      <c r="D80" s="27"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" s="27"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="27"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="41"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="87" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="41"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="87" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="41"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="41"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="41"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="41"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="87" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="41"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="37">
+        <v>7500</v>
+      </c>
+      <c r="F95" s="37">
+        <v>7500</v>
+      </c>
+      <c r="G95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="D97" s="27"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <customProperties>
-    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -7743,19 +7816,19 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -7774,15 +7847,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -7810,12 +7883,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -7849,7 +7922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="551">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -1233,9 +1233,6 @@
   </si>
   <si>
     <t>Crossinvest (FY22) and Myer Gold (FY22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount </t>
   </si>
   <si>
     <t>(I) BASE CAPITAL/NET HEAD OFFICE FUNDS</t>
@@ -1799,7 +1796,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1891,13 +1888,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1979,7 +1969,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2185,26 +2175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2230,6 +2200,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2239,7 +2218,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2321,7 +2300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2335,7 +2313,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2356,11 +2333,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2399,8 +2374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2422,13 +2395,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2438,53 +2408,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="41" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="41" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2506,6 +2477,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2798,20 +2771,20 @@
   <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="7.26953125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2820,49 +2793,49 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="100"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="104"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2873,7 +2846,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>125</v>
       </c>
@@ -2882,14 +2855,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2901,13 +2874,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2918,7 +2891,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2903,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
@@ -2954,7 +2927,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
@@ -2966,7 +2939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -2978,7 +2951,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -2990,10 +2963,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -3004,20 +2977,20 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -3026,7 +2999,7 @@
       <c r="E23" s="15"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
@@ -3034,7 +3007,7 @@
       <c r="E24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
@@ -3046,14 +3019,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
@@ -3077,7 +3050,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
@@ -3090,7 +3063,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -3104,7 +3077,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -3113,7 +3086,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -3126,7 +3099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -3139,7 +3112,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -3148,7 +3121,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -3161,7 +3134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -3174,7 +3147,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3183,7 +3156,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3191,7 +3164,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -3203,7 +3176,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3188,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
@@ -3227,7 +3200,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -3240,7 +3213,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
@@ -3253,14 +3226,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
@@ -3269,7 +3242,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3277,7 +3250,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3289,7 +3262,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
@@ -3301,7 +3274,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
@@ -3314,7 +3287,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
@@ -3327,14 +3300,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -3343,7 +3316,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
@@ -3351,7 +3324,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
@@ -3363,7 +3336,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
@@ -3375,7 +3348,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
@@ -3387,7 +3360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
@@ -3400,7 +3373,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
@@ -3413,14 +3386,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
@@ -3434,14 +3407,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="7" t="s">
         <v>34</v>
       </c>
@@ -3450,7 +3423,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
@@ -3458,7 +3431,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
@@ -3470,7 +3443,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
@@ -3482,7 +3455,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
@@ -3495,13 +3468,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
@@ -3515,13 +3488,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C70" s="7" t="s">
         <v>138</v>
       </c>
@@ -3529,7 +3502,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
@@ -3541,7 +3514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D72" s="7" t="s">
         <v>38</v>
       </c>
@@ -3554,13 +3527,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
@@ -3568,7 +3541,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
@@ -3580,7 +3553,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D76" s="7" t="s">
         <v>41</v>
       </c>
@@ -3593,13 +3566,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C78" s="7" t="s">
         <v>42</v>
       </c>
@@ -3612,12 +3585,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C80" s="7" t="s">
         <v>43</v>
       </c>
@@ -3630,12 +3603,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="7" t="s">
         <v>44</v>
       </c>
@@ -3648,12 +3621,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C84" s="7" t="s">
         <v>45</v>
       </c>
@@ -3666,12 +3639,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C86" s="7" t="s">
         <v>46</v>
       </c>
@@ -3684,12 +3657,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
@@ -3702,20 +3675,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C91" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
@@ -3727,7 +3700,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3740,13 +3713,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C95" s="7" t="s">
         <v>51</v>
       </c>
@@ -3754,7 +3727,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
@@ -3766,7 +3739,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
@@ -3779,12 +3752,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
@@ -3797,12 +3770,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -3815,13 +3788,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="G102" s="19"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C103" s="7" t="s">
         <v>54</v>
       </c>
@@ -3834,13 +3807,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="G104" s="19"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
@@ -3853,12 +3826,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C107" s="7" t="s">
         <v>56</v>
       </c>
@@ -3871,12 +3844,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C109" s="7" t="s">
         <v>57</v>
       </c>
@@ -3889,12 +3862,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
@@ -3907,12 +3880,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
@@ -3925,7 +3898,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" s="20" t="s">
         <v>128</v>
       </c>
@@ -3938,12 +3911,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
@@ -3951,14 +3924,14 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
@@ -3970,13 +3943,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
@@ -3987,7 +3960,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
@@ -3999,7 +3972,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D124" s="7" t="s">
         <v>63</v>
       </c>
@@ -4011,7 +3984,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D125" s="7" t="s">
         <v>64</v>
       </c>
@@ -4023,7 +3996,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
@@ -4035,7 +4008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D127" s="7" t="s">
         <v>66</v>
       </c>
@@ -4047,14 +4020,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D128" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
@@ -4065,7 +4038,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
@@ -4077,25 +4050,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C132" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D133" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
@@ -4106,7 +4079,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
@@ -4118,7 +4091,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D136" s="7" t="s">
         <v>71</v>
       </c>
@@ -4130,7 +4103,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D137" s="7" t="s">
         <v>29</v>
       </c>
@@ -4142,20 +4115,20 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C139" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D140" s="7" t="s">
         <v>69</v>
       </c>
@@ -4167,7 +4140,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D141" s="7" t="s">
         <v>73</v>
       </c>
@@ -4179,7 +4152,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D142" s="7" t="s">
         <v>29</v>
       </c>
@@ -4191,25 +4164,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D145" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
@@ -4220,7 +4193,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
@@ -4232,7 +4205,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D148" s="7" t="s">
         <v>71</v>
       </c>
@@ -4244,7 +4217,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D149" s="7" t="s">
         <v>29</v>
       </c>
@@ -4256,12 +4229,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C151" s="7" t="s">
         <v>75</v>
       </c>
@@ -4274,12 +4247,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C153" s="7" t="s">
         <v>76</v>
       </c>
@@ -4292,12 +4265,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
@@ -4310,7 +4283,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -4325,7 +4298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D157" s="7" t="s">
         <v>137</v>
       </c>
@@ -4337,7 +4310,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
@@ -4350,19 +4323,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C160" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D161" s="7" t="s">
         <v>79</v>
       </c>
@@ -4374,7 +4347,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D162" s="7" t="s">
         <v>80</v>
       </c>
@@ -4386,7 +4359,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D163" s="7" t="s">
         <v>81</v>
       </c>
@@ -4399,12 +4372,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C165" s="7" t="s">
         <v>139</v>
       </c>
@@ -4417,19 +4390,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C167" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D168" s="7" t="s">
         <v>79</v>
       </c>
@@ -4441,7 +4414,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D169" s="7" t="s">
         <v>83</v>
       </c>
@@ -4453,7 +4426,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D170" s="7" t="s">
         <v>81</v>
       </c>
@@ -4466,19 +4439,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C172" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D173" s="7" t="s">
         <v>40</v>
       </c>
@@ -4490,7 +4463,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
@@ -4503,12 +4476,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C176" s="7" t="s">
         <v>85</v>
       </c>
@@ -4521,12 +4494,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C178" s="7" t="s">
         <v>86</v>
       </c>
@@ -4539,19 +4512,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C180" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D181" s="7" t="s">
         <v>88</v>
       </c>
@@ -4563,7 +4536,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D182" s="7" t="s">
         <v>89</v>
       </c>
@@ -4575,7 +4548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D183" s="7" t="s">
         <v>81</v>
       </c>
@@ -4588,12 +4561,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
@@ -4606,7 +4579,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
         <v>129</v>
       </c>
@@ -4614,7 +4587,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C188" s="7" t="s">
         <v>140</v>
       </c>
@@ -4627,19 +4600,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D191" s="7" t="s">
         <v>49</v>
       </c>
@@ -4651,7 +4624,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D192" s="7" t="s">
         <v>50</v>
       </c>
@@ -4664,12 +4637,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C194" s="7" t="s">
         <v>92</v>
       </c>
@@ -4682,12 +4655,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C196" s="7" t="s">
         <v>93</v>
       </c>
@@ -4700,12 +4673,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
@@ -4718,12 +4691,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
@@ -4736,13 +4709,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
@@ -4756,17 +4729,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B207" s="7" t="s">
         <v>142</v>
       </c>
@@ -4775,7 +4748,7 @@
       <c r="E207" s="7"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B208" s="7" t="s">
         <v>143</v>
       </c>
@@ -4784,7 +4757,7 @@
       <c r="E208" s="7"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
         <v>144</v>
       </c>
@@ -4793,54 +4766,54 @@
       <c r="E209" s="7"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B218" s="7" t="s">
         <v>145</v>
       </c>
@@ -4849,7 +4822,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B219" s="7" t="s">
         <v>97</v>
       </c>
@@ -4859,13 +4832,13 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B221" s="7" t="s">
         <v>146</v>
       </c>
@@ -4874,7 +4847,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B222" s="7" t="s">
         <v>97</v>
       </c>
@@ -4884,7 +4857,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B223" s="7" t="s">
         <v>144</v>
       </c>
@@ -4892,54 +4865,54 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B224" s="3"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
       <c r="G224" s="24"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="G225" s="24"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="G226" s="24"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
       <c r="G227" s="24"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
       <c r="G228" s="24"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
       <c r="G229" s="24"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B232" s="7" t="s">
         <v>147</v>
       </c>
@@ -4948,7 +4921,7 @@
       <c r="E232" s="7"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B233" s="7" t="s">
         <v>148</v>
       </c>
@@ -4957,7 +4930,7 @@
       <c r="E233" s="7"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B234" s="7" t="s">
         <v>149</v>
       </c>
@@ -4966,12 +4939,12 @@
       <c r="E234" s="7"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B237" s="7" t="s">
         <v>150</v>
       </c>
@@ -4980,7 +4953,7 @@
       <c r="E237" s="7"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B238" s="7" t="s">
         <v>151</v>
       </c>
@@ -5014,23 +4987,23 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -5041,7 +5014,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -5052,7 +5025,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>253</v>
       </c>
@@ -5063,7 +5036,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>283</v>
       </c>
@@ -5074,7 +5047,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
@@ -5085,7 +5058,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>281</v>
       </c>
@@ -5096,7 +5069,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
@@ -5107,7 +5080,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>278</v>
       </c>
@@ -5118,7 +5091,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -5140,1668 +5113,1663 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="79.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="90"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="52" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="55"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="71" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="55"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="53" t="s">
+      <c r="E10" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="55"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="53" t="s">
+      <c r="E11" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="55"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="59" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="55"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G12" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="72" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="55"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="59" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="55"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>398</v>
+      </c>
+      <c r="H15" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="55"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="55"/>
+      <c r="B18" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>403</v>
+      </c>
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="55"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="H19" s="55"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="55"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="55"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G21" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" s="55"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="55"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="55"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="55"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G24" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="55"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G25" s="90" t="s">
+        <v>412</v>
+      </c>
+      <c r="H25" s="55"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="55"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="55"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="55"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G28" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G29" s="90" t="s">
+        <v>418</v>
+      </c>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="55"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>401</v>
-      </c>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="59" t="s">
-        <v>402</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G17" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G21" s="47" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="55"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="55"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="55"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G33" s="90" t="s">
+        <v>422</v>
+      </c>
+      <c r="H33" s="55"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="55"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="55"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G35" s="90" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35" s="55"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="55"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G36" s="90" t="s">
+        <v>427</v>
+      </c>
+      <c r="H36" s="55"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="55"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G37" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="H37" s="55"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="55"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G38" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="H38" s="55"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="55"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G39" s="90" t="s">
+        <v>433</v>
+      </c>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="55"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="55"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="55"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="55"/>
+      <c r="B43" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="55"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="43"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="43"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="43"/>
+      <c r="B46" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F48" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G48" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="49"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="90"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="43"/>
+      <c r="B50" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G50" s="90" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="55"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="55"/>
+      <c r="B52" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" s="90"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="43"/>
+      <c r="C53" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="67"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F55" s="67"/>
+      <c r="G55" s="92"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="67"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G56" s="92"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="67"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="D57" s="43"/>
+      <c r="F57" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G57" s="92"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="100"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="43"/>
+      <c r="B68" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="55"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="43"/>
+      <c r="B70" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="43"/>
+      <c r="B79" s="71" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="55"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+    </row>
+    <row r="81" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="55"/>
+      <c r="B81" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="G81" s="90"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="43"/>
+      <c r="C82" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="65" t="s">
+        <v>477</v>
+      </c>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="43"/>
+      <c r="B86" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="65"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+    </row>
+    <row r="88" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="65"/>
+      <c r="B88" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="G88" s="90"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="43"/>
+      <c r="C89" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="100"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="43"/>
+      <c r="B92" s="71" t="s">
+        <v>483</v>
+      </c>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="65"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="43"/>
+      <c r="B94" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="43"/>
+      <c r="B96" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G96" s="90" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="43"/>
+      <c r="B97" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G97" s="90" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="B99" s="57"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="43"/>
+      <c r="B100" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B101" s="43"/>
+      <c r="C101" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="E102" s="43"/>
+      <c r="F102" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="E103" s="43"/>
+      <c r="F103" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="72" t="s">
+        <v>494</v>
+      </c>
+      <c r="E104" s="43"/>
+      <c r="F104" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="E105" s="43"/>
+      <c r="F105" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="E106" s="43"/>
+      <c r="F106" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="72" t="s">
+        <v>497</v>
+      </c>
+      <c r="E107" s="43"/>
+      <c r="F107" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="72" t="s">
+        <v>498</v>
+      </c>
+      <c r="E108" s="43"/>
+      <c r="F108" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="E109" s="43"/>
+      <c r="F109" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B110" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B111" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B112" s="43"/>
+      <c r="C112" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G23" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G24" s="85" t="s">
-        <v>411</v>
-      </c>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G26" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G27" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="75" t="s">
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="72" t="s">
+        <v>502</v>
+      </c>
+      <c r="E113" s="43"/>
+      <c r="F113" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B114" s="43"/>
+      <c r="C114" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="59" t="s">
-        <v>420</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G32" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="47"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="H33" s="59"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G34" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="47"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="53" t="s">
-        <v>425</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="H35" s="59"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="H36" s="59"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G37" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="H37" s="59"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>432</v>
-      </c>
-      <c r="H38" s="59"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="53" t="s">
-        <v>435</v>
-      </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G40" s="84" t="s">
-        <v>248</v>
-      </c>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="53" t="s">
-        <v>436</v>
-      </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>439</v>
-      </c>
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="77" t="s">
-        <v>440</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="47"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
-        <v>442</v>
-      </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="73" t="s">
-        <v>443</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="H47" s="47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F48" s="61"/>
-      <c r="G48" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="73" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="74"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="E53" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="E54" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="74"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="53" t="s">
-        <v>455</v>
-      </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F55" s="70"/>
-      <c r="G55" s="74"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G56" s="47"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="53" t="s">
-        <v>457</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G57" s="47"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G61" s="47"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="53" t="s">
-        <v>462</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="53" t="s">
-        <v>463</v>
-      </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="53" t="s">
-        <v>464</v>
-      </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G64" s="47"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="78" t="s">
-        <v>465</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="73" t="s">
-        <v>466</v>
-      </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="72" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="72" t="s">
-        <v>472</v>
-      </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="72" t="s">
-        <v>473</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="72" t="s">
-        <v>474</v>
-      </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="78" t="s">
-        <v>476</v>
-      </c>
-      <c r="C79" s="72" t="s">
-        <v>477</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="72" t="s">
-        <v>478</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="72" t="s">
-        <v>479</v>
-      </c>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="78" t="s">
-        <v>480</v>
-      </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="72"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="C85" s="72" t="s">
-        <v>482</v>
-      </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="72" t="s">
-        <v>483</v>
-      </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G86" s="47"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G87" s="47"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="78" t="s">
-        <v>484</v>
-      </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G88" s="47"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="78" t="s">
-        <v>485</v>
-      </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="72" t="s">
-        <v>486</v>
-      </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G91" s="47"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
-      <c r="B92" s="73" t="s">
-        <v>487</v>
-      </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G92" s="47" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
-      <c r="B93" s="73" t="s">
-        <v>489</v>
-      </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G93" s="47" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="63" t="s">
-        <v>491</v>
-      </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="59" t="s">
-        <v>492</v>
-      </c>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G96" s="47"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="47"/>
-      <c r="C97" s="59" t="s">
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="E115" s="43"/>
+      <c r="F115" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="43"/>
+      <c r="B117" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="B119" s="57"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="43"/>
+      <c r="B120" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G121" s="90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="72" t="s">
+        <v>509</v>
+      </c>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G122" s="90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="79" t="s">
-        <v>493</v>
-      </c>
-      <c r="E98" s="47"/>
-      <c r="F98" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="79" t="s">
-        <v>494</v>
-      </c>
-      <c r="E99" s="47"/>
-      <c r="F99" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="79" t="s">
-        <v>495</v>
-      </c>
-      <c r="E100" s="47"/>
-      <c r="F100" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="79" t="s">
-        <v>496</v>
-      </c>
-      <c r="E101" s="47"/>
-      <c r="F101" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="79" t="s">
-        <v>497</v>
-      </c>
-      <c r="E102" s="47"/>
-      <c r="F102" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="79" t="s">
-        <v>498</v>
-      </c>
-      <c r="E103" s="47"/>
-      <c r="F103" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="79" t="s">
-        <v>499</v>
-      </c>
-      <c r="E104" s="47"/>
-      <c r="F104" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="79" t="s">
-        <v>500</v>
-      </c>
-      <c r="E105" s="47"/>
-      <c r="F105" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="77" t="s">
-        <v>501</v>
-      </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="62"/>
-    </row>
-    <row r="107" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="59" t="s">
-        <v>502</v>
-      </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="47"/>
-      <c r="C108" s="80" t="s">
-        <v>408</v>
-      </c>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="79" t="s">
-        <v>503</v>
-      </c>
-      <c r="E109" s="47"/>
-      <c r="F109" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="47"/>
-      <c r="C110" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="59" t="s">
-        <v>504</v>
-      </c>
-      <c r="E111" s="47"/>
-      <c r="F111" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="98" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="77" t="s">
-        <v>506</v>
-      </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G113" s="47"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="63" t="s">
-        <v>507</v>
-      </c>
-      <c r="B115" s="63"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="79" t="s">
-        <v>509</v>
-      </c>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G117" s="85" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="79" t="s">
-        <v>510</v>
-      </c>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G118" s="47" t="s">
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="72" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="79" t="s">
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G124" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G120" s="59" t="s">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="72" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="79" t="s">
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="72" t="s">
         <v>514</v>
       </c>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="79" t="s">
+      <c r="E126" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F126" s="43"/>
+      <c r="G126" s="90" t="s">
         <v>515</v>
       </c>
-      <c r="E122" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47" t="s">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="72" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="79" t="s">
+      <c r="E127" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F127" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G127" s="90" t="s">
         <v>517</v>
       </c>
-      <c r="E123" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="47" t="s">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="72" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="79" t="s">
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G128" s="90" t="s">
         <v>519</v>
       </c>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G124" s="47" t="s">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="56" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="60" t="s">
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G129" s="90" t="s">
         <v>521</v>
       </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G125" s="47" t="s">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="43"/>
+      <c r="B130" s="70" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="77" t="s">
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G130" s="90" t="s">
         <v>523</v>
       </c>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G126" s="47" t="s">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="43"/>
+      <c r="B131" s="70" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="77" t="s">
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G131" s="90" t="s">
         <v>525</v>
       </c>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G127" s="47" t="s">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="43"/>
+      <c r="B132" s="72" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="79" t="s">
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G132" s="90" t="s">
         <v>527</v>
-      </c>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="98" t="s">
-        <v>539</v>
-      </c>
-      <c r="G128" s="47" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="OrphanNamesChecked" r:id="rId1"/>
+    <customPr name="OrphanNamesChecked" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -6814,102 +6782,102 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="107.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="85" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="86" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="86" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="87" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="86" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="87" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="87" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="86" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="86" t="s">
         <v>534</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="77"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="86" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="87"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="87" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="86" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
-        <v>538</v>
-      </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="77"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="87"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6921,23 +6889,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G99"/>
+  <dimension ref="A4:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="4.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="86.5703125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="25"/>
+    <col min="2" max="2" width="4.81640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="86.54296875" style="25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E4" s="26" t="s">
         <v>284</v>
       </c>
@@ -6948,857 +6916,1027 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="31" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="32" t="s">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D13" s="32" t="s">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D13" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D14" s="32" t="s">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D14" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="33" t="s">
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="33" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="33" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="33" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="31" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="36">
+      <c r="D26" s="30"/>
+      <c r="E26" s="34">
         <v>7000.1</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="34">
         <v>7000.1</v>
       </c>
       <c r="G26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="31" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="37">
+      <c r="D27" s="30"/>
+      <c r="E27" s="35">
         <v>7000.2</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="35">
         <v>7000.2</v>
       </c>
       <c r="G27" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="31" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="38">
+      <c r="D30" s="30"/>
+      <c r="E30" s="36">
         <v>7000.4</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="36">
         <v>7000.4</v>
       </c>
       <c r="G30" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="31" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="37">
+      <c r="D31" s="30"/>
+      <c r="E31" s="35">
         <v>7000.5</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="35">
         <v>7000.5</v>
       </c>
       <c r="G31" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="38">
+      <c r="D33" s="30"/>
+      <c r="E33" s="36">
         <v>7000.6</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="36">
         <v>7000.6</v>
       </c>
       <c r="G33" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="38">
+      <c r="D35" s="30"/>
+      <c r="E35" s="36">
         <v>7000.7</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="36">
         <v>7000.7</v>
       </c>
       <c r="G35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="31" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="39">
+      <c r="D38" s="30"/>
+      <c r="E38" s="37">
         <v>7000.8</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="36">
         <v>7000.8</v>
       </c>
       <c r="G38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="31" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="37">
+      <c r="D39" s="30"/>
+      <c r="E39" s="35">
         <v>7000.9</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="35">
         <v>7000.9</v>
       </c>
       <c r="G39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G41" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="31" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="31" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="31" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="37">
+      <c r="D45" s="30"/>
+      <c r="E45" s="35">
         <v>7400.2</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="35">
         <v>7400.2</v>
       </c>
       <c r="G45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="38">
+      <c r="D47" s="30"/>
+      <c r="E47" s="36">
         <v>7400.1</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="36">
         <v>7400.1</v>
       </c>
       <c r="G47" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="40" t="s">
+      <c r="D49" s="30"/>
+      <c r="E49" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="38" t="s">
         <v>342</v>
       </c>
       <c r="G49" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="41"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="87" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="39"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G50" s="77" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="40"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G51" s="77" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="42"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="87" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C52" s="40"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G52" s="77" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="42"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="87" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C53" s="40"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G53" s="77" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="42"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="87" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C54" s="40"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F54" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G54" s="77" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="42"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="87" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C55" s="40"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F55" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G55" s="77" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="42"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="87" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="87"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="43" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="77"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G57" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>347</v>
       </c>
       <c r="D60" s="27"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="E60" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G60" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="27"/>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>349</v>
       </c>
       <c r="D62" s="27"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
+      <c r="E62" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G62" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="27"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>351</v>
       </c>
       <c r="D64" s="27"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="E64" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G64" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>353</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C67" s="27" t="s">
         <v>354</v>
       </c>
       <c r="D67" s="27"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="E67" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F67" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G67" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C68" s="27" t="s">
         <v>356</v>
       </c>
       <c r="D68" s="27"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
+      <c r="E68" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F68" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G68" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C69" s="27" t="s">
         <v>358</v>
       </c>
       <c r="D69" s="27"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="E69" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F69" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G69" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>360</v>
       </c>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C72" s="27" t="s">
         <v>361</v>
       </c>
       <c r="D72" s="27"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
+      <c r="E72" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F72" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G72" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C73" s="27" t="s">
         <v>363</v>
       </c>
       <c r="D73" s="27"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
+      <c r="E73" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F73" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G73" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>365</v>
       </c>
       <c r="D75" s="27"/>
-      <c r="E75" s="38">
+      <c r="E75" s="36">
         <v>7420</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="36">
         <v>7420</v>
       </c>
       <c r="G75" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>367</v>
       </c>
       <c r="D77" s="27"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
+      <c r="E77" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F77" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G77" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="27"/>
       <c r="D78" s="27"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>369</v>
       </c>
       <c r="D79" s="27"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
+      <c r="E79" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F79" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G79" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="27"/>
       <c r="D80" s="27"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>371</v>
       </c>
       <c r="D81" s="27"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
+      <c r="E81" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F81" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G81" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B82" s="27"/>
       <c r="D82" s="27"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>373</v>
       </c>
       <c r="D83" s="27"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
+      <c r="E83" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F83" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G83" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="41"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="87" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C84" s="39"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F84" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G84" s="77" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C85" s="39"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F85" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G85" s="77" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="41"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="87" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C86" s="39"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F86" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G86" s="77" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="41"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="87" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C87" s="39"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F87" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G87" s="77" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="41"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="87" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C88" s="39"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F88" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="G88" s="77" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="41"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="87" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C89" s="39"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="F89" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="G89" s="77" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="41"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="87" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="41"/>
-      <c r="D90" s="31"/>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C90" s="39"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="45" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F92" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G92" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
         <v>377</v>
       </c>
       <c r="D94" s="27"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="E94" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F94" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G94" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>379</v>
       </c>
       <c r="D95" s="27"/>
-      <c r="E95" s="37">
+      <c r="E95" s="35">
         <v>7500</v>
       </c>
-      <c r="F95" s="37">
+      <c r="F95" s="35">
         <v>7500</v>
       </c>
       <c r="G95" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>381</v>
       </c>
       <c r="D96" s="27"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
+      <c r="E96" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F96" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G96" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
         <v>383</v>
       </c>
       <c r="D97" s="27"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
+      <c r="E97" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F97" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G97" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
         <v>385</v>
       </c>
       <c r="D98" s="27"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
+      <c r="E98" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="F98" s="88" t="s">
+        <v>538</v>
+      </c>
       <c r="G98" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7816,19 +7954,19 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -7847,15 +7985,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -7883,12 +8021,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -7922,7 +8060,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="597">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -1784,6 +1784,144 @@
   </si>
   <si>
     <t>exp_other_expense_6</t>
+  </si>
+  <si>
+    <t>unclassified1</t>
+  </si>
+  <si>
+    <t>unclassified2</t>
+  </si>
+  <si>
+    <t>unclassified3</t>
+  </si>
+  <si>
+    <t>unclassified4</t>
+  </si>
+  <si>
+    <t>unclassified5</t>
+  </si>
+  <si>
+    <t>unclassified6</t>
+  </si>
+  <si>
+    <t>unclassified7</t>
+  </si>
+  <si>
+    <t>unclassified8</t>
+  </si>
+  <si>
+    <t>unclassified9</t>
+  </si>
+  <si>
+    <t>unclassified10</t>
+  </si>
+  <si>
+    <t>unclassified11</t>
+  </si>
+  <si>
+    <t>unclassified12</t>
+  </si>
+  <si>
+    <t>unclassified13</t>
+  </si>
+  <si>
+    <t>unclassified14</t>
+  </si>
+  <si>
+    <t>unclassified15</t>
+  </si>
+  <si>
+    <t>unclassified16</t>
+  </si>
+  <si>
+    <t>unclassified17</t>
+  </si>
+  <si>
+    <t>unclassified18</t>
+  </si>
+  <si>
+    <t>unclassified19</t>
+  </si>
+  <si>
+    <t>unclassified20</t>
+  </si>
+  <si>
+    <t>unclassified21</t>
+  </si>
+  <si>
+    <t>unclassified22</t>
+  </si>
+  <si>
+    <t>unclassified23</t>
+  </si>
+  <si>
+    <t>unclassified24</t>
+  </si>
+  <si>
+    <t>unclassified25</t>
+  </si>
+  <si>
+    <t>unclassified26</t>
+  </si>
+  <si>
+    <t>unclassified27</t>
+  </si>
+  <si>
+    <t>unclassified28</t>
+  </si>
+  <si>
+    <t>unclassified29</t>
+  </si>
+  <si>
+    <t>unclassified30</t>
+  </si>
+  <si>
+    <t>unclassified32</t>
+  </si>
+  <si>
+    <t>unclassified33</t>
+  </si>
+  <si>
+    <t>unclassified34</t>
+  </si>
+  <si>
+    <t>unclassified35</t>
+  </si>
+  <si>
+    <t>unclassified36</t>
+  </si>
+  <si>
+    <t>unclassified37</t>
+  </si>
+  <si>
+    <t>unclassified38</t>
+  </si>
+  <si>
+    <t>unclassified39</t>
+  </si>
+  <si>
+    <t>unclassified40</t>
+  </si>
+  <si>
+    <t>unclassified41</t>
+  </si>
+  <si>
+    <t>unclassified42</t>
+  </si>
+  <si>
+    <t>unclassified43</t>
+  </si>
+  <si>
+    <t>unclassified44</t>
+  </si>
+  <si>
+    <t>unclassified45</t>
+  </si>
+  <si>
+    <t>unclassified46</t>
+  </si>
+  <si>
+    <t>unclassified31</t>
   </si>
 </sst>
 </file>
@@ -2456,6 +2594,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2477,8 +2617,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2774,17 +2912,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.140625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2793,49 +2931,49 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2846,7 +2984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>125</v>
       </c>
@@ -2855,14 +2993,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2874,13 +3012,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +3029,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +3041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
@@ -2915,7 +3053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +3065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +3077,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +3089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -2963,10 +3101,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -2977,20 +3115,20 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="99"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -2999,7 +3137,7 @@
       <c r="E23" s="15"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3145,7 @@
       <c r="E24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
@@ -3019,14 +3157,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3038,7 +3176,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
@@ -3050,7 +3188,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
@@ -3063,7 +3201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -3077,7 +3215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -3086,7 +3224,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -3099,7 +3237,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -3112,7 +3250,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -3121,7 +3259,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -3134,7 +3272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -3147,7 +3285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3156,7 +3294,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3164,7 +3302,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -3176,7 +3314,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -3188,7 +3326,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
@@ -3200,7 +3338,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -3213,7 +3351,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
@@ -3226,14 +3364,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
@@ -3242,7 +3380,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3388,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3262,7 +3400,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
@@ -3274,7 +3412,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
@@ -3287,7 +3425,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
@@ -3300,14 +3438,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -3316,7 +3454,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
@@ -3324,7 +3462,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
@@ -3336,7 +3474,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
@@ -3348,7 +3486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
@@ -3360,7 +3498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
@@ -3373,7 +3511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
@@ -3386,14 +3524,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
@@ -3407,14 +3545,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3561,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
@@ -3431,7 +3569,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
@@ -3443,7 +3581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
@@ -3455,7 +3593,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
@@ -3468,13 +3606,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
@@ -3488,13 +3626,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
         <v>138</v>
       </c>
@@ -3502,7 +3640,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D72" s="7" t="s">
         <v>38</v>
       </c>
@@ -3527,13 +3665,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
@@ -3541,7 +3679,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
@@ -3553,7 +3691,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D76" s="7" t="s">
         <v>41</v>
       </c>
@@ -3566,13 +3704,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="7" t="s">
         <v>42</v>
       </c>
@@ -3585,12 +3723,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="7" t="s">
         <v>43</v>
       </c>
@@ -3603,12 +3741,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="7" t="s">
         <v>44</v>
       </c>
@@ -3621,12 +3759,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C84" s="7" t="s">
         <v>45</v>
       </c>
@@ -3639,12 +3777,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C86" s="7" t="s">
         <v>46</v>
       </c>
@@ -3657,12 +3795,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
@@ -3675,20 +3813,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C91" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
@@ -3700,7 +3838,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3713,13 +3851,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C95" s="7" t="s">
         <v>51</v>
       </c>
@@ -3727,7 +3865,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
@@ -3739,7 +3877,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
@@ -3752,12 +3890,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
@@ -3770,12 +3908,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -3788,13 +3926,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="G102" s="19"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="7" t="s">
         <v>54</v>
       </c>
@@ -3807,13 +3945,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="G104" s="19"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
@@ -3826,12 +3964,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="7" t="s">
         <v>56</v>
       </c>
@@ -3844,12 +3982,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="7" t="s">
         <v>57</v>
       </c>
@@ -3862,12 +4000,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
@@ -3880,12 +4018,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
@@ -3898,7 +4036,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
         <v>128</v>
       </c>
@@ -3911,12 +4049,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
@@ -3924,14 +4062,14 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
@@ -3943,13 +4081,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
@@ -3960,7 +4098,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +4110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D124" s="7" t="s">
         <v>63</v>
       </c>
@@ -3984,7 +4122,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D125" s="7" t="s">
         <v>64</v>
       </c>
@@ -3996,7 +4134,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
@@ -4008,7 +4146,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D127" s="7" t="s">
         <v>66</v>
       </c>
@@ -4020,14 +4158,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D128" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
@@ -4038,7 +4176,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
@@ -4050,25 +4188,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
@@ -4079,7 +4217,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
@@ -4091,7 +4229,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D136" s="7" t="s">
         <v>71</v>
       </c>
@@ -4103,7 +4241,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D137" s="7" t="s">
         <v>29</v>
       </c>
@@ -4115,20 +4253,20 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D140" s="7" t="s">
         <v>69</v>
       </c>
@@ -4140,7 +4278,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D141" s="7" t="s">
         <v>73</v>
       </c>
@@ -4152,7 +4290,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D142" s="7" t="s">
         <v>29</v>
       </c>
@@ -4164,25 +4302,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +4331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
@@ -4205,7 +4343,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D148" s="7" t="s">
         <v>71</v>
       </c>
@@ -4217,7 +4355,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D149" s="7" t="s">
         <v>29</v>
       </c>
@@ -4229,12 +4367,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="7" t="s">
         <v>75</v>
       </c>
@@ -4247,12 +4385,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="7" t="s">
         <v>76</v>
       </c>
@@ -4265,12 +4403,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
@@ -4283,7 +4421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -4298,7 +4436,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D157" s="7" t="s">
         <v>137</v>
       </c>
@@ -4310,7 +4448,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
@@ -4323,19 +4461,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D161" s="7" t="s">
         <v>79</v>
       </c>
@@ -4347,7 +4485,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D162" s="7" t="s">
         <v>80</v>
       </c>
@@ -4359,7 +4497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D163" s="7" t="s">
         <v>81</v>
       </c>
@@ -4372,12 +4510,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="7" t="s">
         <v>139</v>
       </c>
@@ -4390,19 +4528,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D168" s="7" t="s">
         <v>79</v>
       </c>
@@ -4414,7 +4552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D169" s="7" t="s">
         <v>83</v>
       </c>
@@ -4426,7 +4564,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D170" s="7" t="s">
         <v>81</v>
       </c>
@@ -4439,19 +4577,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D173" s="7" t="s">
         <v>40</v>
       </c>
@@ -4463,7 +4601,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
@@ -4476,12 +4614,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="7" t="s">
         <v>85</v>
       </c>
@@ -4494,12 +4632,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C178" s="7" t="s">
         <v>86</v>
       </c>
@@ -4512,19 +4650,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C180" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D181" s="7" t="s">
         <v>88</v>
       </c>
@@ -4536,7 +4674,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D182" s="7" t="s">
         <v>89</v>
       </c>
@@ -4548,7 +4686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D183" s="7" t="s">
         <v>81</v>
       </c>
@@ -4561,12 +4699,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
@@ -4579,7 +4717,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="15" t="s">
         <v>129</v>
       </c>
@@ -4587,7 +4725,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C188" s="7" t="s">
         <v>140</v>
       </c>
@@ -4600,19 +4738,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D191" s="7" t="s">
         <v>49</v>
       </c>
@@ -4624,7 +4762,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D192" s="7" t="s">
         <v>50</v>
       </c>
@@ -4637,12 +4775,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C194" s="7" t="s">
         <v>92</v>
       </c>
@@ -4655,12 +4793,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C196" s="7" t="s">
         <v>93</v>
       </c>
@@ -4673,12 +4811,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
@@ -4691,12 +4829,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
@@ -4709,13 +4847,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
@@ -4729,17 +4867,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
         <v>142</v>
       </c>
@@ -4748,7 +4886,7 @@
       <c r="E207" s="7"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
         <v>143</v>
       </c>
@@ -4757,7 +4895,7 @@
       <c r="E208" s="7"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
         <v>144</v>
       </c>
@@ -4766,54 +4904,54 @@
       <c r="E209" s="7"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
         <v>145</v>
       </c>
@@ -4822,7 +4960,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>97</v>
       </c>
@@ -4832,13 +4970,13 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
         <v>146</v>
       </c>
@@ -4847,7 +4985,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
         <v>97</v>
       </c>
@@ -4857,7 +4995,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
         <v>144</v>
       </c>
@@ -4865,54 +5003,54 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
       <c r="G224" s="24"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="G225" s="24"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="G226" s="24"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
       <c r="G227" s="24"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
       <c r="G228" s="24"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
       <c r="G229" s="24"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B232" s="7" t="s">
         <v>147</v>
       </c>
@@ -4921,7 +5059,7 @@
       <c r="E232" s="7"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B233" s="7" t="s">
         <v>148</v>
       </c>
@@ -4930,7 +5068,7 @@
       <c r="E233" s="7"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B234" s="7" t="s">
         <v>149</v>
       </c>
@@ -4939,12 +5077,12 @@
       <c r="E234" s="7"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
         <v>150</v>
       </c>
@@ -4953,7 +5091,7 @@
       <c r="E237" s="7"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B238" s="7" t="s">
         <v>151</v>
       </c>
@@ -4987,23 +5125,23 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -5014,7 +5152,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -5025,7 +5163,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>253</v>
       </c>
@@ -5036,7 +5174,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>283</v>
       </c>
@@ -5047,7 +5185,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
@@ -5058,7 +5196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>281</v>
       </c>
@@ -5069,7 +5207,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
@@ -5080,7 +5218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>278</v>
       </c>
@@ -5091,7 +5229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -5115,17 +5253,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="79.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="90"/>
+    <col min="4" max="4" width="79.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="50" t="s">
         <v>387</v>
       </c>
@@ -5137,7 +5275,7 @@
       <c r="G1" s="76"/>
       <c r="H1" s="48"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>101</v>
       </c>
@@ -5151,7 +5289,7 @@
       <c r="G2" s="76"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>102</v>
       </c>
@@ -5165,7 +5303,7 @@
       <c r="G3" s="76"/>
       <c r="H3" s="48"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>103</v>
       </c>
@@ -5179,7 +5317,7 @@
       <c r="G4" s="76"/>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
         <v>104</v>
       </c>
@@ -5191,7 +5329,7 @@
       <c r="G5" s="76"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -5201,7 +5339,7 @@
       <c r="G6" s="76"/>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="43"/>
       <c r="C7" s="55"/>
@@ -5217,7 +5355,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>389</v>
       </c>
@@ -5228,7 +5366,7 @@
       <c r="F8" s="55"/>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="43"/>
       <c r="C9" s="64" t="s">
@@ -5239,7 +5377,7 @@
       <c r="F9" s="55"/>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="43"/>
       <c r="C10" s="55"/>
@@ -5255,7 +5393,7 @@
       </c>
       <c r="H10" s="43"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="43"/>
       <c r="C11" s="55"/>
@@ -5273,7 +5411,7 @@
       </c>
       <c r="H11" s="43"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="43"/>
       <c r="C12" s="55" t="s">
@@ -5289,7 +5427,7 @@
       </c>
       <c r="H12" s="43"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="43"/>
       <c r="C13" s="65" t="s">
@@ -5305,7 +5443,7 @@
       </c>
       <c r="H13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="43"/>
       <c r="C14" s="55" t="s">
@@ -5323,7 +5461,7 @@
       </c>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="43"/>
       <c r="C15" s="55"/>
@@ -5339,7 +5477,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="43"/>
       <c r="C16" s="65" t="s">
@@ -5355,7 +5493,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="43"/>
       <c r="C17" s="55" t="s">
@@ -5371,7 +5509,7 @@
       </c>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="66" t="s">
         <v>402</v>
@@ -5387,7 +5525,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="43"/>
       <c r="C19" s="55"/>
@@ -5396,7 +5534,7 @@
       <c r="F19" s="55"/>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
         <v>404</v>
       </c>
@@ -5408,7 +5546,7 @@
       <c r="G20" s="92"/>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="43"/>
       <c r="C21" s="55" t="s">
@@ -5424,7 +5562,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="43"/>
       <c r="C22" s="55" t="s">
@@ -5435,7 +5573,7 @@
       <c r="F22" s="55"/>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
       <c r="B23" s="43"/>
       <c r="C23" s="55"/>
@@ -5451,7 +5589,7 @@
       </c>
       <c r="H23" s="43"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="43"/>
       <c r="C24" s="55"/>
@@ -5467,7 +5605,7 @@
       </c>
       <c r="H24" s="43"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
       <c r="B25" s="43"/>
       <c r="C25" s="55"/>
@@ -5483,7 +5621,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
       <c r="B26" s="43"/>
       <c r="C26" s="55"/>
@@ -5499,7 +5637,7 @@
       </c>
       <c r="H26" s="43"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
       <c r="B27" s="43"/>
       <c r="C27" s="55"/>
@@ -5515,7 +5653,7 @@
       </c>
       <c r="H27" s="43"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
       <c r="B28" s="43"/>
       <c r="C28" s="55"/>
@@ -5531,7 +5669,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="43"/>
       <c r="C29" s="55"/>
@@ -5547,7 +5685,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="43"/>
       <c r="C30" s="68" t="s">
@@ -5558,7 +5696,7 @@
       <c r="F30" s="55"/>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="43"/>
       <c r="C31" s="55" t="s">
@@ -5569,7 +5707,7 @@
       <c r="F31" s="55"/>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
       <c r="B32" s="43"/>
       <c r="C32" s="55"/>
@@ -5585,7 +5723,7 @@
       </c>
       <c r="H32" s="43"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
       <c r="B33" s="43"/>
       <c r="C33" s="55"/>
@@ -5601,7 +5739,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="43"/>
       <c r="C34" s="55"/>
@@ -5617,7 +5755,7 @@
       </c>
       <c r="H34" s="43"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="43"/>
       <c r="C35" s="55"/>
@@ -5633,7 +5771,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="43"/>
       <c r="C36" s="55"/>
@@ -5649,7 +5787,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
       <c r="B37" s="43"/>
       <c r="C37" s="55"/>
@@ -5665,7 +5803,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" s="43"/>
       <c r="C38" s="55"/>
@@ -5681,7 +5819,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" s="43"/>
       <c r="C39" s="55"/>
@@ -5697,7 +5835,7 @@
       </c>
       <c r="H39" s="43"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="43"/>
       <c r="C40" s="55"/>
@@ -5713,7 +5851,7 @@
       </c>
       <c r="H40" s="43"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="43"/>
       <c r="C41" s="55"/>
@@ -5729,7 +5867,7 @@
       </c>
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" s="43"/>
       <c r="C42" s="69" t="s">
@@ -5745,7 +5883,7 @@
       </c>
       <c r="H42" s="43"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="70" t="s">
         <v>439</v>
@@ -5761,7 +5899,7 @@
       </c>
       <c r="H43" s="43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="43"/>
       <c r="C44" s="55"/>
@@ -5771,7 +5909,7 @@
       <c r="G44" s="91"/>
       <c r="H44" s="43"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>441</v>
       </c>
@@ -5783,7 +5921,7 @@
       <c r="G45" s="91"/>
       <c r="H45" s="43"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="66" t="s">
         <v>442</v>
@@ -5794,7 +5932,7 @@
       <c r="F46" s="43"/>
       <c r="H46" s="43"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="49" t="s">
@@ -5810,7 +5948,7 @@
       </c>
       <c r="H47" s="43"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="49" t="s">
@@ -5828,13 +5966,13 @@
       </c>
       <c r="H48" s="43"/>
     </row>
-    <row r="49" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="49"/>
       <c r="E49" s="89"/>
-      <c r="F49" s="101"/>
+      <c r="F49" s="94"/>
       <c r="G49" s="90"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="70" t="s">
         <v>447</v>
@@ -5849,7 +5987,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="55"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -5857,14 +5995,14 @@
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
     </row>
-    <row r="52" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
       <c r="B52" s="66" t="s">
         <v>449</v>
       </c>
       <c r="G52" s="90"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="C53" s="49" t="s">
         <v>450</v>
@@ -5873,7 +6011,7 @@
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -5884,8 +6022,11 @@
         <v>538</v>
       </c>
       <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="90" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
       <c r="B55" s="55"/>
       <c r="C55" s="67"/>
@@ -5896,9 +6037,11 @@
         <v>538</v>
       </c>
       <c r="F55" s="67"/>
-      <c r="G55" s="92"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G55" s="90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="67"/>
       <c r="B56" s="55"/>
       <c r="C56" s="67"/>
@@ -5911,9 +6054,11 @@
       <c r="F56" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="G56" s="92"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="90" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="67"/>
       <c r="B57" s="55"/>
       <c r="C57" s="49" t="s">
@@ -5923,9 +6068,11 @@
       <c r="F57" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="G57" s="92"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G57" s="90" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="49" t="s">
@@ -5936,8 +6083,11 @@
       <c r="F58" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="90" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="49" t="s">
@@ -5948,8 +6098,11 @@
       <c r="F59" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="90" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="49" t="s">
@@ -5960,8 +6113,11 @@
       <c r="F60" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G60" s="90" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="49" t="s">
@@ -5972,8 +6128,11 @@
       <c r="F61" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="90" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="49" t="s">
@@ -5984,8 +6143,11 @@
       <c r="F62" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="90" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="49" t="s">
@@ -5996,8 +6158,11 @@
       <c r="F63" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="90" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="49" t="s">
@@ -6008,8 +6173,11 @@
       <c r="F64" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" s="90" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="49" t="s">
@@ -6020,8 +6188,11 @@
       <c r="F65" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="90" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="49" t="s">
@@ -6032,16 +6203,19 @@
       <c r="F66" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" s="90" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
-      <c r="F67" s="100"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="93"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="71" t="s">
         <v>464</v>
@@ -6052,8 +6226,11 @@
       <c r="F68" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" s="90" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -6061,7 +6238,7 @@
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="66" t="s">
         <v>465</v>
@@ -6071,7 +6248,7 @@
       <c r="E70" s="43"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="65" t="s">
@@ -6082,8 +6259,11 @@
       <c r="F71" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" s="90" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="65" t="s">
@@ -6094,8 +6274,11 @@
       <c r="F72" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" s="90" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="65" t="s">
@@ -6106,8 +6289,11 @@
       <c r="F73" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" s="90" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="65" t="s">
@@ -6118,8 +6304,11 @@
       <c r="F74" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" s="90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="65" t="s">
@@ -6130,8 +6319,11 @@
       <c r="F75" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" s="90" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="65" t="s">
@@ -6142,8 +6334,11 @@
       <c r="F76" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76" s="90" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="65" t="s">
@@ -6154,8 +6349,11 @@
       <c r="F77" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77" s="90" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="65" t="s">
@@ -6166,8 +6364,11 @@
       <c r="F78" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78" s="90" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="71" t="s">
         <v>474</v>
@@ -6178,8 +6379,11 @@
       <c r="F79" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79" s="90" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -6187,14 +6391,14 @@
       <c r="E80" s="43"/>
       <c r="F80" s="43"/>
     </row>
-    <row r="81" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="71" t="s">
         <v>475</v>
       </c>
       <c r="G81" s="90"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="C82" s="65" t="s">
         <v>476</v>
@@ -6204,8 +6408,11 @@
       <c r="F82" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G82" s="90" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="65" t="s">
@@ -6216,8 +6423,11 @@
       <c r="F83" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G83" s="90" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="65" t="s">
@@ -6225,21 +6435,22 @@
       </c>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="88" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F84" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="G84" s="90" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
-      <c r="F85" s="88" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F85" s="93"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="71" t="s">
         <v>479</v>
@@ -6250,8 +6461,11 @@
       <c r="F86" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G86" s="90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="65"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -6259,14 +6473,14 @@
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
     </row>
-    <row r="88" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="65"/>
       <c r="B88" s="71" t="s">
         <v>480</v>
       </c>
       <c r="G88" s="90"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="C89" s="65" t="s">
         <v>481</v>
@@ -6276,8 +6490,11 @@
       <c r="F89" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G89" s="90" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="65" t="s">
@@ -6288,16 +6505,19 @@
       <c r="F90" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G90" s="90" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
-      <c r="F91" s="100"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F91" s="93"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="71" t="s">
         <v>483</v>
@@ -6308,8 +6528,11 @@
       <c r="F92" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G92" s="90" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="65"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -6317,7 +6540,7 @@
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="71" t="s">
         <v>484</v>
@@ -6327,7 +6550,7 @@
       <c r="E94" s="43"/>
       <c r="F94" s="43"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="65" t="s">
@@ -6338,8 +6561,11 @@
       <c r="F95" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G95" s="90" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="66" t="s">
         <v>486</v>
@@ -6354,7 +6580,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="66" t="s">
         <v>488</v>
@@ -6369,7 +6595,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
         <v>490</v>
       </c>
@@ -6379,7 +6605,7 @@
       <c r="E99" s="43"/>
       <c r="F99" s="43"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="55" t="s">
         <v>491</v>
@@ -6390,8 +6616,11 @@
       <c r="F100" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G100" s="90" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B101" s="43"/>
       <c r="C101" s="55" t="s">
         <v>115</v>
@@ -6400,7 +6629,7 @@
       <c r="E101" s="43"/>
       <c r="F101" s="43"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="72" t="s">
@@ -6410,8 +6639,11 @@
       <c r="F102" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G102" s="90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="72" t="s">
@@ -6421,8 +6653,11 @@
       <c r="F103" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G103" s="90" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="72" t="s">
@@ -6432,8 +6667,11 @@
       <c r="F104" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G104" s="90" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="72" t="s">
@@ -6443,8 +6681,11 @@
       <c r="F105" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G105" s="90" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="72" t="s">
@@ -6454,8 +6695,11 @@
       <c r="F106" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G106" s="90" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="72" t="s">
@@ -6465,8 +6709,11 @@
       <c r="F107" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G107" s="90" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="72" t="s">
@@ -6476,8 +6723,11 @@
       <c r="F108" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G108" s="90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="72" t="s">
@@ -6487,8 +6737,11 @@
       <c r="F109" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G109" s="90" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110" s="70" t="s">
         <v>500</v>
       </c>
@@ -6498,8 +6751,11 @@
       <c r="F110" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G110" s="90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B111" s="55" t="s">
         <v>501</v>
       </c>
@@ -6509,8 +6765,11 @@
       <c r="F111" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G111" s="90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B112" s="43"/>
       <c r="C112" s="73" t="s">
         <v>407</v>
@@ -6519,7 +6778,7 @@
       <c r="E112" s="43"/>
       <c r="F112" s="43"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="72" t="s">
@@ -6529,8 +6788,11 @@
       <c r="F113" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G113" s="90" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B114" s="43"/>
       <c r="C114" s="73" t="s">
         <v>115</v>
@@ -6539,7 +6801,7 @@
       <c r="E114" s="43"/>
       <c r="F114" s="43"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="55" t="s">
@@ -6549,8 +6811,11 @@
       <c r="F115" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G115" s="90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" s="70" t="s">
         <v>504</v>
       </c>
@@ -6560,8 +6825,11 @@
       <c r="F116" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G116" s="90" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="70" t="s">
         <v>505</v>
@@ -6572,8 +6840,11 @@
       <c r="F117" s="88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G117" s="90" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="57" t="s">
         <v>506</v>
       </c>
@@ -6583,7 +6854,7 @@
       <c r="E119" s="43"/>
       <c r="F119" s="43"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="55" t="s">
         <v>507</v>
@@ -6593,7 +6864,7 @@
       <c r="E120" s="43"/>
       <c r="F120" s="43"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="72" t="s">
@@ -6608,7 +6879,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="72" t="s">
@@ -6623,7 +6894,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="C123" s="55" t="s">
@@ -6633,7 +6904,7 @@
       <c r="E123" s="43"/>
       <c r="F123" s="43"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="72" t="s">
@@ -6648,7 +6919,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="72" t="s">
@@ -6658,7 +6929,7 @@
       <c r="E125" s="43"/>
       <c r="F125" s="43"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
@@ -6673,7 +6944,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
@@ -6690,7 +6961,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="72" t="s">
@@ -6705,7 +6976,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="56" t="s">
@@ -6720,7 +6991,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="70" t="s">
         <v>522</v>
@@ -6735,7 +7006,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="70" t="s">
         <v>524</v>
@@ -6750,7 +7021,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="72" t="s">
         <v>526</v>
@@ -6782,13 +7053,13 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>528</v>
       </c>
@@ -6799,7 +7070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86" t="s">
         <v>529</v>
       </c>
@@ -6810,7 +7081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86" t="s">
         <v>530</v>
       </c>
@@ -6821,7 +7092,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="86" t="s">
         <v>531</v>
       </c>
@@ -6832,7 +7103,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
         <v>533</v>
       </c>
@@ -6843,7 +7114,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
         <v>534</v>
       </c>
@@ -6852,7 +7123,7 @@
       <c r="D6" s="80"/>
       <c r="E6" s="77"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>535</v>
       </c>
@@ -6863,7 +7134,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86" t="s">
         <v>537</v>
       </c>
@@ -6872,7 +7143,7 @@
       <c r="D8" s="84"/>
       <c r="E8" s="77"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="87"/>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
@@ -6895,17 +7166,17 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="2" max="2" width="4.81640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="86.54296875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="4.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="86.5703125" style="25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E4" s="26" t="s">
         <v>284</v>
       </c>
@@ -6916,23 +7187,23 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="27" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="28" t="s">
         <v>290</v>
       </c>
@@ -6946,7 +7217,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="28" t="s">
         <v>292</v>
       </c>
@@ -6960,19 +7231,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="31" t="s">
         <v>290</v>
       </c>
@@ -6986,7 +7257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D13" s="31" t="s">
         <v>296</v>
       </c>
@@ -7000,7 +7271,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D14" s="31" t="s">
         <v>298</v>
       </c>
@@ -7014,19 +7285,19 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>300</v>
       </c>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="32" t="s">
         <v>301</v>
       </c>
@@ -7041,7 +7312,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>303</v>
       </c>
@@ -7056,7 +7327,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="32" t="s">
         <v>305</v>
       </c>
@@ -7071,7 +7342,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="32" t="s">
         <v>307</v>
       </c>
@@ -7086,7 +7357,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>309</v>
       </c>
@@ -7101,7 +7372,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
         <v>311</v>
@@ -7109,7 +7380,7 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>312</v>
       </c>
@@ -7124,13 +7395,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>314</v>
       </c>
@@ -7138,7 +7409,7 @@
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>315</v>
       </c>
@@ -7153,7 +7424,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
         <v>317</v>
       </c>
@@ -7168,13 +7439,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>319</v>
       </c>
@@ -7182,7 +7453,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="30" t="s">
         <v>320</v>
       </c>
@@ -7197,7 +7468,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" s="30" t="s">
         <v>322</v>
       </c>
@@ -7212,13 +7483,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
         <v>324</v>
       </c>
@@ -7233,13 +7504,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
         <v>326</v>
       </c>
@@ -7254,13 +7525,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="30" t="s">
         <v>328</v>
       </c>
@@ -7268,7 +7539,7 @@
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="30" t="s">
         <v>329</v>
       </c>
@@ -7283,7 +7554,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" s="30" t="s">
         <v>331</v>
       </c>
@@ -7298,13 +7569,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -7319,13 +7590,13 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="30" t="s">
         <v>335</v>
       </c>
@@ -7333,7 +7604,7 @@
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" s="30" t="s">
         <v>336</v>
       </c>
@@ -7348,7 +7619,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" s="30" t="s">
         <v>322</v>
       </c>
@@ -7363,13 +7634,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="30" t="s">
         <v>339</v>
       </c>
@@ -7384,13 +7655,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="30" t="s">
         <v>341</v>
       </c>
@@ -7405,7 +7676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" s="39"/>
       <c r="D50" s="30"/>
       <c r="E50" s="88" t="s">
@@ -7418,7 +7689,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" s="40"/>
       <c r="D51" s="30"/>
       <c r="E51" s="88" t="s">
@@ -7431,7 +7702,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C52" s="40"/>
       <c r="D52" s="30"/>
       <c r="E52" s="88" t="s">
@@ -7444,7 +7715,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C53" s="40"/>
       <c r="D53" s="30"/>
       <c r="E53" s="88" t="s">
@@ -7457,7 +7728,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" s="40"/>
       <c r="D54" s="30"/>
       <c r="E54" s="88" t="s">
@@ -7470,7 +7741,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" s="40"/>
       <c r="D55" s="30"/>
       <c r="E55" s="88" t="s">
@@ -7483,14 +7754,14 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>344</v>
       </c>
@@ -7505,12 +7776,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="27" t="s">
         <v>347</v>
       </c>
@@ -7525,11 +7796,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="27" t="s">
         <v>349</v>
       </c>
@@ -7544,11 +7815,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="27"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="27" t="s">
         <v>351</v>
       </c>
@@ -7563,17 +7834,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="27" t="s">
         <v>353</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C67" s="27" t="s">
         <v>354</v>
       </c>
@@ -7588,7 +7859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" s="27" t="s">
         <v>356</v>
       </c>
@@ -7603,7 +7874,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C69" s="27" t="s">
         <v>358</v>
       </c>
@@ -7618,17 +7889,17 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="27" t="s">
         <v>360</v>
       </c>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" s="27" t="s">
         <v>361</v>
       </c>
@@ -7643,7 +7914,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" s="27" t="s">
         <v>363</v>
       </c>
@@ -7658,11 +7929,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="27" t="s">
         <v>365</v>
       </c>
@@ -7677,11 +7948,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="27" t="s">
         <v>367</v>
       </c>
@@ -7696,11 +7967,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="27"/>
       <c r="D78" s="27"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="27" t="s">
         <v>369</v>
       </c>
@@ -7715,11 +7986,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="27"/>
       <c r="D80" s="27"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" s="27" t="s">
         <v>371</v>
       </c>
@@ -7734,11 +8005,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="27"/>
       <c r="D82" s="27"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="27" t="s">
         <v>373</v>
       </c>
@@ -7753,7 +8024,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" s="39"/>
       <c r="D84" s="30"/>
       <c r="E84" s="88" t="s">
@@ -7766,7 +8037,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C85" s="39"/>
       <c r="D85" s="30"/>
       <c r="E85" s="88" t="s">
@@ -7779,7 +8050,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C86" s="39"/>
       <c r="D86" s="30"/>
       <c r="E86" s="88" t="s">
@@ -7792,7 +8063,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C87" s="39"/>
       <c r="D87" s="30"/>
       <c r="E87" s="88" t="s">
@@ -7805,7 +8076,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C88" s="39"/>
       <c r="D88" s="30"/>
       <c r="E88" s="88" t="s">
@@ -7818,7 +8089,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" s="39"/>
       <c r="D89" s="30"/>
       <c r="E89" s="89" t="s">
@@ -7831,19 +8102,19 @@
         <v>550</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C90" s="39"/>
       <c r="D90" s="30"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
         <v>375</v>
       </c>
@@ -7858,11 +8129,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>377</v>
       </c>
@@ -7877,7 +8148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>379</v>
       </c>
@@ -7892,7 +8163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>381</v>
       </c>
@@ -7907,7 +8178,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>383</v>
       </c>
@@ -7922,7 +8193,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>385</v>
       </c>
@@ -7954,19 +8225,19 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -7985,15 +8256,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -8021,12 +8292,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -8060,7 +8331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -2908,21 +2908,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="7.26953125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="5.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.1796875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
         <v>101</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="97" t="s">
         <v>102</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="97" t="s">
         <v>103</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="99" t="s">
         <v>104</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>125</v>
       </c>
@@ -2993,14 +2993,14 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -3012,13 +3012,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>2</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>3</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -3101,10 +3101,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
@@ -3115,10 +3115,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="101" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="E22" s="8"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="E23" s="15"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="E24" s="7"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
@@ -3157,14 +3157,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>14</v>
@@ -3215,7 +3215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>15</v>
@@ -3224,7 +3224,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="E32" s="7" t="s">
         <v>23</v>
@@ -3237,7 +3237,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -3250,7 +3250,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -3259,7 +3259,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -3272,7 +3272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="E36" s="7" t="s">
         <v>12</v>
@@ -3285,7 +3285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E39" s="7" t="s">
         <v>23</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E41" s="7" t="s">
         <v>27</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
@@ -3364,14 +3364,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="7" t="s">
         <v>30</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E47" s="7" t="s">
         <v>23</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D49" s="7" t="s">
         <v>31</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D50" s="7" t="s">
         <v>29</v>
       </c>
@@ -3438,14 +3438,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="7" t="s">
         <v>25</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E54" s="7" t="s">
         <v>23</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E55" s="7" t="s">
         <v>26</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E56" s="7" t="s">
         <v>27</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D57" s="7" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
@@ -3524,14 +3524,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
@@ -3545,14 +3545,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="7" t="s">
         <v>34</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E65" s="7" t="s">
         <v>16</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D66" s="7" t="s">
         <v>35</v>
       </c>
@@ -3606,13 +3606,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C68" s="7" t="s">
         <v>36</v>
       </c>
@@ -3626,13 +3626,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C70" s="7" t="s">
         <v>138</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D71" s="7" t="s">
         <v>37</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D72" s="7" t="s">
         <v>38</v>
       </c>
@@ -3665,13 +3665,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="E74" s="7"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D75" s="7" t="s">
         <v>40</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D76" s="7" t="s">
         <v>41</v>
       </c>
@@ -3704,13 +3704,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C78" s="7" t="s">
         <v>42</v>
       </c>
@@ -3723,12 +3723,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C80" s="7" t="s">
         <v>43</v>
       </c>
@@ -3741,12 +3741,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="7" t="s">
         <v>44</v>
       </c>
@@ -3759,12 +3759,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C84" s="7" t="s">
         <v>45</v>
       </c>
@@ -3777,12 +3777,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C86" s="7" t="s">
         <v>46</v>
       </c>
@@ -3795,12 +3795,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C88" s="21" t="s">
         <v>47</v>
       </c>
@@ -3813,20 +3813,20 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C91" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D92" s="7" t="s">
         <v>49</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D93" s="7" t="s">
         <v>50</v>
       </c>
@@ -3851,13 +3851,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C95" s="7" t="s">
         <v>51</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D96" s="7" t="s">
         <v>40</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D97" s="7" t="s">
         <v>41</v>
       </c>
@@ -3890,12 +3890,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C99" s="7" t="s">
         <v>52</v>
       </c>
@@ -3908,12 +3908,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -3926,13 +3926,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="G102" s="19"/>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C103" s="7" t="s">
         <v>54</v>
       </c>
@@ -3945,13 +3945,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="G104" s="19"/>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C105" s="7" t="s">
         <v>55</v>
       </c>
@@ -3964,12 +3964,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C107" s="7" t="s">
         <v>56</v>
       </c>
@@ -3982,12 +3982,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C109" s="7" t="s">
         <v>57</v>
       </c>
@@ -4000,12 +4000,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C111" s="21" t="s">
         <v>58</v>
       </c>
@@ -4018,12 +4018,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B113" s="22" t="s">
         <v>59</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" s="20" t="s">
         <v>128</v>
       </c>
@@ -4049,12 +4049,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>61</v>
       </c>
@@ -4062,14 +4062,14 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C119" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
@@ -4081,13 +4081,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E123" s="7" t="s">
         <v>12</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D124" s="7" t="s">
         <v>63</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D125" s="7" t="s">
         <v>64</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D127" s="7" t="s">
         <v>66</v>
       </c>
@@ -4158,14 +4158,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D128" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E128" s="7"/>
       <c r="G128" s="23"/>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E129" s="7" t="s">
         <v>11</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E130" s="7" t="s">
         <v>12</v>
       </c>
@@ -4188,25 +4188,25 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C132" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D133" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E134" s="7" t="s">
         <v>70</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E135" s="7" t="s">
         <v>16</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D136" s="7" t="s">
         <v>71</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D137" s="7" t="s">
         <v>29</v>
       </c>
@@ -4253,20 +4253,20 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C139" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D140" s="7" t="s">
         <v>69</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D141" s="7" t="s">
         <v>73</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D142" s="7" t="s">
         <v>29</v>
       </c>
@@ -4302,25 +4302,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D145" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E146" s="7" t="s">
         <v>70</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E147" s="7" t="s">
         <v>16</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D148" s="7" t="s">
         <v>71</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D149" s="7" t="s">
         <v>29</v>
       </c>
@@ -4367,12 +4367,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C151" s="7" t="s">
         <v>75</v>
       </c>
@@ -4385,12 +4385,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C153" s="7" t="s">
         <v>76</v>
       </c>
@@ -4403,12 +4403,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="7" t="s">
         <v>77</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="7" t="s">
         <v>115</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D157" s="7" t="s">
         <v>137</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="7" t="s">
         <v>78</v>
       </c>
@@ -4461,19 +4461,19 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C160" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D161" s="7" t="s">
         <v>79</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D162" s="7" t="s">
         <v>80</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D163" s="7" t="s">
         <v>81</v>
       </c>
@@ -4510,12 +4510,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C165" s="7" t="s">
         <v>139</v>
       </c>
@@ -4528,19 +4528,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C167" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D168" s="7" t="s">
         <v>79</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D169" s="7" t="s">
         <v>83</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D170" s="7" t="s">
         <v>81</v>
       </c>
@@ -4577,19 +4577,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C172" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D173" s="7" t="s">
         <v>40</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D174" s="7" t="s">
         <v>41</v>
       </c>
@@ -4614,12 +4614,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C176" s="7" t="s">
         <v>85</v>
       </c>
@@ -4632,12 +4632,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C178" s="7" t="s">
         <v>86</v>
       </c>
@@ -4650,19 +4650,19 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C180" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D181" s="7" t="s">
         <v>88</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D182" s="7" t="s">
         <v>89</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D183" s="7" t="s">
         <v>81</v>
       </c>
@@ -4699,12 +4699,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C185" s="21" t="s">
         <v>90</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
         <v>129</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C188" s="7" t="s">
         <v>140</v>
       </c>
@@ -4738,19 +4738,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C190" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D191" s="7" t="s">
         <v>49</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D192" s="7" t="s">
         <v>50</v>
       </c>
@@ -4775,12 +4775,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C194" s="7" t="s">
         <v>92</v>
       </c>
@@ -4793,12 +4793,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C196" s="7" t="s">
         <v>93</v>
       </c>
@@ -4811,12 +4811,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C198" s="7" t="s">
         <v>94</v>
       </c>
@@ -4829,12 +4829,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C200" s="21" t="s">
         <v>95</v>
       </c>
@@ -4847,13 +4847,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B202" s="22" t="s">
         <v>124</v>
       </c>
@@ -4867,17 +4867,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B207" s="7" t="s">
         <v>142</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="E207" s="7"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B208" s="7" t="s">
         <v>143</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="E208" s="7"/>
       <c r="G208" s="24"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
         <v>144</v>
       </c>
@@ -4904,54 +4904,54 @@
       <c r="E209" s="7"/>
       <c r="G209" s="24"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B210" s="3"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="17"/>
       <c r="G210" s="24"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B211" s="24"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="17"/>
       <c r="G211" s="24"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B212" s="24"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="17"/>
       <c r="G212" s="24"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B213" s="24"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="17"/>
       <c r="G213" s="24"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B214" s="24"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="17"/>
       <c r="G214" s="24"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B215" s="24"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
       <c r="G215" s="24"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B218" s="7" t="s">
         <v>145</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="E218" s="7"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B219" s="7" t="s">
         <v>97</v>
       </c>
@@ -4970,13 +4970,13 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B221" s="7" t="s">
         <v>146</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="E221" s="7"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B222" s="7" t="s">
         <v>97</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B223" s="7" t="s">
         <v>144</v>
       </c>
@@ -5003,54 +5003,54 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B224" s="3"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="17"/>
       <c r="G224" s="24"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B225" s="24"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="17"/>
       <c r="G225" s="24"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B226" s="24"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="17"/>
       <c r="G226" s="24"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B227" s="24"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
       <c r="G227" s="24"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B228" s="24"/>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
       <c r="E228" s="17"/>
       <c r="G228" s="24"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B229" s="24"/>
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
       <c r="G229" s="24"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B232" s="7" t="s">
         <v>147</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="E232" s="7"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B233" s="7" t="s">
         <v>148</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="E233" s="7"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B234" s="7" t="s">
         <v>149</v>
       </c>
@@ -5077,12 +5077,12 @@
       <c r="E234" s="7"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B237" s="7" t="s">
         <v>150</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="E237" s="7"/>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B238" s="7" t="s">
         <v>151</v>
       </c>
@@ -5125,23 +5125,23 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>265</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>253</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>283</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>281</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>280</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>278</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -5253,17 +5253,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="M97" sqref="M97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="79.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="90"/>
+    <col min="4" max="4" width="79.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="50" t="s">
         <v>387</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="G1" s="76"/>
       <c r="H1" s="48"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>101</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="G2" s="76"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
         <v>102</v>
       </c>
@@ -5303,7 +5303,7 @@
       <c r="G3" s="76"/>
       <c r="H3" s="48"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
         <v>103</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="G4" s="76"/>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>104</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="G5" s="76"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -5339,7 +5339,7 @@
       <c r="G6" s="76"/>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="55"/>
       <c r="B7" s="43"/>
       <c r="C7" s="55"/>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>389</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="F8" s="55"/>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="55"/>
       <c r="B9" s="43"/>
       <c r="C9" s="64" t="s">
@@ -5377,7 +5377,7 @@
       <c r="F9" s="55"/>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
       <c r="B10" s="43"/>
       <c r="C10" s="55"/>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="H10" s="43"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
       <c r="B11" s="43"/>
       <c r="C11" s="55"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="H11" s="43"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
       <c r="B12" s="43"/>
       <c r="C12" s="55" t="s">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="H12" s="43"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="55"/>
       <c r="B13" s="43"/>
       <c r="C13" s="65" t="s">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="H13" s="43"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
       <c r="B14" s="43"/>
       <c r="C14" s="55" t="s">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
       <c r="B15" s="43"/>
       <c r="C15" s="55"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
       <c r="B16" s="43"/>
       <c r="C16" s="65" t="s">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="55"/>
       <c r="B17" s="43"/>
       <c r="C17" s="55" t="s">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="H17" s="43"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="55"/>
       <c r="B18" s="66" t="s">
         <v>402</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="55"/>
       <c r="B19" s="43"/>
       <c r="C19" s="55"/>
@@ -5534,7 +5534,7 @@
       <c r="F19" s="55"/>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="75" t="s">
         <v>404</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="G20" s="92"/>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="55"/>
       <c r="B21" s="43"/>
       <c r="C21" s="55" t="s">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="55"/>
       <c r="B22" s="43"/>
       <c r="C22" s="55" t="s">
@@ -5573,7 +5573,7 @@
       <c r="F22" s="55"/>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="55"/>
       <c r="B23" s="43"/>
       <c r="C23" s="55"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H23" s="43"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="55"/>
       <c r="B24" s="43"/>
       <c r="C24" s="55"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="H24" s="43"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="55"/>
       <c r="B25" s="43"/>
       <c r="C25" s="55"/>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="55"/>
       <c r="B26" s="43"/>
       <c r="C26" s="55"/>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="H26" s="43"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="55"/>
       <c r="B27" s="43"/>
       <c r="C27" s="55"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="H27" s="43"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="55"/>
       <c r="B28" s="43"/>
       <c r="C28" s="55"/>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="55"/>
       <c r="B29" s="43"/>
       <c r="C29" s="55"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="55"/>
       <c r="B30" s="43"/>
       <c r="C30" s="68" t="s">
@@ -5696,7 +5696,7 @@
       <c r="F30" s="55"/>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="55"/>
       <c r="B31" s="43"/>
       <c r="C31" s="55" t="s">
@@ -5707,7 +5707,7 @@
       <c r="F31" s="55"/>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="43"/>
       <c r="C32" s="55"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="H32" s="43"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="55"/>
       <c r="B33" s="43"/>
       <c r="C33" s="55"/>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="55"/>
       <c r="B34" s="43"/>
       <c r="C34" s="55"/>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H34" s="43"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="55"/>
       <c r="B35" s="43"/>
       <c r="C35" s="55"/>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="55"/>
       <c r="B36" s="43"/>
       <c r="C36" s="55"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="55"/>
       <c r="B37" s="43"/>
       <c r="C37" s="55"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="55"/>
       <c r="B38" s="43"/>
       <c r="C38" s="55"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="55"/>
       <c r="B39" s="43"/>
       <c r="C39" s="55"/>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="H39" s="43"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
       <c r="B40" s="43"/>
       <c r="C40" s="55"/>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="H40" s="43"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="55"/>
       <c r="B41" s="43"/>
       <c r="C41" s="55"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="55"/>
       <c r="B42" s="43"/>
       <c r="C42" s="69" t="s">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="H42" s="43"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="55"/>
       <c r="B43" s="70" t="s">
         <v>439</v>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="H43" s="43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="55"/>
       <c r="B44" s="43"/>
       <c r="C44" s="55"/>
@@ -5909,7 +5909,7 @@
       <c r="G44" s="91"/>
       <c r="H44" s="43"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="57" t="s">
         <v>441</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="G45" s="91"/>
       <c r="H45" s="43"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="43"/>
       <c r="B46" s="66" t="s">
         <v>442</v>
@@ -5932,7 +5932,7 @@
       <c r="F46" s="43"/>
       <c r="H46" s="43"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="49" t="s">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="H47" s="43"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="49" t="s">
@@ -5966,13 +5966,13 @@
       </c>
       <c r="H48" s="43"/>
     </row>
-    <row r="49" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="49"/>
       <c r="E49" s="89"/>
       <c r="F49" s="94"/>
       <c r="G49" s="90"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="43"/>
       <c r="B50" s="70" t="s">
         <v>447</v>
@@ -5987,7 +5987,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="55"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -5995,14 +5995,14 @@
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
     </row>
-    <row r="52" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55"/>
       <c r="B52" s="66" t="s">
         <v>449</v>
       </c>
       <c r="G52" s="90"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="43"/>
       <c r="C53" s="49" t="s">
         <v>450</v>
@@ -6011,7 +6011,7 @@
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -6026,7 +6026,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="67"/>
       <c r="B55" s="55"/>
       <c r="C55" s="67"/>
@@ -6041,7 +6041,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="67"/>
       <c r="B56" s="55"/>
       <c r="C56" s="67"/>
@@ -6058,7 +6058,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="67"/>
       <c r="B57" s="55"/>
       <c r="C57" s="49" t="s">
@@ -6072,7 +6072,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="49" t="s">
@@ -6087,7 +6087,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="49" t="s">
@@ -6102,7 +6102,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="49" t="s">
@@ -6117,7 +6117,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="49" t="s">
@@ -6132,7 +6132,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="49" t="s">
@@ -6147,7 +6147,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="49" t="s">
@@ -6162,7 +6162,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="49" t="s">
@@ -6177,7 +6177,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="49" t="s">
@@ -6192,7 +6192,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="49" t="s">
@@ -6207,7 +6207,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -6215,7 +6215,7 @@
       <c r="E67" s="43"/>
       <c r="F67" s="93"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="43"/>
       <c r="B68" s="71" t="s">
         <v>464</v>
@@ -6230,7 +6230,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="55"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -6238,7 +6238,7 @@
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="43"/>
       <c r="B70" s="66" t="s">
         <v>465</v>
@@ -6248,7 +6248,7 @@
       <c r="E70" s="43"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="65" t="s">
@@ -6263,7 +6263,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="65" t="s">
@@ -6278,7 +6278,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="65" t="s">
@@ -6293,7 +6293,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="65" t="s">
@@ -6308,7 +6308,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="65" t="s">
@@ -6323,7 +6323,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="65" t="s">
@@ -6338,7 +6338,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="65" t="s">
@@ -6353,7 +6353,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="65" t="s">
@@ -6368,7 +6368,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="43"/>
       <c r="B79" s="71" t="s">
         <v>474</v>
@@ -6383,7 +6383,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="55"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -6391,14 +6391,14 @@
       <c r="E80" s="43"/>
       <c r="F80" s="43"/>
     </row>
-    <row r="81" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="55"/>
       <c r="B81" s="71" t="s">
         <v>475</v>
       </c>
       <c r="G81" s="90"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="43"/>
       <c r="C82" s="65" t="s">
         <v>476</v>
@@ -6412,7 +6412,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="65" t="s">
@@ -6427,7 +6427,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="65" t="s">
@@ -6442,7 +6442,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -6450,7 +6450,7 @@
       <c r="E85" s="43"/>
       <c r="F85" s="93"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="43"/>
       <c r="B86" s="71" t="s">
         <v>479</v>
@@ -6465,7 +6465,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="65"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -6473,14 +6473,14 @@
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
     </row>
-    <row r="88" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="65"/>
       <c r="B88" s="71" t="s">
         <v>480</v>
       </c>
       <c r="G88" s="90"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="43"/>
       <c r="C89" s="65" t="s">
         <v>481</v>
@@ -6494,7 +6494,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="65" t="s">
@@ -6509,7 +6509,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -6517,7 +6517,7 @@
       <c r="E91" s="43"/>
       <c r="F91" s="93"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="43"/>
       <c r="B92" s="71" t="s">
         <v>483</v>
@@ -6532,7 +6532,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="65"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -6540,7 +6540,7 @@
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="43"/>
       <c r="B94" s="71" t="s">
         <v>484</v>
@@ -6550,7 +6550,7 @@
       <c r="E94" s="43"/>
       <c r="F94" s="43"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="65" t="s">
@@ -6565,7 +6565,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="66" t="s">
         <v>486</v>
@@ -6580,7 +6580,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="43"/>
       <c r="B97" s="66" t="s">
         <v>488</v>
@@ -6595,7 +6595,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="57" t="s">
         <v>490</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="E99" s="43"/>
       <c r="F99" s="43"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="43"/>
       <c r="B100" s="55" t="s">
         <v>491</v>
@@ -6620,7 +6620,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B101" s="43"/>
       <c r="C101" s="55" t="s">
         <v>115</v>
@@ -6629,7 +6629,7 @@
       <c r="E101" s="43"/>
       <c r="F101" s="43"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="72" t="s">
@@ -6643,7 +6643,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="72" t="s">
@@ -6657,7 +6657,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="72" t="s">
@@ -6671,7 +6671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="72" t="s">
@@ -6685,7 +6685,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="72" t="s">
@@ -6699,7 +6699,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="72" t="s">
@@ -6713,7 +6713,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="72" t="s">
@@ -6727,7 +6727,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="72" t="s">
@@ -6741,7 +6741,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B110" s="70" t="s">
         <v>500</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" s="55" t="s">
         <v>501</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B112" s="43"/>
       <c r="C112" s="73" t="s">
         <v>407</v>
@@ -6778,7 +6778,7 @@
       <c r="E112" s="43"/>
       <c r="F112" s="43"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="72" t="s">
@@ -6792,7 +6792,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B114" s="43"/>
       <c r="C114" s="73" t="s">
         <v>115</v>
@@ -6801,7 +6801,7 @@
       <c r="E114" s="43"/>
       <c r="F114" s="43"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="55" t="s">
@@ -6815,7 +6815,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B116" s="70" t="s">
         <v>504</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="43"/>
       <c r="B117" s="70" t="s">
         <v>505</v>
@@ -6844,7 +6844,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="57" t="s">
         <v>506</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="E119" s="43"/>
       <c r="F119" s="43"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="43"/>
       <c r="B120" s="55" t="s">
         <v>507</v>
@@ -6864,7 +6864,7 @@
       <c r="E120" s="43"/>
       <c r="F120" s="43"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="72" t="s">
@@ -6879,7 +6879,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="72" t="s">
@@ -6894,7 +6894,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="43"/>
       <c r="B123" s="43"/>
       <c r="C123" s="55" t="s">
@@ -6904,7 +6904,7 @@
       <c r="E123" s="43"/>
       <c r="F123" s="43"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="72" t="s">
@@ -6919,7 +6919,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="72" t="s">
@@ -6929,7 +6929,7 @@
       <c r="E125" s="43"/>
       <c r="F125" s="43"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="43"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
@@ -6944,7 +6944,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="43"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
@@ -6961,7 +6961,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="72" t="s">
@@ -6976,7 +6976,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="56" t="s">
@@ -6991,7 +6991,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="43"/>
       <c r="B130" s="70" t="s">
         <v>522</v>
@@ -7006,7 +7006,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="43"/>
       <c r="B131" s="70" t="s">
         <v>524</v>
@@ -7021,7 +7021,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="43"/>
       <c r="B132" s="72" t="s">
         <v>526</v>
@@ -7053,13 +7053,13 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="107.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="85" t="s">
         <v>528</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">
         <v>529</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="86" t="s">
         <v>530</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="86" t="s">
         <v>531</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="86" t="s">
         <v>533</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="86" t="s">
         <v>534</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="D6" s="80"/>
       <c r="E6" s="77"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="86" t="s">
         <v>535</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="86" t="s">
         <v>537</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="D8" s="84"/>
       <c r="E8" s="77"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="87"/>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
@@ -7163,20 +7163,20 @@
   <dimension ref="A4:G98"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="4.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="86.5703125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="25"/>
+    <col min="2" max="2" width="4.81640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="86.54296875" style="25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E4" s="26" t="s">
         <v>284</v>
       </c>
@@ -7187,23 +7187,23 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="28" t="s">
         <v>290</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" s="28" t="s">
         <v>292</v>
       </c>
@@ -7231,19 +7231,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="31" t="s">
         <v>290</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D13" s="31" t="s">
         <v>296</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D14" s="31" t="s">
         <v>298</v>
       </c>
@@ -7285,19 +7285,19 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
         <v>300</v>
       </c>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C17" s="32" t="s">
         <v>301</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C18" s="32" t="s">
         <v>303</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19" s="32" t="s">
         <v>305</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="32" t="s">
         <v>307</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="30" t="s">
         <v>309</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
         <v>311</v>
@@ -7380,7 +7380,7 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="30" t="s">
         <v>312</v>
       </c>
@@ -7395,13 +7395,13 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="30" t="s">
         <v>314</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C26" s="30" t="s">
         <v>315</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C27" s="30" t="s">
         <v>317</v>
       </c>
@@ -7439,13 +7439,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="30" t="s">
         <v>319</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="30" t="s">
         <v>320</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C31" s="30" t="s">
         <v>322</v>
       </c>
@@ -7483,13 +7483,13 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="30" t="s">
         <v>324</v>
       </c>
@@ -7504,13 +7504,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="30" t="s">
         <v>326</v>
       </c>
@@ -7525,13 +7525,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="30" t="s">
         <v>328</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C38" s="30" t="s">
         <v>329</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C39" s="30" t="s">
         <v>331</v>
       </c>
@@ -7569,13 +7569,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="30" t="s">
         <v>333</v>
       </c>
@@ -7590,13 +7590,13 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="30" t="s">
         <v>335</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C44" s="30" t="s">
         <v>336</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C45" s="30" t="s">
         <v>322</v>
       </c>
@@ -7634,13 +7634,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="30" t="s">
         <v>339</v>
       </c>
@@ -7655,13 +7655,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="29"/>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="30" t="s">
         <v>341</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C50" s="39"/>
       <c r="D50" s="30"/>
       <c r="E50" s="88" t="s">
@@ -7689,7 +7689,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C51" s="40"/>
       <c r="D51" s="30"/>
       <c r="E51" s="88" t="s">
@@ -7702,7 +7702,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C52" s="40"/>
       <c r="D52" s="30"/>
       <c r="E52" s="88" t="s">
@@ -7715,7 +7715,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C53" s="40"/>
       <c r="D53" s="30"/>
       <c r="E53" s="88" t="s">
@@ -7728,7 +7728,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C54" s="40"/>
       <c r="D54" s="30"/>
       <c r="E54" s="88" t="s">
@@ -7741,7 +7741,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C55" s="40"/>
       <c r="D55" s="30"/>
       <c r="E55" s="88" t="s">
@@ -7754,14 +7754,14 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="77"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="41" t="s">
         <v>344</v>
       </c>
@@ -7776,12 +7776,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
         <v>347</v>
       </c>
@@ -7796,11 +7796,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="27"/>
       <c r="D61" s="27"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
         <v>349</v>
       </c>
@@ -7815,11 +7815,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="27"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
         <v>351</v>
       </c>
@@ -7834,17 +7834,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
         <v>353</v>
       </c>
       <c r="D66" s="27"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C67" s="27" t="s">
         <v>354</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C68" s="27" t="s">
         <v>356</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C69" s="27" t="s">
         <v>358</v>
       </c>
@@ -7889,17 +7889,17 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
         <v>360</v>
       </c>
       <c r="D71" s="27"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C72" s="27" t="s">
         <v>361</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C73" s="27" t="s">
         <v>363</v>
       </c>
@@ -7929,11 +7929,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>365</v>
       </c>
@@ -7948,11 +7948,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
         <v>367</v>
       </c>
@@ -7967,11 +7967,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78" s="27"/>
       <c r="D78" s="27"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
         <v>369</v>
       </c>
@@ -7986,11 +7986,11 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80" s="27"/>
       <c r="D80" s="27"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
         <v>371</v>
       </c>
@@ -8005,11 +8005,11 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B82" s="27"/>
       <c r="D82" s="27"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
         <v>373</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C84" s="39"/>
       <c r="D84" s="30"/>
       <c r="E84" s="88" t="s">
@@ -8037,7 +8037,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C85" s="39"/>
       <c r="D85" s="30"/>
       <c r="E85" s="88" t="s">
@@ -8050,7 +8050,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C86" s="39"/>
       <c r="D86" s="30"/>
       <c r="E86" s="88" t="s">
@@ -8063,7 +8063,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C87" s="39"/>
       <c r="D87" s="30"/>
       <c r="E87" s="88" t="s">
@@ -8076,7 +8076,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C88" s="39"/>
       <c r="D88" s="30"/>
       <c r="E88" s="88" t="s">
@@ -8089,7 +8089,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C89" s="39"/>
       <c r="D89" s="30"/>
       <c r="E89" s="89" t="s">
@@ -8102,19 +8102,19 @@
         <v>550</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C90" s="39"/>
       <c r="D90" s="30"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="s">
         <v>375</v>
       </c>
@@ -8129,11 +8129,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
         <v>377</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>379</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>381</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
         <v>383</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
         <v>385</v>
       </c>
@@ -8225,19 +8225,19 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -8256,15 +8256,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -8292,12 +8292,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -8331,7 +8331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="629">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -1922,6 +1922,102 @@
   </si>
   <si>
     <t>unclassified31</t>
+  </si>
+  <si>
+    <t>= SUM(G10:G18)</t>
+  </si>
+  <si>
+    <t>= SUM(F12:F13)</t>
+  </si>
+  <si>
+    <t>= SUM(F27:F28)</t>
+  </si>
+  <si>
+    <t>= SUM(F32:F33)</t>
+  </si>
+  <si>
+    <t>= SUM(F35:F36)</t>
+  </si>
+  <si>
+    <t>= SUM(F39:F41)</t>
+  </si>
+  <si>
+    <t>= SUM(F47:F48)</t>
+  </si>
+  <si>
+    <t>= SUM(F54:F56)</t>
+  </si>
+  <si>
+    <t>= SUM(F64:F65)</t>
+  </si>
+  <si>
+    <t>=SUM(G25:G66)</t>
+  </si>
+  <si>
+    <t>= SUM(F71:F72)</t>
+  </si>
+  <si>
+    <t>= SUM(F75:F76)</t>
+  </si>
+  <si>
+    <t>= SUM(G68:G86)</t>
+  </si>
+  <si>
+    <t>= SUM(F92:F93)</t>
+  </si>
+  <si>
+    <t>= SUM(F96:F97)</t>
+  </si>
+  <si>
+    <t>= SUM(G92:G109)</t>
+  </si>
+  <si>
+    <t>= SUM(G88, G111)</t>
+  </si>
+  <si>
+    <t>= SUM(G20,G113)</t>
+  </si>
+  <si>
+    <t>= SUM(F122:F123)</t>
+  </si>
+  <si>
+    <t>= SUM(F129:F130)</t>
+  </si>
+  <si>
+    <t>= SUM(F134:F135)</t>
+  </si>
+  <si>
+    <t>= SUM(F146:F147)</t>
+  </si>
+  <si>
+    <t>= SUM(G120:G153)</t>
+  </si>
+  <si>
+    <t>= G155 - SUM(G156:G157)</t>
+  </si>
+  <si>
+    <t>= SUM(F161:F163)</t>
+  </si>
+  <si>
+    <t>= SUM(F168:F170)</t>
+  </si>
+  <si>
+    <t>= SUM(F173:F174)</t>
+  </si>
+  <si>
+    <t>= SUM(F181:F183)</t>
+  </si>
+  <si>
+    <t>= SUM(G158:G183)</t>
+  </si>
+  <si>
+    <t>= SUM(F191:F192)</t>
+  </si>
+  <si>
+    <t>= SUM(G188:G198)</t>
+  </si>
+  <si>
+    <t>= SUM(G185,G200)</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2452,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2596,6 +2692,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2908,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2932,10 +3034,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
@@ -2943,10 +3045,10 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
@@ -2954,10 +3056,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
@@ -2965,10 +3067,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3036,7 +3138,9 @@
       <c r="F13" s="16">
         <v>6900.1</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="95" t="s">
+        <v>598</v>
+      </c>
       <c r="H13" s="6" t="s">
         <v>155</v>
       </c>
@@ -3108,8 +3212,8 @@
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="16">
-        <v>999999999</v>
+      <c r="G20" s="95" t="s">
+        <v>597</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>252</v>
@@ -3119,10 +3223,10 @@
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="101"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3183,7 +3287,9 @@
       <c r="F28" s="16">
         <v>999999999</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="95" t="s">
+        <v>599</v>
+      </c>
       <c r="H28" s="6" t="s">
         <v>163</v>
       </c>
@@ -3245,7 +3351,9 @@
       <c r="F33" s="16">
         <v>999999999</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="95" t="s">
+        <v>600</v>
+      </c>
       <c r="H33" s="6" t="s">
         <v>167</v>
       </c>
@@ -3280,7 +3388,9 @@
       <c r="F36" s="16">
         <v>999999999</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="95" t="s">
+        <v>601</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>169</v>
       </c>
@@ -3333,7 +3443,9 @@
       <c r="F41" s="16">
         <v>999999999</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="95" t="s">
+        <v>602</v>
+      </c>
       <c r="H41" s="6" t="s">
         <v>172</v>
       </c>
@@ -3407,7 +3519,9 @@
       <c r="F48" s="16">
         <v>999999999</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="95" t="s">
+        <v>603</v>
+      </c>
       <c r="H48" s="6" t="s">
         <v>176</v>
       </c>
@@ -3493,7 +3607,9 @@
       <c r="F56" s="16">
         <v>999999999</v>
       </c>
-      <c r="G56" s="16"/>
+      <c r="G56" s="95" t="s">
+        <v>604</v>
+      </c>
       <c r="H56" s="6" t="s">
         <v>181</v>
       </c>
@@ -3588,7 +3704,9 @@
       <c r="F65" s="16">
         <v>999999999</v>
       </c>
-      <c r="G65" s="16"/>
+      <c r="G65" s="95" t="s">
+        <v>605</v>
+      </c>
       <c r="H65" s="6" t="s">
         <v>186</v>
       </c>
@@ -3619,8 +3737,8 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="16">
-        <v>999999999</v>
+      <c r="G68" s="95" t="s">
+        <v>606</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>253</v>
@@ -3660,7 +3778,9 @@
       <c r="F72" s="16">
         <v>999999999</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="95" t="s">
+        <v>607</v>
+      </c>
       <c r="H72" s="6" t="s">
         <v>189</v>
       </c>
@@ -3699,7 +3819,9 @@
       <c r="F76" s="16">
         <v>999999999</v>
       </c>
-      <c r="G76" s="3"/>
+      <c r="G76" s="95" t="s">
+        <v>608</v>
+      </c>
       <c r="H76" s="6" t="s">
         <v>191</v>
       </c>
@@ -3806,8 +3928,8 @@
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
-      <c r="G88" s="16">
-        <v>999999999</v>
+      <c r="G88" s="95" t="s">
+        <v>609</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>254</v>
@@ -3846,7 +3968,9 @@
       <c r="F93" s="16">
         <v>999999999</v>
       </c>
-      <c r="G93" s="3"/>
+      <c r="G93" s="95" t="s">
+        <v>610</v>
+      </c>
       <c r="H93" s="6" t="s">
         <v>247</v>
       </c>
@@ -3885,7 +4009,9 @@
       <c r="F97" s="16">
         <v>999999999</v>
       </c>
-      <c r="G97" s="3"/>
+      <c r="G97" s="95" t="s">
+        <v>611</v>
+      </c>
       <c r="H97" s="6" t="s">
         <v>198</v>
       </c>
@@ -4011,8 +4137,8 @@
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
-      <c r="G111" s="16">
-        <v>999999999</v>
+      <c r="G111" s="95" t="s">
+        <v>612</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>255</v>
@@ -4029,8 +4155,8 @@
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
-      <c r="G113" s="16">
-        <v>999999999</v>
+      <c r="G113" s="95" t="s">
+        <v>613</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>256</v>
@@ -4042,8 +4168,8 @@
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
-      <c r="G115" s="16">
-        <v>999999999</v>
+      <c r="G115" s="95" t="s">
+        <v>614</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>257</v>
@@ -4105,7 +4231,9 @@
       <c r="F123" s="16">
         <v>999999999</v>
       </c>
-      <c r="G123" s="3"/>
+      <c r="G123" s="95" t="s">
+        <v>615</v>
+      </c>
       <c r="H123" s="6" t="s">
         <v>207</v>
       </c>
@@ -4183,7 +4311,9 @@
       <c r="F130" s="16">
         <v>999999999</v>
       </c>
-      <c r="G130" s="3"/>
+      <c r="G130" s="95" t="s">
+        <v>616</v>
+      </c>
       <c r="H130" s="6" t="s">
         <v>213</v>
       </c>
@@ -4224,7 +4354,9 @@
       <c r="F135" s="16">
         <v>999999999</v>
       </c>
-      <c r="G135" s="3"/>
+      <c r="G135" s="95" t="s">
+        <v>617</v>
+      </c>
       <c r="H135" s="6" t="s">
         <v>215</v>
       </c>
@@ -4338,7 +4470,9 @@
       <c r="F147" s="16">
         <v>999999999</v>
       </c>
-      <c r="G147" s="3"/>
+      <c r="G147" s="95" t="s">
+        <v>618</v>
+      </c>
       <c r="H147" s="6" t="s">
         <v>222</v>
       </c>
@@ -4414,8 +4548,8 @@
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
-      <c r="G155" s="16">
-        <v>999999999</v>
+      <c r="G155" s="95" t="s">
+        <v>619</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>258</v>
@@ -4454,8 +4588,8 @@
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
-      <c r="G158" s="16">
-        <v>999999999</v>
+      <c r="G158" s="95" t="s">
+        <v>620</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>259</v>
@@ -4505,7 +4639,9 @@
       <c r="F163" s="16">
         <v>999999999</v>
       </c>
-      <c r="G163" s="3"/>
+      <c r="G163" s="95" t="s">
+        <v>621</v>
+      </c>
       <c r="H163" s="6" t="s">
         <v>230</v>
       </c>
@@ -4572,7 +4708,9 @@
       <c r="F170" s="16">
         <v>999999999</v>
       </c>
-      <c r="G170" s="3"/>
+      <c r="G170" s="95" t="s">
+        <v>622</v>
+      </c>
       <c r="H170" s="6" t="s">
         <v>235</v>
       </c>
@@ -4609,7 +4747,9 @@
       <c r="F174" s="16">
         <v>999999999</v>
       </c>
-      <c r="G174" s="3"/>
+      <c r="G174" s="95" t="s">
+        <v>623</v>
+      </c>
       <c r="H174" s="6" t="s">
         <v>237</v>
       </c>
@@ -4694,7 +4834,9 @@
       <c r="F183" s="16">
         <v>5200.2</v>
       </c>
-      <c r="G183" s="3"/>
+      <c r="G183" s="96" t="s">
+        <v>624</v>
+      </c>
       <c r="H183" s="6" t="s">
         <v>242</v>
       </c>
@@ -4710,8 +4852,8 @@
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
-      <c r="G185" s="16">
-        <v>999999999</v>
+      <c r="G185" s="95" t="s">
+        <v>625</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>260</v>
@@ -4770,7 +4912,9 @@
       <c r="F192" s="16">
         <v>999999999</v>
       </c>
-      <c r="G192" s="3"/>
+      <c r="G192" s="95" t="s">
+        <v>626</v>
+      </c>
       <c r="H192" s="6" t="s">
         <v>245</v>
       </c>
@@ -4840,8 +4984,8 @@
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
-      <c r="G200" s="16">
-        <v>999999999</v>
+      <c r="G200" s="95" t="s">
+        <v>627</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>261</v>
@@ -4860,8 +5004,8 @@
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
       <c r="E202" s="22"/>
-      <c r="G202" s="16">
-        <v>999999999</v>
+      <c r="G202" s="95" t="s">
+        <v>628</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>262</v>
@@ -5253,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="660">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -2018,6 +2018,99 @@
   </si>
   <si>
     <t>= SUM(G185,G200)</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;Taken from Form 1&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>= SUM(E10:E11)</t>
+  </si>
+  <si>
+    <t>= SUM(F11:F13) - SUM(F14:F15)</t>
+  </si>
+  <si>
+    <t>= SUM(F16:F17)</t>
+  </si>
+  <si>
+    <t>= SUM(F32:F41)</t>
+  </si>
+  <si>
+    <t>= SUM(F21:F29) - F42</t>
+  </si>
+  <si>
+    <t>= SUM(E47:E48)</t>
+  </si>
+  <si>
+    <t>= SUM(E54:E56)</t>
+  </si>
+  <si>
+    <t>= SUM(F56:F66)</t>
+  </si>
+  <si>
+    <t>= SUM(F71:F78)</t>
+  </si>
+  <si>
+    <t>= SUM(F82:F84)</t>
+  </si>
+  <si>
+    <t>= SUM(F89:F90)</t>
+  </si>
+  <si>
+    <t>= SUM(F50,F68,F79,F86,F92)</t>
+  </si>
+  <si>
+    <t>= F48</t>
+  </si>
+  <si>
+    <t>= F43/F96 * 100%</t>
+  </si>
+  <si>
+    <t>= F100 - SUM(F102:F109)</t>
+  </si>
+  <si>
+    <t>= SUM(F111:F113) - F115</t>
+  </si>
+  <si>
+    <t>= F110 / F116 * 100%</t>
+  </si>
+  <si>
+    <t>= F42</t>
+  </si>
+  <si>
+    <t>= SUM(E126:E127)</t>
+  </si>
+  <si>
+    <t>= SUM(F121:F122) - SUM(F124:F129)</t>
+  </si>
+  <si>
+    <t>= MIN(F43 * 100, 10000000)</t>
+  </si>
+  <si>
+    <t>= SUM(E8:E49)</t>
+  </si>
+  <si>
+    <t>= SUM(F8:F49)</t>
+  </si>
+  <si>
+    <t>= SUM(F60:F83)</t>
+  </si>
+  <si>
+    <t>= SUM(E60:E83)</t>
+  </si>
+  <si>
+    <t>= E57 - E92</t>
+  </si>
+  <si>
+    <t>= F57 - F92</t>
+  </si>
+  <si>
+    <t>= F94 - F95</t>
+  </si>
+  <si>
+    <t>= E94 - E95</t>
+  </si>
+  <si>
+    <t>= SUM(E96:E97)</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2545,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,6 +2812,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3010,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5397,13 +5491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="D108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="79.7265625" customWidth="1"/>
+    <col min="5" max="6" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="90"/>
   </cols>
   <sheetData>
@@ -5529,7 +5624,7 @@
         <v>391</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="91" t="s">
@@ -5545,10 +5640,10 @@
         <v>392</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="F11" s="88" t="s">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="G11" s="76" t="s">
         <v>155</v>
@@ -5564,7 +5659,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G12" s="76" t="s">
         <v>157</v>
@@ -5580,7 +5675,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G13" s="76" t="s">
         <v>158</v>
@@ -5630,7 +5725,7 @@
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="88" t="s">
-        <v>538</v>
+        <v>631</v>
       </c>
       <c r="G16" s="76" t="s">
         <v>400</v>
@@ -5646,7 +5741,7 @@
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>160</v>
@@ -5662,7 +5757,7 @@
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="88" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="G18" s="90" t="s">
         <v>403</v>
@@ -5699,7 +5794,7 @@
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="88" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="G21" s="90" t="s">
         <v>406</v>
@@ -5726,7 +5821,7 @@
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G23" s="76" t="s">
         <v>154</v>
@@ -5742,7 +5837,7 @@
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G24" s="90" t="s">
         <v>410</v>
@@ -5774,7 +5869,7 @@
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G26" s="76" t="s">
         <v>156</v>
@@ -5790,7 +5885,7 @@
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G27" s="76" t="s">
         <v>159</v>
@@ -5860,7 +5955,7 @@
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G32" s="76" t="s">
         <v>249</v>
@@ -5892,7 +5987,7 @@
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>241</v>
@@ -5924,7 +6019,7 @@
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G36" s="90" t="s">
         <v>427</v>
@@ -5972,7 +6067,7 @@
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G39" s="90" t="s">
         <v>433</v>
@@ -6020,7 +6115,7 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="88" t="s">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="G42" s="91" t="s">
         <v>438</v>
@@ -6036,7 +6131,7 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="88" t="s">
-        <v>538</v>
+        <v>634</v>
       </c>
       <c r="G43" s="91" t="s">
         <v>440</v>
@@ -6103,7 +6198,7 @@
         <v>538</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>538</v>
+        <v>635</v>
       </c>
       <c r="G48" s="90" t="s">
         <v>446</v>
@@ -6125,7 +6220,7 @@
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="88" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="G50" s="90" t="s">
         <v>448</v>
@@ -6196,7 +6291,7 @@
         <v>538</v>
       </c>
       <c r="F56" s="88" t="s">
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="G56" s="90" t="s">
         <v>553</v>
@@ -6368,7 +6463,7 @@
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="88" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="G68" s="90" t="s">
         <v>564</v>
@@ -6521,7 +6616,7 @@
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="88" t="s">
-        <v>538</v>
+        <v>638</v>
       </c>
       <c r="G79" s="90" t="s">
         <v>573</v>
@@ -6603,7 +6698,7 @@
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="88" t="s">
-        <v>538</v>
+        <v>639</v>
       </c>
       <c r="G86" s="90" t="s">
         <v>577</v>
@@ -6670,7 +6765,7 @@
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="88" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="G92" s="90" t="s">
         <v>580</v>
@@ -6718,7 +6813,7 @@
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="88" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="G96" s="90" t="s">
         <v>487</v>
@@ -6733,7 +6828,7 @@
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="88" t="s">
-        <v>538</v>
+        <v>643</v>
       </c>
       <c r="G97" s="90" t="s">
         <v>489</v>
@@ -6893,7 +6988,7 @@
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="88" t="s">
-        <v>538</v>
+        <v>644</v>
       </c>
       <c r="G110" s="90" t="s">
         <v>590</v>
@@ -6967,7 +7062,7 @@
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="88" t="s">
-        <v>538</v>
+        <v>645</v>
       </c>
       <c r="G116" s="90" t="s">
         <v>594</v>
@@ -6982,7 +7077,7 @@
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="88" t="s">
-        <v>538</v>
+        <v>646</v>
       </c>
       <c r="G117" s="90" t="s">
         <v>595</v>
@@ -7017,7 +7112,7 @@
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="88" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="G121" s="90" t="s">
         <v>262</v>
@@ -7057,7 +7152,7 @@
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="88" t="s">
-        <v>538</v>
+        <v>647</v>
       </c>
       <c r="G124" s="91" t="s">
         <v>512</v>
@@ -7099,7 +7194,7 @@
         <v>538</v>
       </c>
       <c r="F127" s="88" t="s">
-        <v>538</v>
+        <v>648</v>
       </c>
       <c r="G127" s="90" t="s">
         <v>517</v>
@@ -7144,7 +7239,7 @@
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="88" t="s">
-        <v>538</v>
+        <v>649</v>
       </c>
       <c r="G130" s="90" t="s">
         <v>523</v>
@@ -7174,7 +7269,7 @@
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="88" t="s">
-        <v>538</v>
+        <v>650</v>
       </c>
       <c r="G132" s="90" t="s">
         <v>527</v>
@@ -7306,8 +7401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G98"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="82" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7911,10 +8006,10 @@
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="88" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="F57" s="88" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="G57" t="s">
         <v>345</v>
@@ -8264,10 +8359,10 @@
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="88" t="s">
-        <v>538</v>
+        <v>654</v>
       </c>
       <c r="F92" s="88" t="s">
-        <v>538</v>
+        <v>653</v>
       </c>
       <c r="G92" t="s">
         <v>376</v>
@@ -8283,10 +8378,10 @@
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="88" t="s">
-        <v>538</v>
+        <v>655</v>
       </c>
       <c r="F94" s="88" t="s">
-        <v>538</v>
+        <v>656</v>
       </c>
       <c r="G94" t="s">
         <v>378</v>
@@ -8312,11 +8407,11 @@
         <v>381</v>
       </c>
       <c r="D96" s="27"/>
-      <c r="E96" s="88" t="s">
-        <v>538</v>
-      </c>
-      <c r="F96" s="88" t="s">
-        <v>538</v>
+      <c r="E96" s="104" t="s">
+        <v>658</v>
+      </c>
+      <c r="F96" s="104" t="s">
+        <v>657</v>
       </c>
       <c r="G96" t="s">
         <v>382</v>
@@ -8342,11 +8437,11 @@
         <v>385</v>
       </c>
       <c r="D98" s="27"/>
-      <c r="E98" s="88" t="s">
-        <v>538</v>
-      </c>
-      <c r="F98" s="88" t="s">
-        <v>538</v>
+      <c r="E98" s="104" t="s">
+        <v>659</v>
+      </c>
+      <c r="F98" s="104" t="s">
+        <v>611</v>
       </c>
       <c r="G98" t="s">
         <v>386</v>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="AR AP ageing template" sheetId="11" state="hidden" r:id="rId8"/>
     <sheet name="RPT template" sheetId="12" state="hidden" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Form 2 - TB mapping'!$F$1:$F$132</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2062,18 +2065,12 @@
     <t>= F48</t>
   </si>
   <si>
-    <t>= F43/F96 * 100%</t>
-  </si>
-  <si>
     <t>= F100 - SUM(F102:F109)</t>
   </si>
   <si>
     <t>= SUM(F111:F113) - F115</t>
   </si>
   <si>
-    <t>= F110 / F116 * 100%</t>
-  </si>
-  <si>
     <t>= F42</t>
   </si>
   <si>
@@ -2111,6 +2108,12 @@
   </si>
   <si>
     <t>= SUM(E96:E97)</t>
+  </si>
+  <si>
+    <t>= F43/F96 * 100</t>
+  </si>
+  <si>
+    <t>= F110 / F116 * 100</t>
   </si>
 </sst>
 </file>
@@ -2791,6 +2794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2812,7 +2816,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3128,10 +3131,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="11" t="s">
         <v>251</v>
       </c>
@@ -3139,10 +3142,10 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="100"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
@@ -3150,10 +3153,10 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="12" t="s">
         <v>111</v>
       </c>
@@ -3161,10 +3164,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3317,10 +3320,10 @@
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -5491,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="D108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6828,7 +6831,7 @@
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="88" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="G97" s="90" t="s">
         <v>489</v>
@@ -6988,7 +6991,7 @@
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="88" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G110" s="90" t="s">
         <v>590</v>
@@ -7062,7 +7065,7 @@
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G116" s="90" t="s">
         <v>594</v>
@@ -7077,7 +7080,7 @@
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="88" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="G117" s="90" t="s">
         <v>595</v>
@@ -7152,7 +7155,7 @@
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="88" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G124" s="91" t="s">
         <v>512</v>
@@ -7194,7 +7197,7 @@
         <v>538</v>
       </c>
       <c r="F127" s="88" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G127" s="90" t="s">
         <v>517</v>
@@ -7239,7 +7242,7 @@
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="88" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G130" s="90" t="s">
         <v>523</v>
@@ -7269,7 +7272,7 @@
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="88" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G132" s="90" t="s">
         <v>527</v>
@@ -7401,7 +7404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="82" workbookViewId="0">
       <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
@@ -8006,10 +8009,10 @@
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="88" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F57" s="88" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G57" t="s">
         <v>345</v>
@@ -8359,10 +8362,10 @@
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="88" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F92" s="88" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G92" t="s">
         <v>376</v>
@@ -8378,10 +8381,10 @@
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="88" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F94" s="88" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G94" t="s">
         <v>378</v>
@@ -8407,11 +8410,11 @@
         <v>381</v>
       </c>
       <c r="D96" s="27"/>
-      <c r="E96" s="104" t="s">
-        <v>658</v>
-      </c>
-      <c r="F96" s="104" t="s">
-        <v>657</v>
+      <c r="E96" s="97" t="s">
+        <v>656</v>
+      </c>
+      <c r="F96" s="97" t="s">
+        <v>655</v>
       </c>
       <c r="G96" t="s">
         <v>382</v>
@@ -8437,10 +8440,10 @@
         <v>385</v>
       </c>
       <c r="D98" s="27"/>
-      <c r="E98" s="104" t="s">
-        <v>659</v>
-      </c>
-      <c r="F98" s="104" t="s">
+      <c r="E98" s="97" t="s">
+        <v>657</v>
+      </c>
+      <c r="F98" s="97" t="s">
         <v>611</v>
       </c>
       <c r="G98" t="s">

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3712,8 +3712,8 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D57" s="7" t="s">
-        <v>31</v>
+      <c r="D57" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="19"/>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="16">
-        <v>999999999</v>
+        <v>5100.2</v>
       </c>
       <c r="G192" s="95" t="s">
         <v>626</v>
@@ -5494,7 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -1589,9 +1589,6 @@
     <t xml:space="preserve">Percentage of Aggregate Indebtedness to Aggregate Resources </t>
   </si>
   <si>
-    <t>(IV) ADJUSTED ASSETS</t>
-  </si>
-  <si>
     <t>(1) Adjusted Assets</t>
   </si>
   <si>
@@ -2114,6 +2111,9 @@
   </si>
   <si>
     <t>= F110 / F116 * 100</t>
+  </si>
+  <si>
+    <t>(V) ADJUSTED ASSETS</t>
   </si>
 </sst>
 </file>
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K202" sqref="K202"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3236,7 +3236,7 @@
         <v>6900.1</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>155</v>
@@ -3310,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>252</v>
@@ -3385,7 +3385,7 @@
         <v>999999999</v>
       </c>
       <c r="G28" s="95" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>163</v>
@@ -3449,7 +3449,7 @@
         <v>999999999</v>
       </c>
       <c r="G33" s="95" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>167</v>
@@ -3486,7 +3486,7 @@
         <v>999999999</v>
       </c>
       <c r="G36" s="95" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>169</v>
@@ -3541,7 +3541,7 @@
         <v>999999999</v>
       </c>
       <c r="G41" s="95" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>172</v>
@@ -3617,7 +3617,7 @@
         <v>999999999</v>
       </c>
       <c r="G48" s="95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>176</v>
@@ -3705,7 +3705,7 @@
         <v>999999999</v>
       </c>
       <c r="G56" s="95" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>181</v>
@@ -3802,7 +3802,7 @@
         <v>999999999</v>
       </c>
       <c r="G65" s="95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>186</v>
@@ -3835,7 +3835,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="19"/>
       <c r="G68" s="95" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>253</v>
@@ -3876,7 +3876,7 @@
         <v>999999999</v>
       </c>
       <c r="G72" s="95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>189</v>
@@ -3917,7 +3917,7 @@
         <v>999999999</v>
       </c>
       <c r="G76" s="95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>191</v>
@@ -4026,7 +4026,7 @@
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="G88" s="95" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>254</v>
@@ -4066,7 +4066,7 @@
         <v>999999999</v>
       </c>
       <c r="G93" s="95" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>247</v>
@@ -4107,7 +4107,7 @@
         <v>999999999</v>
       </c>
       <c r="G97" s="95" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>198</v>
@@ -4235,7 +4235,7 @@
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="G111" s="95" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>255</v>
@@ -4253,7 +4253,7 @@
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="G113" s="95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>256</v>
@@ -4266,7 +4266,7 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="G115" s="95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>257</v>
@@ -4329,7 +4329,7 @@
         <v>999999999</v>
       </c>
       <c r="G123" s="95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>207</v>
@@ -4409,7 +4409,7 @@
         <v>999999999</v>
       </c>
       <c r="G130" s="95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>213</v>
@@ -4452,7 +4452,7 @@
         <v>999999999</v>
       </c>
       <c r="G135" s="95" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>215</v>
@@ -4568,7 +4568,7 @@
         <v>999999999</v>
       </c>
       <c r="G147" s="95" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>222</v>
@@ -4646,7 +4646,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="G155" s="95" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>258</v>
@@ -4686,7 +4686,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="G158" s="95" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>259</v>
@@ -4737,7 +4737,7 @@
         <v>999999999</v>
       </c>
       <c r="G163" s="95" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>230</v>
@@ -4806,7 +4806,7 @@
         <v>999999999</v>
       </c>
       <c r="G170" s="95" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>235</v>
@@ -4845,7 +4845,7 @@
         <v>999999999</v>
       </c>
       <c r="G174" s="95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>237</v>
@@ -4932,7 +4932,7 @@
         <v>5200.2</v>
       </c>
       <c r="G183" s="96" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>242</v>
@@ -4950,7 +4950,7 @@
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
       <c r="G185" s="95" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>260</v>
@@ -5010,7 +5010,7 @@
         <v>5100.2</v>
       </c>
       <c r="G192" s="95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>245</v>
@@ -5082,7 +5082,7 @@
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="G200" s="95" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>261</v>
@@ -5102,7 +5102,7 @@
       <c r="D202" s="22"/>
       <c r="E202" s="22"/>
       <c r="G202" s="95" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>262</v>
@@ -5494,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5627,7 +5627,7 @@
         <v>391</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="91" t="s">
@@ -5643,10 +5643,10 @@
         <v>392</v>
       </c>
       <c r="E11" s="88" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" s="88" t="s">
         <v>629</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>630</v>
       </c>
       <c r="G11" s="76" t="s">
         <v>155</v>
@@ -5662,7 +5662,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G12" s="76" t="s">
         <v>157</v>
@@ -5678,7 +5678,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G13" s="76" t="s">
         <v>158</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G14" s="90" t="s">
         <v>396</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G15" s="90" t="s">
         <v>398</v>
@@ -5728,7 +5728,7 @@
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="88" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G16" s="76" t="s">
         <v>400</v>
@@ -5744,7 +5744,7 @@
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>160</v>
@@ -5760,7 +5760,7 @@
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="88" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G18" s="90" t="s">
         <v>403</v>
@@ -5797,7 +5797,7 @@
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="88" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G21" s="90" t="s">
         <v>406</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G23" s="76" t="s">
         <v>154</v>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G24" s="90" t="s">
         <v>410</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G25" s="90" t="s">
         <v>412</v>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G26" s="76" t="s">
         <v>156</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G27" s="76" t="s">
         <v>159</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G28" s="90" t="s">
         <v>416</v>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G29" s="90" t="s">
         <v>418</v>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G32" s="76" t="s">
         <v>249</v>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G33" s="90" t="s">
         <v>422</v>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>241</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G35" s="90" t="s">
         <v>425</v>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G36" s="90" t="s">
         <v>427</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="E37" s="55"/>
       <c r="F37" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G37" s="90" t="s">
         <v>429</v>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="E38" s="55"/>
       <c r="F38" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G38" s="90" t="s">
         <v>431</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G39" s="90" t="s">
         <v>433</v>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="E40" s="55"/>
       <c r="F40" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G40" s="76" t="s">
         <v>248</v>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="E41" s="55"/>
       <c r="F41" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G41" s="91" t="s">
         <v>436</v>
@@ -6118,7 +6118,7 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G42" s="91" t="s">
         <v>438</v>
@@ -6134,7 +6134,7 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="88" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G43" s="91" t="s">
         <v>440</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="90" t="s">
@@ -6198,10 +6198,10 @@
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G48" s="90" t="s">
         <v>446</v>
@@ -6223,7 +6223,7 @@
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="88" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G50" s="90" t="s">
         <v>448</v>
@@ -6261,11 +6261,11 @@
         <v>451</v>
       </c>
       <c r="E54" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -6276,11 +6276,11 @@
         <v>452</v>
       </c>
       <c r="E55" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F55" s="67"/>
       <c r="G55" s="90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -6291,13 +6291,13 @@
         <v>453</v>
       </c>
       <c r="E56" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F56" s="88" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G56" s="90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -6308,10 +6308,10 @@
       </c>
       <c r="D57" s="43"/>
       <c r="F57" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G57" s="90" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -6323,10 +6323,10 @@
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G58" s="90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -6338,10 +6338,10 @@
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G59" s="90" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -6353,10 +6353,10 @@
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G60" s="90" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -6368,10 +6368,10 @@
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G61" s="90" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -6383,10 +6383,10 @@
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G62" s="90" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -6398,10 +6398,10 @@
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G63" s="90" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -6413,10 +6413,10 @@
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G64" s="90" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -6428,10 +6428,10 @@
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G65" s="90" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -6443,10 +6443,10 @@
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G66" s="90" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -6466,10 +6466,10 @@
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="88" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G68" s="90" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -6499,10 +6499,10 @@
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G71" s="90" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -6514,10 +6514,10 @@
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G72" s="90" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -6529,10 +6529,10 @@
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G73" s="90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -6544,10 +6544,10 @@
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G74" s="90" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -6559,10 +6559,10 @@
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G75" s="90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -6574,10 +6574,10 @@
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G76" s="90" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -6589,10 +6589,10 @@
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G77" s="90" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -6604,10 +6604,10 @@
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G78" s="90" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -6619,10 +6619,10 @@
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G79" s="90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -6648,10 +6648,10 @@
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G82" s="90" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -6663,10 +6663,10 @@
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G83" s="90" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -6678,10 +6678,10 @@
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G84" s="90" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -6701,10 +6701,10 @@
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G86" s="90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -6730,10 +6730,10 @@
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G89" s="90" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -6745,10 +6745,10 @@
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G90" s="90" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -6768,10 +6768,10 @@
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="88" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G92" s="90" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -6801,10 +6801,10 @@
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G95" s="90" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -6816,7 +6816,7 @@
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="88" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G96" s="90" t="s">
         <v>487</v>
@@ -6831,7 +6831,7 @@
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="88" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G97" s="90" t="s">
         <v>489</v>
@@ -6856,10 +6856,10 @@
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G100" s="90" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -6879,10 +6879,10 @@
       </c>
       <c r="E102" s="43"/>
       <c r="F102" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G102" s="90" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -6893,10 +6893,10 @@
       </c>
       <c r="E103" s="43"/>
       <c r="F103" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G103" s="90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -6907,10 +6907,10 @@
       </c>
       <c r="E104" s="43"/>
       <c r="F104" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G104" s="90" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -6921,10 +6921,10 @@
       </c>
       <c r="E105" s="43"/>
       <c r="F105" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G105" s="90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -6935,10 +6935,10 @@
       </c>
       <c r="E106" s="43"/>
       <c r="F106" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G106" s="90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -6949,10 +6949,10 @@
       </c>
       <c r="E107" s="43"/>
       <c r="F107" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G107" s="90" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -6963,10 +6963,10 @@
       </c>
       <c r="E108" s="43"/>
       <c r="F108" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G108" s="90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -6977,10 +6977,10 @@
       </c>
       <c r="E109" s="43"/>
       <c r="F109" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G109" s="90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -6991,10 +6991,10 @@
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="88" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G110" s="90" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -7005,10 +7005,10 @@
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G111" s="90" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -7028,10 +7028,10 @@
       </c>
       <c r="E113" s="43"/>
       <c r="F113" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G113" s="90" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -7051,10 +7051,10 @@
       </c>
       <c r="E115" s="43"/>
       <c r="F115" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G115" s="90" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -7065,10 +7065,10 @@
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="88" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G116" s="90" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -7080,15 +7080,15 @@
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="88" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G117" s="90" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="57" t="s">
-        <v>506</v>
+        <v>659</v>
       </c>
       <c r="B119" s="57"/>
       <c r="C119" s="74"/>
@@ -7099,7 +7099,7 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="43"/>
       <c r="B120" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C120" s="43"/>
       <c r="D120" s="43"/>
@@ -7110,12 +7110,12 @@
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G121" s="90" t="s">
         <v>262</v>
@@ -7125,15 +7125,15 @@
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="72" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G122" s="90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -7150,22 +7150,22 @@
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="72" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G124" s="91" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
@@ -7176,14 +7176,14 @@
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E126" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F126" s="43"/>
       <c r="G126" s="90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -7191,91 +7191,91 @@
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="72" t="s">
+        <v>515</v>
+      </c>
+      <c r="E127" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="F127" s="88" t="s">
+        <v>645</v>
+      </c>
+      <c r="G127" s="90" t="s">
         <v>516</v>
-      </c>
-      <c r="E127" s="88" t="s">
-        <v>538</v>
-      </c>
-      <c r="F127" s="88" t="s">
-        <v>646</v>
-      </c>
-      <c r="G127" s="90" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G128" s="90" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G129" s="90" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="43"/>
       <c r="B130" s="70" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="88" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G130" s="90" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="43"/>
       <c r="B131" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G131" s="90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="43"/>
       <c r="B132" s="72" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C132" s="43"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="88" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G132" s="90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -7303,7 +7303,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="80"/>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="86" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -7336,18 +7336,18 @@
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="86" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
       <c r="E4" s="77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="86" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -7367,18 +7367,18 @@
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="86" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
       <c r="D7" s="82"/>
       <c r="E7" s="77" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="86" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -7404,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="82" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7450,10 +7450,10 @@
         <v>290</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G8" t="s">
         <v>291</v>
@@ -7464,10 +7464,10 @@
         <v>292</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G9" t="s">
         <v>293</v>
@@ -7490,10 +7490,10 @@
         <v>290</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G12" t="s">
         <v>295</v>
@@ -7504,10 +7504,10 @@
         <v>296</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G13" t="s">
         <v>297</v>
@@ -7518,10 +7518,10 @@
         <v>298</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G14" t="s">
         <v>299</v>
@@ -7545,10 +7545,10 @@
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G17" t="s">
         <v>302</v>
@@ -7560,10 +7560,10 @@
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G18" t="s">
         <v>304</v>
@@ -7575,10 +7575,10 @@
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G19" t="s">
         <v>306</v>
@@ -7590,10 +7590,10 @@
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G20" t="s">
         <v>308</v>
@@ -7605,10 +7605,10 @@
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G21" t="s">
         <v>310</v>
@@ -7628,10 +7628,10 @@
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G23" t="s">
         <v>313</v>
@@ -7823,10 +7823,10 @@
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F41" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G41" t="s">
         <v>334</v>
@@ -7852,10 +7852,10 @@
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G44" t="s">
         <v>337</v>
@@ -7922,78 +7922,78 @@
       <c r="C50" s="39"/>
       <c r="D50" s="30"/>
       <c r="E50" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="G50" s="77" t="s">
         <v>538</v>
-      </c>
-      <c r="F50" s="88" t="s">
-        <v>538</v>
-      </c>
-      <c r="G50" s="77" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C51" s="40"/>
       <c r="D51" s="30"/>
       <c r="E51" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F51" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C52" s="40"/>
       <c r="D52" s="30"/>
       <c r="E52" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F52" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C53" s="40"/>
       <c r="D53" s="30"/>
       <c r="E53" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F53" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G53" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C54" s="40"/>
       <c r="D54" s="30"/>
       <c r="E54" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F54" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G54" s="77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C55" s="40"/>
       <c r="D55" s="30"/>
       <c r="E55" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F55" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G55" s="77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -8009,10 +8009,10 @@
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="88" t="s">
+        <v>648</v>
+      </c>
+      <c r="F57" s="88" t="s">
         <v>649</v>
-      </c>
-      <c r="F57" s="88" t="s">
-        <v>650</v>
       </c>
       <c r="G57" t="s">
         <v>345</v>
@@ -8029,10 +8029,10 @@
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G60" t="s">
         <v>348</v>
@@ -8048,10 +8048,10 @@
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G62" t="s">
         <v>350</v>
@@ -8067,10 +8067,10 @@
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F64" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G64" t="s">
         <v>352</v>
@@ -8092,10 +8092,10 @@
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F67" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
         <v>355</v>
@@ -8107,10 +8107,10 @@
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F68" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
         <v>357</v>
@@ -8122,10 +8122,10 @@
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F69" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G69" t="s">
         <v>359</v>
@@ -8147,10 +8147,10 @@
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F72" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G72" t="s">
         <v>362</v>
@@ -8162,10 +8162,10 @@
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F73" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G73" t="s">
         <v>364</v>
@@ -8200,10 +8200,10 @@
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F77" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G77" t="s">
         <v>368</v>
@@ -8219,10 +8219,10 @@
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F79" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G79" t="s">
         <v>370</v>
@@ -8238,10 +8238,10 @@
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F81" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G81" t="s">
         <v>372</v>
@@ -8257,10 +8257,10 @@
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F83" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G83" t="s">
         <v>374</v>
@@ -8270,78 +8270,78 @@
       <c r="C84" s="39"/>
       <c r="D84" s="30"/>
       <c r="E84" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F84" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G84" s="77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C85" s="39"/>
       <c r="D85" s="30"/>
       <c r="E85" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F85" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G85" s="77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C86" s="39"/>
       <c r="D86" s="30"/>
       <c r="E86" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F86" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G86" s="77" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C87" s="39"/>
       <c r="D87" s="30"/>
       <c r="E87" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F87" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G87" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C88" s="39"/>
       <c r="D88" s="30"/>
       <c r="E88" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F88" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G88" s="77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C89" s="39"/>
       <c r="D89" s="30"/>
       <c r="E89" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G89" s="77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -8362,10 +8362,10 @@
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F92" s="88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G92" t="s">
         <v>376</v>
@@ -8381,10 +8381,10 @@
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="88" t="s">
+        <v>652</v>
+      </c>
+      <c r="F94" s="88" t="s">
         <v>653</v>
-      </c>
-      <c r="F94" s="88" t="s">
-        <v>654</v>
       </c>
       <c r="G94" t="s">
         <v>378</v>
@@ -8411,10 +8411,10 @@
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="97" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F96" s="97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G96" t="s">
         <v>382</v>
@@ -8426,10 +8426,10 @@
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F97" s="88" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G97" t="s">
         <v>384</v>
@@ -8441,10 +8441,10 @@
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="97" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F98" s="97" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G98" t="s">
         <v>386</v>

--- a/parameters/mas_forms_tb_mapping.xlsx
+++ b/parameters/mas_forms_tb_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form 1 - TB mapping" sheetId="17" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="659">
   <si>
     <t>Form 1 - Statement of assets and liabilities</t>
   </si>
@@ -927,9 +927,6 @@
     <t>Current year
 &lt;&lt;&lt;current_fy&gt;&gt;&gt;
 $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var_name </t>
   </si>
   <si>
     <t>(1) Revenue -</t>
@@ -3236,7 +3233,7 @@
         <v>6900.1</v>
       </c>
       <c r="G13" s="95" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>155</v>
@@ -3310,7 +3307,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>252</v>
@@ -3385,7 +3382,7 @@
         <v>999999999</v>
       </c>
       <c r="G28" s="95" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>163</v>
@@ -3449,7 +3446,7 @@
         <v>999999999</v>
       </c>
       <c r="G33" s="95" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>167</v>
@@ -3486,7 +3483,7 @@
         <v>999999999</v>
       </c>
       <c r="G36" s="95" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>169</v>
@@ -3541,7 +3538,7 @@
         <v>999999999</v>
       </c>
       <c r="G41" s="95" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>172</v>
@@ -3617,7 +3614,7 @@
         <v>999999999</v>
       </c>
       <c r="G48" s="95" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>176</v>
@@ -3705,7 +3702,7 @@
         <v>999999999</v>
       </c>
       <c r="G56" s="95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>181</v>
@@ -3802,7 +3799,7 @@
         <v>999999999</v>
       </c>
       <c r="G65" s="95" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>186</v>
@@ -3835,7 +3832,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="19"/>
       <c r="G68" s="95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>253</v>
@@ -3876,7 +3873,7 @@
         <v>999999999</v>
       </c>
       <c r="G72" s="95" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>189</v>
@@ -3917,7 +3914,7 @@
         <v>999999999</v>
       </c>
       <c r="G76" s="95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>191</v>
@@ -4026,7 +4023,7 @@
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="G88" s="95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>254</v>
@@ -4066,7 +4063,7 @@
         <v>999999999</v>
       </c>
       <c r="G93" s="95" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>247</v>
@@ -4107,7 +4104,7 @@
         <v>999999999</v>
       </c>
       <c r="G97" s="95" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>198</v>
@@ -4235,7 +4232,7 @@
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="G111" s="95" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>255</v>
@@ -4253,7 +4250,7 @@
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="G113" s="95" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>256</v>
@@ -4266,7 +4263,7 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="G115" s="95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>257</v>
@@ -4329,7 +4326,7 @@
         <v>999999999</v>
       </c>
       <c r="G123" s="95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>207</v>
@@ -4409,7 +4406,7 @@
         <v>999999999</v>
       </c>
       <c r="G130" s="95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>213</v>
@@ -4452,7 +4449,7 @@
         <v>999999999</v>
       </c>
       <c r="G135" s="95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>215</v>
@@ -4568,7 +4565,7 @@
         <v>999999999</v>
       </c>
       <c r="G147" s="95" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>222</v>
@@ -4646,7 +4643,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="G155" s="95" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>258</v>
@@ -4686,7 +4683,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="G158" s="95" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>259</v>
@@ -4737,7 +4734,7 @@
         <v>999999999</v>
       </c>
       <c r="G163" s="95" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>230</v>
@@ -4806,7 +4803,7 @@
         <v>999999999</v>
       </c>
       <c r="G170" s="95" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>235</v>
@@ -4845,7 +4842,7 @@
         <v>999999999</v>
       </c>
       <c r="G174" s="95" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>237</v>
@@ -4932,7 +4929,7 @@
         <v>5200.2</v>
       </c>
       <c r="G183" s="96" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>242</v>
@@ -4950,7 +4947,7 @@
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
       <c r="G185" s="95" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>260</v>
@@ -5010,7 +5007,7 @@
         <v>5100.2</v>
       </c>
       <c r="G192" s="95" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>245</v>
@@ -5082,7 +5079,7 @@
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="G200" s="95" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>261</v>
@@ -5102,7 +5099,7 @@
       <c r="D202" s="22"/>
       <c r="E202" s="22"/>
       <c r="G202" s="95" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H202" s="6" t="s">
         <v>262</v>
@@ -5494,7 +5491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -5507,7 +5504,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="44"/>
@@ -5523,7 +5520,7 @@
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -5599,7 +5596,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="55"/>
@@ -5612,7 +5609,7 @@
       <c r="A9" s="55"/>
       <c r="B9" s="43"/>
       <c r="C9" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -5624,10 +5621,10 @@
       <c r="B10" s="43"/>
       <c r="C10" s="55"/>
       <c r="D10" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="91" t="s">
@@ -5640,13 +5637,13 @@
       <c r="B11" s="43"/>
       <c r="C11" s="55"/>
       <c r="D11" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" s="88" t="s">
+        <v>627</v>
+      </c>
+      <c r="F11" s="88" t="s">
         <v>628</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>629</v>
       </c>
       <c r="G11" s="76" t="s">
         <v>155</v>
@@ -5657,12 +5654,12 @@
       <c r="A12" s="55"/>
       <c r="B12" s="43"/>
       <c r="C12" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G12" s="76" t="s">
         <v>157</v>
@@ -5673,12 +5670,12 @@
       <c r="A13" s="55"/>
       <c r="B13" s="43"/>
       <c r="C13" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G13" s="76" t="s">
         <v>158</v>
@@ -5692,14 +5689,14 @@
         <v>115</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H14" s="48"/>
     </row>
@@ -5708,14 +5705,14 @@
       <c r="B15" s="43"/>
       <c r="C15" s="55"/>
       <c r="D15" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G15" s="90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H15" s="55"/>
     </row>
@@ -5723,15 +5720,15 @@
       <c r="A16" s="55"/>
       <c r="B16" s="43"/>
       <c r="C16" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="88" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H16" s="55"/>
     </row>
@@ -5739,12 +5736,12 @@
       <c r="A17" s="55"/>
       <c r="B17" s="43"/>
       <c r="C17" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G17" s="76" t="s">
         <v>160</v>
@@ -5754,16 +5751,16 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="55"/>
       <c r="B18" s="66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="88" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G18" s="90" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H18" s="55"/>
     </row>
@@ -5778,7 +5775,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="57"/>
@@ -5792,15 +5789,15 @@
       <c r="A21" s="55"/>
       <c r="B21" s="43"/>
       <c r="C21" s="55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="88" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G21" s="90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H21" s="55"/>
     </row>
@@ -5808,7 +5805,7 @@
       <c r="A22" s="55"/>
       <c r="B22" s="43"/>
       <c r="C22" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -5820,11 +5817,11 @@
       <c r="B23" s="43"/>
       <c r="C23" s="55"/>
       <c r="D23" s="49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="55"/>
       <c r="F23" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G23" s="76" t="s">
         <v>154</v>
@@ -5836,14 +5833,14 @@
       <c r="B24" s="43"/>
       <c r="C24" s="55"/>
       <c r="D24" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G24" s="90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H24" s="43"/>
     </row>
@@ -5852,14 +5849,14 @@
       <c r="B25" s="43"/>
       <c r="C25" s="55"/>
       <c r="D25" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G25" s="90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H25" s="55"/>
     </row>
@@ -5868,11 +5865,11 @@
       <c r="B26" s="43"/>
       <c r="C26" s="55"/>
       <c r="D26" s="49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G26" s="76" t="s">
         <v>156</v>
@@ -5884,11 +5881,11 @@
       <c r="B27" s="43"/>
       <c r="C27" s="55"/>
       <c r="D27" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G27" s="76" t="s">
         <v>159</v>
@@ -5900,14 +5897,14 @@
       <c r="B28" s="43"/>
       <c r="C28" s="55"/>
       <c r="D28" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G28" s="90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H28" s="55"/>
     </row>
@@ -5916,14 +5913,14 @@
       <c r="B29" s="43"/>
       <c r="C29" s="55"/>
       <c r="D29" s="49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G29" s="90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H29" s="55"/>
     </row>
@@ -5942,7 +5939,7 @@
       <c r="A31" s="55"/>
       <c r="B31" s="43"/>
       <c r="C31" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -5954,11 +5951,11 @@
       <c r="B32" s="43"/>
       <c r="C32" s="55"/>
       <c r="D32" s="49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G32" s="76" t="s">
         <v>249</v>
@@ -5970,14 +5967,14 @@
       <c r="B33" s="43"/>
       <c r="C33" s="55"/>
       <c r="D33" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G33" s="90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H33" s="55"/>
     </row>
@@ -5986,11 +5983,11 @@
       <c r="B34" s="43"/>
       <c r="C34" s="55"/>
       <c r="D34" s="49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E34" s="55"/>
       <c r="F34" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>241</v>
@@ -6002,14 +5999,14 @@
       <c r="B35" s="43"/>
       <c r="C35" s="55"/>
       <c r="D35" s="49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G35" s="90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H35" s="55"/>
     </row>
@@ -6018,14 +6015,14 @@
       <c r="B36" s="43"/>
       <c r="C36" s="55"/>
       <c r="D36" s="49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G36" s="90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H36" s="55"/>
     </row>
@@ -6034,14 +6031,14 @@
       <c r="B37" s="43"/>
       <c r="C37" s="55"/>
       <c r="D37" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E37" s="55"/>
       <c r="F37" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G37" s="90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H37" s="55"/>
     </row>
@@ -6050,14 +6047,14 @@
       <c r="B38" s="43"/>
       <c r="C38" s="55"/>
       <c r="D38" s="49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E38" s="55"/>
       <c r="F38" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G38" s="90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H38" s="55"/>
     </row>
@@ -6066,14 +6063,14 @@
       <c r="B39" s="43"/>
       <c r="C39" s="55"/>
       <c r="D39" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E39" s="55"/>
       <c r="F39" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G39" s="90" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H39" s="43"/>
     </row>
@@ -6082,11 +6079,11 @@
       <c r="B40" s="43"/>
       <c r="C40" s="55"/>
       <c r="D40" s="49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E40" s="55"/>
       <c r="F40" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G40" s="76" t="s">
         <v>248</v>
@@ -6098,14 +6095,14 @@
       <c r="B41" s="43"/>
       <c r="C41" s="55"/>
       <c r="D41" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E41" s="55"/>
       <c r="F41" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G41" s="91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H41" s="43"/>
     </row>
@@ -6113,31 +6110,31 @@
       <c r="A42" s="55"/>
       <c r="B42" s="43"/>
       <c r="C42" s="69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="88" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G42" s="91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="55"/>
       <c r="B43" s="70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G43" s="91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H43" s="43"/>
     </row>
@@ -6153,7 +6150,7 @@
     </row>
     <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
@@ -6166,7 +6163,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="43"/>
       <c r="B46" s="66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
@@ -6178,15 +6175,15 @@
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="90" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H47" s="43"/>
     </row>
@@ -6194,17 +6191,17 @@
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G48" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H48" s="43"/>
     </row>
@@ -6217,16 +6214,16 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="43"/>
       <c r="B50" s="70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="88" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G50" s="90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -6240,14 +6237,14 @@
     <row r="52" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55"/>
       <c r="B52" s="66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G52" s="90"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="43"/>
       <c r="C53" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
@@ -6258,14 +6255,14 @@
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
       <c r="D54" s="55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E54" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="90" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -6273,14 +6270,14 @@
       <c r="B55" s="55"/>
       <c r="C55" s="67"/>
       <c r="D55" s="55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F55" s="67"/>
       <c r="G55" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -6288,165 +6285,165 @@
       <c r="B56" s="55"/>
       <c r="C56" s="67"/>
       <c r="D56" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E56" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F56" s="88" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G56" s="90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="67"/>
       <c r="B57" s="55"/>
       <c r="C57" s="49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D57" s="43"/>
       <c r="F57" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G57" s="90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G58" s="90" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G59" s="90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G60" s="90" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G61" s="90" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G62" s="90" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G63" s="90" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G64" s="90" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G65" s="90" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G66" s="90" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -6460,16 +6457,16 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="43"/>
       <c r="B68" s="71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="88" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G68" s="90" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -6483,7 +6480,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="43"/>
       <c r="B70" s="66" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
@@ -6494,135 +6491,135 @@
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G71" s="90" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G72" s="90" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" s="90" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G74" s="90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="65" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G75" s="90" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G76" s="90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G77" s="90" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G78" s="90" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="43"/>
       <c r="B79" s="71" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C79" s="43"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="88" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G79" s="90" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -6636,52 +6633,52 @@
     <row r="81" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="55"/>
       <c r="B81" s="71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G81" s="90"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="43"/>
       <c r="C82" s="65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G82" s="90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G83" s="90" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G84" s="90" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -6695,16 +6692,16 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="43"/>
       <c r="B86" s="71" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C86" s="43"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G86" s="90" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -6718,37 +6715,37 @@
     <row r="88" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="65"/>
       <c r="B88" s="71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G88" s="90"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="43"/>
       <c r="C89" s="65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G89" s="90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G90" s="90" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -6762,16 +6759,16 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="43"/>
       <c r="B92" s="71" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C92" s="43"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G92" s="90" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -6785,7 +6782,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="43"/>
       <c r="B94" s="71" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C94" s="43"/>
       <c r="D94" s="43"/>
@@ -6796,50 +6793,50 @@
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="65" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G95" s="90" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="66" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C96" s="43"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="88" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G96" s="90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="43"/>
       <c r="B97" s="66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="88" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G97" s="90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B99" s="57"/>
       <c r="C99" s="74"/>
@@ -6850,16 +6847,16 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="43"/>
       <c r="B100" s="55" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G100" s="90" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -6875,146 +6872,146 @@
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E102" s="43"/>
       <c r="F102" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G102" s="90" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E103" s="43"/>
       <c r="F103" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G103" s="90" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="72" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E104" s="43"/>
       <c r="F104" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G104" s="90" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E105" s="43"/>
       <c r="F105" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G105" s="90" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E106" s="43"/>
       <c r="F106" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G106" s="90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E107" s="43"/>
       <c r="F107" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G107" s="90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E108" s="43"/>
       <c r="F108" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G108" s="90" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="72" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E109" s="43"/>
       <c r="F109" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G109" s="90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B110" s="70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C110" s="43"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="88" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G110" s="90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" s="55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C111" s="43"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G111" s="90" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B112" s="43"/>
       <c r="C112" s="73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
@@ -7024,14 +7021,14 @@
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E113" s="43"/>
       <c r="F113" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G113" s="90" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -7047,48 +7044,48 @@
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E115" s="43"/>
       <c r="F115" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G115" s="90" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B116" s="70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C116" s="43"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="88" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G116" s="90" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="43"/>
       <c r="B117" s="70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C117" s="43"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="88" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G117" s="90" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="57" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B119" s="57"/>
       <c r="C119" s="74"/>
@@ -7099,7 +7096,7 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="43"/>
       <c r="B120" s="55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C120" s="43"/>
       <c r="D120" s="43"/>
@@ -7110,12 +7107,12 @@
       <c r="A121" s="43"/>
       <c r="B121" s="43"/>
       <c r="C121" s="72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="88" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G121" s="90" t="s">
         <v>262</v>
@@ -7125,15 +7122,15 @@
       <c r="A122" s="43"/>
       <c r="B122" s="43"/>
       <c r="C122" s="72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G122" s="90" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -7150,22 +7147,22 @@
       <c r="A124" s="43"/>
       <c r="B124" s="43"/>
       <c r="C124" s="72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="88" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G124" s="91" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="43"/>
       <c r="B125" s="43"/>
       <c r="C125" s="72" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
@@ -7176,14 +7173,14 @@
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E126" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F126" s="43"/>
       <c r="G126" s="90" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -7191,91 +7188,91 @@
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="E127" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="F127" s="88" t="s">
+        <v>644</v>
+      </c>
+      <c r="G127" s="90" t="s">
         <v>515</v>
-      </c>
-      <c r="E127" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="F127" s="88" t="s">
-        <v>645</v>
-      </c>
-      <c r="G127" s="90" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="43"/>
       <c r="B128" s="43"/>
       <c r="C128" s="72" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G128" s="90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="43"/>
       <c r="B129" s="43"/>
       <c r="C129" s="56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G129" s="90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="43"/>
       <c r="B130" s="70" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="88" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G130" s="90" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="43"/>
       <c r="B131" s="70" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G131" s="90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="43"/>
       <c r="B132" s="72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C132" s="43"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="88" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G132" s="90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -7303,7 +7300,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -7314,51 +7311,51 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="80"/>
       <c r="D2" s="79"/>
       <c r="E2" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
       <c r="E3" s="77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="86" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
       <c r="E4" s="77" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="86" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="86" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -7367,18 +7364,18 @@
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
       <c r="D7" s="82"/>
       <c r="E7" s="77" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="86" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -7404,8 +7401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7426,51 +7423,51 @@
         <v>285</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G8" t="s">
         <v>290</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="G8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D9" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G9" t="s">
         <v>292</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="G9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -7481,50 +7478,50 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D13" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" t="s">
         <v>296</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="G13" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D14" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G14" t="s">
         <v>298</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="G14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -7535,106 +7532,106 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D16" s="33"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C17" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C18" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -7645,7 +7642,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="29"/>
@@ -7653,7 +7650,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C26" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="34">
@@ -7663,12 +7660,12 @@
         <v>7000.1</v>
       </c>
       <c r="G26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C27" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="35">
@@ -7678,7 +7675,7 @@
         <v>7000.2</v>
       </c>
       <c r="G27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -7689,7 +7686,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="29"/>
@@ -7697,7 +7694,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="36">
@@ -7707,12 +7704,12 @@
         <v>7000.4</v>
       </c>
       <c r="G30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C31" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="35">
@@ -7722,7 +7719,7 @@
         <v>7000.5</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -7733,7 +7730,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="36">
@@ -7743,7 +7740,7 @@
         <v>7000.6</v>
       </c>
       <c r="G33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
@@ -7754,7 +7751,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="36">
@@ -7764,7 +7761,7 @@
         <v>7000.7</v>
       </c>
       <c r="G35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
@@ -7775,7 +7772,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="29"/>
@@ -7783,7 +7780,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C38" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="37">
@@ -7793,12 +7790,12 @@
         <v>7000.8</v>
       </c>
       <c r="G38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C39" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="35">
@@ -7808,7 +7805,7 @@
         <v>7000.9</v>
       </c>
       <c r="G39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
@@ -7819,17 +7816,17 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F41" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -7840,7 +7837,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="29"/>
@@ -7848,22 +7845,22 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C44" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C45" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="35">
@@ -7873,7 +7870,7 @@
         <v>7400.2</v>
       </c>
       <c r="G45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
@@ -7884,7 +7881,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="36">
@@ -7894,7 +7891,7 @@
         <v>7400.1</v>
       </c>
       <c r="G47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
@@ -7905,95 +7902,95 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
         <v>342</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="G49" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C50" s="39"/>
       <c r="D50" s="30"/>
       <c r="E50" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="G50" s="77" t="s">
         <v>537</v>
-      </c>
-      <c r="F50" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="G50" s="77" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C51" s="40"/>
       <c r="D51" s="30"/>
       <c r="E51" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F51" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C52" s="40"/>
       <c r="D52" s="30"/>
       <c r="E52" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F52" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C53" s="40"/>
       <c r="D53" s="30"/>
       <c r="E53" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F53" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G53" s="77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C54" s="40"/>
       <c r="D54" s="30"/>
       <c r="E54" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F54" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G54" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C55" s="40"/>
       <c r="D55" s="30"/>
       <c r="E55" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F55" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G55" s="77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -8005,37 +8002,37 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="88" t="s">
+        <v>647</v>
+      </c>
+      <c r="F57" s="88" t="s">
         <v>648</v>
       </c>
-      <c r="F57" s="88" t="s">
-        <v>649</v>
-      </c>
       <c r="G57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -8044,17 +8041,17 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -8063,17 +8060,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F64" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.35">
@@ -8082,53 +8079,53 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D66" s="27"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C67" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F67" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C68" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F68" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C69" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F69" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.35">
@@ -8137,38 +8134,38 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" s="27"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C72" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F72" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C73" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F73" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.35">
@@ -8177,7 +8174,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="36">
@@ -8187,7 +8184,7 @@
         <v>7420</v>
       </c>
       <c r="G75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.35">
@@ -8196,17 +8193,17 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F77" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.35">
@@ -8215,17 +8212,17 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F79" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.35">
@@ -8234,17 +8231,17 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B81" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F81" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -8253,95 +8250,95 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F83" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C84" s="39"/>
       <c r="D84" s="30"/>
       <c r="E84" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F84" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G84" s="77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C85" s="39"/>
       <c r="D85" s="30"/>
       <c r="E85" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F85" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G85" s="77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C86" s="39"/>
       <c r="D86" s="30"/>
       <c r="E86" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F86" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G86" s="77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C87" s="39"/>
       <c r="D87" s="30"/>
       <c r="E87" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F87" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G87" s="77" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C88" s="39"/>
       <c r="D88" s="30"/>
       <c r="E88" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F88" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G88" s="77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C89" s="39"/>
       <c r="D89" s="30"/>
       <c r="E89" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G89" s="77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -8358,17 +8355,17 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F92" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -8377,22 +8374,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="88" t="s">
+        <v>651</v>
+      </c>
+      <c r="F94" s="88" t="s">
         <v>652</v>
       </c>
-      <c r="F94" s="88" t="s">
-        <v>653</v>
-      </c>
       <c r="G94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="35">
@@ -8402,52 +8399,52 @@
         <v>7500</v>
       </c>
       <c r="G95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F96" s="97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F97" s="88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="97" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F98" s="97" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
